--- a/tp5-busquedas-locales/code/simulated_annealing_results.xlsx
+++ b/tp5-busquedas-locales/code/simulated_annealing_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Movimientos</t>
+          <t>Tablero solución</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Número de conflicos</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad de Movimientos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tiempo (segundos)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Historial de reinas amenazadas</t>
         </is>
       </c>
     </row>
@@ -454,1650 +469,3600 @@
       <c r="A2" t="n">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>46</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>112</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0009975433349609375</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[6, 10, 8, 8, 8, 8, 4, 4, 4, 6, 10, 6, 10, 10, 10, 8, 8, 10, 8, 8, 8, 8, 4, 6, 4, 10, 6, 10, 6, 8, 10, 10, 10, 8, 8, 8, 6, 4, 8, 8, 6, 2, 2, 6, 6, 6, 8, 8, 4, 8, 8, 8, 8, 6, 6, 6, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>48</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0009980201721191406</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.001046895980834961</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[4, 8, 4, 10, 8, 6, 2, 2, 6, 8, 4, 2, 4, 6, 10, 6, 8, 6, 4, 4, 4, 2, 6, 8, 6, 8, 4, 8, 8, 6, 8, 6, 2, 4, 2, 6, 6, 6, 6, 6, 6, 8, 6, 6, 4, 8, 8, 8, 6, 8, 6, 6, 6, 2, 2, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[4, 8, 10, 8, 6, 8, 6, 10, 6, 8, 4, 8, 10, 8, 8, 4, 0]</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>20</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>95</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0009970664978027344</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[4, 6, 4, 4, 8, 4, 4, 6, 6, 8, 6, 8, 6, 2, 6, 6, 8, 6, 8, 6, 4, 8, 4, 2, 4, 2, 2, 4, 8, 6, 6, 6, 8, 6, 2, 4, 8, 4, 2, 2, 4, 4, 8, 4, 4, 6, 6, 6, 8, 10, 4, 4, 2, 4, 4, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>136</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0009968280792236328</v>
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>84</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[6, 6, 4, 6, 6, 6, 6, 2, 6, 8, 8, 8, 6, 8, 8, 6, 4, 4, 10, 12, 10, 8, 6, 6, 4, 4, 4, 4, 4, 8, 6, 6, 4, 4, 4, 8, 8, 6, 6, 10, 6, 8, 4, 6, 8, 8, 4, 6, 2, 2, 2, 2, 2, 4, 2, 2, 2, 2, 2, 2, 2, 2, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>187</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>112</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0009970664978027344</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[8, 10, 12, 8, 10, 12, 8, 8, 8, 6, 6, 6, 6, 8, 6, 6, 4, 6, 6, 6, 6, 2, 4, 4, 6, 4, 10, 6, 6, 10, 6, 10, 4, 6, 6, 8, 10, 8, 10, 12, 10, 6, 6, 8, 6, 6, 10, 8, 10, 8, 8, 8, 8, 8, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>4</v>
       </c>
-      <c r="B8" t="n">
-        <v>21</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[8, 8, 6, 6, 6, 4, 4, 6, 10, 6, 10, 8, 6, 8, 6, 8, 8, 8, 8, 8, 6, 4, 8, 8, 6, 0]</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>4</v>
       </c>
-      <c r="B9" t="n">
-        <v>116</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0009970664978027344</v>
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>62</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0009975433349609375</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[12, 10, 4, 10, 10, 10, 6, 8, 6, 10, 6, 6, 6, 10, 10, 4, 6, 6, 6, 10, 6, 6, 2, 4, 2, 4, 8, 4, 6, 4, 6, 10, 6, 4, 6, 2, 6, 4, 4, 6, 4, 6, 8, 8, 8, 4, 4, 4, 2, 8, 6, 2, 6, 6, 2, 2, 8, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>4</v>
       </c>
-      <c r="B10" t="n">
-        <v>32</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>38</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[6, 4, 2, 6, 6, 8, 8, 6, 4, 8, 4, 6, 4, 2, 6, 6, 6, 6, 4, 10, 8, 6, 2, 6, 6, 10, 6, 6, 8, 8, 8, 6, 6, 6, 8, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>4</v>
       </c>
-      <c r="B11" t="n">
-        <v>119</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0009975433349609375</v>
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>62</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[4, 6, 4, 6, 10, 10, 10, 4, 8, 6, 8, 8, 8, 6, 4, 8, 6, 6, 10, 6, 6, 8, 8, 8, 6, 8, 2, 4, 6, 4, 6, 4, 6, 10, 10, 6, 2, 2, 8, 10, 6, 4, 4, 4, 6, 4, 6, 8, 2, 2, 4, 4, 4, 4, 4, 6, 4, 6, 4, 4, 4, 0]</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>4</v>
       </c>
-      <c r="B12" t="n">
-        <v>18</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>56</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0009973049163818359</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[10, 6, 8, 10, 6, 6, 8, 6, 10, 10, 8, 6, 10, 8, 4, 8, 4, 6, 8, 8, 4, 6, 8, 4, 4, 4, 8, 8, 4, 8, 8, 8, 8, 4, 10, 10, 8, 6, 8, 8, 8, 4, 4, 6, 8, 6, 4, 4, 6, 4, 6, 4, 4, 4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>4</v>
       </c>
-      <c r="B13" t="n">
-        <v>80</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>107</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[10, 10, 6, 2, 6, 8, 6, 4, 6, 2, 6, 6, 2, 8, 10, 10, 8, 10, 10, 4, 10, 8, 6, 8, 6, 2, 4, 4, 4, 8, 8, 4, 4, 8, 8, 6, 4, 8, 4, 6, 4, 4, 6, 6, 4, 4, 10, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>4</v>
       </c>
-      <c r="B14" t="n">
-        <v>136</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>154</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.0009973049163818359</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[8, 6, 4, 6, 4, 2, 4, 10, 6, 8, 10, 10, 6, 4, 4, 6, 4, 6, 4, 6, 6, 8, 6, 10, 10, 10, 8, 8, 8, 4, 8, 8, 8, 4, 10, 8, 4, 4, 4, 6, 6, 6, 10, 10, 10, 10, 10, 8, 4, 4, 4, 4, 8, 8, 6, 4, 4, 4, 4, 4, 6, 4, 4, 6, 6, 6, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
-        <v>228</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>0.00199437141418457</v>
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0009970664978027344</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[8, 6, 8, 6, 4, 6, 8, 8, 8, 4, 4, 2, 6, 6, 10, 6, 10, 8, 8, 10, 8, 8, 6, 2, 2, 6, 6, 6, 6, 4, 8, 8, 6, 8, 10, 6, 2, 4, 4, 8, 4, 6, 6, 8, 10, 8, 6, 6, 4, 0]</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>4</v>
       </c>
-      <c r="B16" t="n">
-        <v>456</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>0.002992391586303711</v>
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>124</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[8, 4, 4, 8, 6, 6, 6, 6, 10, 12, 8, 4, 4, 6, 12, 8, 8, 4, 6, 8, 6, 2, 6, 10, 8, 10, 10, 4, 8, 10, 12, 10, 10, 4, 4, 4, 4, 4, 6, 6, 8, 10, 10, 10, 8, 6, 8, 8, 8, 8, 8, 6, 6, 8, 6, 6, 6, 6, 6, 4, 4, 4, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>4</v>
       </c>
-      <c r="B17" t="n">
-        <v>415</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>0.00199437141418457</v>
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>29</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0009975433349609375</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[8, 6, 4, 4, 10, 10, 8, 8, 12, 8, 4, 4, 6, 8, 10, 10, 6, 10, 10, 10, 10, 6, 6, 2, 4, 4, 4, 6, 0]</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>4</v>
       </c>
-      <c r="B18" t="n">
-        <v>96</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>104</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[6, 6, 8, 6, 4, 8, 4, 8, 8, 8, 8, 8, 8, 6, 6, 6, 8, 4, 2, 4, 8, 8, 10, 8, 6, 10, 8, 8, 8, 10, 4, 4, 4, 4, 8, 6, 2, 6, 4, 4, 6, 8, 4, 4, 4, 4, 8, 8, 8, 8, 6, 6, 6, 4, 2, 2, 2, 6, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>4</v>
       </c>
-      <c r="B19" t="n">
-        <v>90</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[8, 10, 8, 6, 6, 4, 2, 4, 6, 6, 6, 6, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>4</v>
       </c>
-      <c r="B20" t="n">
-        <v>212</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>0.001994848251342773</v>
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>55</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0009973049163818359</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[8, 8, 6, 10, 8, 12, 8, 8, 8, 10, 4, 4, 8, 12, 8, 6, 8, 6, 8, 6, 10, 4, 4, 4, 4, 6, 10, 6, 2, 8, 6, 8, 8, 6, 6, 6, 8, 4, 8, 4, 4, 4, 4, 8, 10, 6, 6, 6, 6, 8, 4, 4, 4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>4</v>
       </c>
-      <c r="B21" t="n">
-        <v>168</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0009982585906982422</v>
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>99</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[10, 6, 4, 10, 4, 6, 8, 6, 6, 6, 6, 8, 6, 8, 6, 8, 6, 8, 12, 6, 12, 8, 4, 6, 8, 2, 2, 6, 8, 6, 2, 8, 10, 6, 2, 4, 8, 8, 6, 8, 8, 8, 10, 4, 8, 4, 4, 6, 6, 6, 6, 6, 8, 8, 8, 8, 6, 8, 6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>4</v>
       </c>
-      <c r="B22" t="n">
-        <v>204</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>0.002991914749145508</v>
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>171</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001995325088500977</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[10, 6, 6, 4, 6, 6, 6, 8, 4, 6, 8, 6, 4, 4, 4, 4, 6, 6, 4, 6, 8, 6, 6, 4, 4, 6, 4, 4, 4, 4, 8, 8, 4, 2, 4, 4, 8, 8, 10, 8, 8, 6, 8, 6, 2, 2, 4, 6, 4, 8, 8, 8, 8, 4, 4, 4, 6, 6, 8, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>4</v>
       </c>
-      <c r="B23" t="n">
-        <v>420</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>0.003988981246948242</v>
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>43</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[6, 6, 8, 6, 4, 4, 6, 8, 6, 2, 6, 6, 6, 8, 8, 8, 4, 4, 6, 10, 6, 6, 8, 10, 6, 8, 8, 10, 10, 10, 10, 8, 4, 6, 4, 4, 6, 8, 4, 2, 6, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>4</v>
       </c>
-      <c r="B24" t="n">
-        <v>14</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>101</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0009973049163818359</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[6, 4, 8, 8, 6, 6, 8, 4, 4, 4, 6, 4, 6, 4, 6, 8, 8, 2, 6, 8, 4, 6, 10, 12, 8, 4, 4, 4, 4, 8, 6, 10, 8, 8, 2, 8, 6, 8, 12, 8, 6, 8, 8, 6, 8, 4, 2, 4, 4, 4, 10, 6, 10, 6, 4, 4, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>4</v>
       </c>
-      <c r="B25" t="n">
-        <v>4</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[8, 8, 8, 4, 4, 4, 6, 8, 8, 6, 0]</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>4</v>
       </c>
-      <c r="B26" t="n">
-        <v>65</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0009984970092773438</v>
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>151</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0009968280792236328</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[8, 8, 8, 8, 4, 4, 8, 8, 8, 10, 10, 4, 8, 8, 6, 4, 4, 8, 6, 8, 4, 4, 4, 2, 4, 4, 4, 8, 8, 4, 4, 8, 6, 6, 2, 4, 8, 8, 8, 4, 6, 8, 12, 8, 10, 10, 10, 8, 6, 6, 6, 6, 8, 6, 10, 8, 8, 4, 4, 4, 4, 4, 6, 6, 6, 2, 2, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>4</v>
       </c>
-      <c r="B27" t="n">
-        <v>67</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>119</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0009980201721191406</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[6, 8, 4, 4, 4, 4, 8, 6, 2, 4, 8, 6, 8, 6, 4, 8, 4, 2, 4, 6, 8, 6, 8, 8, 10, 6, 6, 6, 2, 2, 2, 2, 4, 6, 4, 6, 6, 6, 8, 6, 8, 10, 10, 6, 10, 6, 6, 6, 8, 8, 8, 6, 4, 4, 4, 4, 4, 4, 6, 6, 6, 6, 6, 6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>4</v>
       </c>
-      <c r="B28" t="n">
-        <v>79</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0009958744049072266</v>
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>80</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[6, 6, 8, 8, 6, 2, 4, 10, 8, 6, 6, 8, 8, 8, 10, 10, 6, 8, 8, 8, 6, 4, 8, 6, 6, 6, 8, 10, 6, 8, 6, 2, 4, 8, 6, 6, 6, 6, 10, 8, 10, 6, 6, 10, 8, 6, 4, 10, 10, 8, 6, 4, 6, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 6, 6, 2, 2, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>4</v>
       </c>
-      <c r="B29" t="n">
-        <v>10</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>82</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0009970664978027344</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[4, 10, 6, 6, 12, 8, 6, 8, 8, 8, 8, 8, 10, 12, 6, 6, 2, 2, 6, 8, 8, 6, 8, 6, 10, 10, 10, 10, 6, 2, 4, 2, 6, 6, 8, 8, 8, 4, 6, 4, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 8, 6, 4, 4, 4, 4, 4, 4, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>4</v>
       </c>
-      <c r="B30" t="n">
-        <v>98</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[6, 4, 4, 4, 4, 8, 4, 6, 0]</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>4</v>
       </c>
-      <c r="B31" t="n">
-        <v>37</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>147</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0009968280792236328</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[10, 10, 10, 8, 6, 2, 8, 6, 10, 6, 6, 4, 8, 6, 8, 6, 8, 6, 8, 8, 8, 10, 12, 8, 8, 6, 6, 6, 6, 8, 6, 8, 12, 8, 10, 12, 10, 4, 8, 8, 6, 4, 4, 4, 4, 6, 4, 6, 4, 6, 6, 8, 4, 6, 6, 6, 8, 6, 6, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>8</v>
       </c>
-      <c r="B32" t="n">
-        <v>1001</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[4, 1, 3, 5, 7, 2, 0, 6]</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01994657516479492</v>
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>396</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.007978916168212891</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[26, 22, 16, 14, 20, 18, 26, 22, 18, 18, 26, 22, 22, 20, 14, 20, 22, 30, 20, 18, 18, 16, 20, 18, 14, 18, 18, 16, 18, 14, 18, 26, 30, 22, 18, 18, 16, 14, 12, 20, 20, 28, 24, 20, 14, 10, 10, 8, 8, 8, 12, 12, 12, 14, 14, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>8</v>
       </c>
-      <c r="B33" t="n">
-        <v>869</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[4, 6, 0, 2, 7, 5, 3, 1]</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01651930809020996</v>
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>335</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.006981134414672852</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[18, 22, 22, 18, 22, 20, 14, 12, 12, 10, 12, 14, 14, 10, 10, 12, 12, 8, 10, 6, 6, 8, 10, 6, 8, 14, 14, 12, 10, 12, 14, 10, 14, 20, 16, 14, 14, 14, 16, 12, 14, 12, 18, 12, 12, 12, 14, 12, 12, 8, 8, 8, 10, 12, 14, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>8</v>
       </c>
-      <c r="B34" t="n">
-        <v>1001</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[2, 7, 3, 6, 0, 5, 1, 4]</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>0.01994681358337402</v>
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>275</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.004986763000488281</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[12, 12, 12, 12, 12, 16, 18, 16, 14, 20, 14, 6, 12, 14, 18, 16, 16, 20, 24, 18, 18, 14, 12, 14, 16, 10, 14, 18, 16, 16, 20, 18, 12, 8, 12, 12, 10, 12, 16, 18, 22, 26, 26, 26, 24, 20, 18, 14, 12, 12, 12, 12, 12, 10, 10, 20, 18, 14, 14, 14, 14, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>8</v>
       </c>
-      <c r="B35" t="n">
-        <v>1001</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[6, 2, 7, 1, 4, 0, 5, 3]</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01894927024841309</v>
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>324</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.007040023803710938</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[14, 18, 16, 18, 18, 22, 22, 20, 18, 20, 18, 16, 16, 18, 16, 18, 18, 18, 14, 14, 16, 16, 20, 18, 14, 14, 18, 18, 12, 8, 6, 10, 12, 16, 14, 18, 18, 14, 12, 12, 12, 10, 10, 10, 4, 4, 4, 6, 6, 6, 6, 6, 6, 6, 6, 8, 8, 8, 8, 8, 8, 8, 10, 10, 10, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>8</v>
       </c>
-      <c r="B36" t="n">
-        <v>1001</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[2, 6, 1, 7, 5, 3, 0, 4]</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>0.01994705200195312</v>
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>651</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01301383972167969</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[20, 14, 16, 14, 20, 16, 20, 26, 22, 24, 24, 22, 20, 18, 20, 18, 16, 12, 16, 12, 16, 16, 18, 18, 24, 20, 18, 24, 18, 14, 16, 18, 16, 12, 12, 12, 12, 12, 14, 16, 14, 18, 18, 18, 16, 12, 14, 14, 10, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 10, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>8</v>
       </c>
-      <c r="B37" t="n">
-        <v>1001</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[4, 0, 7, 3, 1, 6, 2, 5]</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01894903182983398</v>
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>138</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.002991676330566406</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[18, 20, 16, 16, 20, 20, 16, 20, 14, 16, 12, 20, 16, 18, 10, 10, 12, 12, 18, 18, 12, 14, 20, 26, 20, 18, 20, 18, 18, 16, 14, 16, 12, 20, 18, 22, 16, 12, 14, 18, 24, 24, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 12, 12, 10, 10, 10, 10, 10, 8, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 0]</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>8</v>
       </c>
-      <c r="B38" t="n">
-        <v>806</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[2, 4, 6, 0, 3, 1, 7, 7]</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01496005058288574</v>
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.02007007598876953</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[16, 20, 18, 16, 12, 10, 16, 12, 10, 14, 14, 12, 16, 16, 20, 16, 16, 24, 14, 8, 6, 8, 10, 8, 14, 10, 12, 10, 8, 12, 20, 14, 12, 12, 16, 16, 14, 16, 10, 10, 12, 10, 10, 10, 10, 8, 8, 12, 16, 14, 10, 10, 10, 10, 8, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>8</v>
       </c>
-      <c r="B39" t="n">
-        <v>822</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[5, 0, 4, 1, 7, 2, 6, 3]</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01595735549926758</v>
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>148</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.003031253814697266</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[16, 12, 12, 12, 12, 16, 16, 18, 12, 12, 10, 10, 14, 20, 26, 26, 24, 26, 28, 36, 30, 28, 28, 22, 22, 22, 18, 16, 16, 14, 12, 10, 8, 12, 16, 18, 14, 20, 18, 18, 18, 14, 14, 14, 16, 16, 16, 14, 14, 14, 16, 22, 22, 20, 18, 20, 16, 16, 16, 12, 10, 10, 8, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>8</v>
       </c>
-      <c r="B40" t="n">
-        <v>1001</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[5, 1, 6, 0, 3, 7, 4, 2]</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>0.01994657516479492</v>
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>471</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01002645492553711</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[14, 14, 18, 14, 12, 10, 4, 10, 12, 12, 14, 12, 12, 12, 22, 28, 20, 24, 14, 22, 20, 20, 18, 18, 20, 18, 14, 16, 12, 10, 8, 14, 14, 10, 10, 10, 14, 12, 16, 8, 10, 14, 12, 12, 12, 10, 10, 10, 12, 14, 14, 14, 12, 10, 10, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>8</v>
       </c>
-      <c r="B41" t="n">
-        <v>650</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[3, 7, 6, 4, 1, 5, 0, 2]</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>0.01196789741516113</v>
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.01994657516479492</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[12, 14, 20, 20, 20, 14, 8, 18, 20, 16, 16, 16, 18, 14, 10, 12, 10, 12, 14, 10, 16, 16, 20, 18, 18, 16, 14, 14, 14, 12, 12, 16, 16, 16, 16, 18, 16, 16, 14, 12, 14, 18, 18, 14, 12, 12, 14, 14, 14, 14, 12, 12, 12, 12, 14, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>8</v>
       </c>
-      <c r="B42" t="n">
-        <v>1001</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[6, 0, 2, 7, 5, 3, 1, 4]</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>0.01948404312133789</v>
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>308</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.005983829498291016</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[10, 10, 8, 12, 16, 14, 18, 24, 18, 18, 14, 22, 14, 14, 12, 16, 20, 14, 14, 12, 10, 14, 22, 28, 20, 26, 22, 14, 12, 8, 8, 10, 10, 14, 14, 10, 10, 10, 8, 10, 8, 10, 12, 12, 12, 12, 14, 12, 12, 14, 16, 12, 12, 10, 10, 10, 10, 14, 14, 14, 16, 16, 18, 16, 16, 16, 16, 14, 14, 20, 14, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>8</v>
       </c>
-      <c r="B43" t="n">
-        <v>1001</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[6, 0, 2, 7, 5, 3, 1, 4]</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>0.01894903182983398</v>
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>503</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0109708309173584</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[12, 14, 14, 10, 16, 16, 16, 10, 8, 10, 10, 14, 10, 8, 8, 10, 10, 10, 10, 10, 10, 12, 16, 18, 16, 18, 16, 12, 18, 16, 12, 10, 12, 14, 22, 20, 18, 12, 10, 12, 10, 8, 8, 8, 8, 12, 18, 12, 12, 10, 12, 12, 16, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>8</v>
       </c>
-      <c r="B44" t="n">
-        <v>878</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[6, 1, 3, 0, 7, 4, 2, 5]</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>0.01695489883422852</v>
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>994</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.01994681358337402</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[12, 10, 14, 14, 18, 14, 12, 12, 14, 10, 14, 12, 14, 20, 22, 22, 18, 16, 16, 16, 16, 18, 14, 12, 14, 18, 18, 18, 18, 26, 24, 26, 24, 24, 16, 20, 16, 20, 14, 16, 16, 18, 18, 14, 8, 18, 8, 10, 10, 8, 8, 6, 6, 6, 6, 6, 10, 14, 14, 12, 10, 8, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 6, 6, 6, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>8</v>
       </c>
-      <c r="B45" t="n">
-        <v>861</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[4, 7, 3, 0, 2, 5, 1, 6]</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>0.01595711708068848</v>
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>671</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.01299381256103516</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[12, 18, 14, 12, 16, 14, 14, 14, 12, 14, 14, 12, 14, 12, 8, 10, 10, 8, 16, 16, 20, 22, 26, 28, 24, 22, 16, 10, 8, 14, 10, 6, 10, 10, 12, 16, 16, 10, 12, 12, 12, 12, 14, 14, 12, 12, 14, 16, 18, 14, 12, 18, 18, 18, 18, 20, 18, 18, 18, 18, 18, 18, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>8</v>
       </c>
-      <c r="B46" t="n">
-        <v>1001</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[3, 0, 4, 7, 1, 6, 2, 5]</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>0.01994657516479492</v>
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>605</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0119936466217041</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[12, 14, 16, 16, 12, 12, 16, 20, 20, 16, 12, 12, 16, 14, 12, 12, 18, 20, 18, 22, 18, 24, 26, 22, 26, 20, 28, 28, 28, 22, 14, 10, 10, 16, 20, 20, 18, 14, 12, 14, 12, 12, 12, 10, 8, 14, 16, 18, 12, 8, 10, 8, 8, 8, 8, 8, 8, 8, 8, 10, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>8</v>
       </c>
-      <c r="B47" t="n">
-        <v>1001</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[7, 1, 4, 2, 0, 6, 3, 5]</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>0.01894950866699219</v>
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>259</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.005983829498291016</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[20, 20, 24, 20, 20, 20, 18, 16, 20, 16, 16, 16, 22, 26, 28, 26, 26, 26, 24, 26, 22, 22, 24, 26, 24, 20, 16, 22, 20, 22, 22, 18, 18, 18, 16, 14, 14, 14, 14, 14, 14, 16, 16, 14, 20, 20, 20, 20, 14, 16, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 12, 12, 12, 12, 12, 12, 12, 14, 12, 12, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>8</v>
       </c>
-      <c r="B48" t="n">
-        <v>1001</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[4, 6, 1, 3, 7, 0, 2, 5]</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>0.01894927024841309</v>
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>295</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.005017280578613281</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[14, 10, 12, 14, 14, 10, 10, 10, 12, 10, 12, 12, 16, 20, 16, 16, 14, 12, 12, 12, 8, 14, 14, 10, 8, 10, 14, 14, 10, 18, 16, 14, 12, 8, 8, 8, 12, 10, 16, 18, 18, 24, 18, 24, 18, 14, 12, 16, 10, 10, 8, 6, 6, 8, 8, 8, 8, 6, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>8</v>
       </c>
-      <c r="B49" t="n">
-        <v>894</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[2, 5, 1, 6, 4, 0, 7, 3]</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>0.01695466041564941</v>
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>511</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.01099801063537598</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[18, 16, 20, 20, 20, 24, 22, 18, 14, 12, 14, 14, 16, 16, 20, 12, 18, 20, 20, 16, 20, 16, 20, 16, 16, 18, 16, 16, 16, 18, 14, 20, 20, 24, 26, 24, 18, 16, 16, 16, 18, 16, 14, 12, 12, 10, 10, 8, 8, 4, 8, 8, 10, 14, 12, 8, 6, 6, 4, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>8</v>
       </c>
-      <c r="B50" t="n">
-        <v>1001</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[4, 2, 0, 6, 1, 7, 5, 3]</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>0.01894927024841309</v>
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>131</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.001994609832763672</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[14, 16, 18, 20, 18, 20, 18, 14, 16, 20, 20, 24, 30, 28, 22, 18, 20, 18, 12, 14, 20, 22, 16, 18, 18, 18, 22, 18, 20, 28, 24, 16, 12, 14, 14, 16, 16, 20, 22, 18, 8, 10, 12, 14, 14, 12, 10, 10, 6, 6, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>8</v>
       </c>
-      <c r="B51" t="n">
-        <v>1001</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[1, 3, 5, 7, 2, 0, 6, 4]</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01994681358337402</v>
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>217</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.005012273788452148</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[18, 16, 16, 16, 18, 18, 18, 14, 16, 16, 10, 8, 10, 10, 14, 18, 18, 18, 14, 16, 16, 16, 16, 14, 14, 10, 10, 12, 14, 16, 20, 18, 20, 18, 14, 12, 10, 10, 14, 10, 10, 12, 14, 20, 14, 8, 10, 12, 8, 8, 10, 10, 10, 10, 10, 10, 10, 8, 8, 12, 12, 8, 8, 6, 6, 6, 6, 6, 4, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>8</v>
       </c>
-      <c r="B52" t="n">
-        <v>1001</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[3, 5, 2, 4, 6, 0, 5, 1]</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>0.01894927024841309</v>
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.02001333236694336</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>[16, 10, 8, 6, 12, 14, 12, 14, 22, 18, 18, 20, 18, 16, 18, 14, 10, 12, 10, 8, 12, 12, 18, 10, 18, 18, 22, 22, 24, 24, 24, 20, 16, 16, 14, 14, 14, 16, 16, 18, 18, 22, 24, 18, 24, 16, 14, 14, 16, 12, 8, 8, 8, 8, 10, 10, 10, 10, 10, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>8</v>
       </c>
-      <c r="B53" t="n">
-        <v>1001</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[2, 5, 7, 1, 3, 0, 6, 4]</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>0.01848673820495605</v>
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>472</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.009003400802612305</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>[18, 18, 28, 26, 26, 18, 22, 18, 16, 12, 16, 20, 20, 18, 20, 10, 10, 14, 10, 8, 12, 14, 14, 12, 12, 10, 12, 16, 14, 10, 12, 12, 12, 8, 10, 10, 8, 16, 16, 18, 16, 18, 12, 10, 10, 12, 12, 12, 12, 14, 14, 10, 10, 6, 6, 4, 6, 6, 6, 10, 10, 8, 8, 8, 8, 8, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>8</v>
       </c>
-      <c r="B54" t="n">
-        <v>1001</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[1, 7, 2, 6, 2, 0, 5, 3]</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>0.01994681358337402</v>
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.02100872993469238</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>[18, 12, 8, 12, 14, 16, 18, 14, 14, 12, 12, 16, 16, 18, 18, 22, 16, 16, 16, 10, 14, 12, 14, 16, 10, 10, 10, 12, 12, 16, 18, 26, 22, 26, 24, 24, 26, 28, 20, 16, 18, 12, 14, 14, 14, 12, 10, 10, 10, 10, 10, 10, 10, 8, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>8</v>
       </c>
-      <c r="B55" t="n">
-        <v>840</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[2, 7, 5, 3, 5, 0, 4, 6]</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>0.01595711708068848</v>
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.02000737190246582</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>[16, 16, 16, 16, 12, 14, 16, 16, 18, 12, 14, 12, 12, 20, 24, 16, 16, 10, 16, 16, 16, 12, 12, 16, 12, 10, 8, 10, 22, 20, 16, 14, 14, 16, 14, 18, 18, 16, 18, 18, 14, 12, 12, 12, 18, 10, 10, 10, 10, 8, 4, 4, 8, 8, 8, 8, 10, 10, 8, 14, 10, 10, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>8</v>
       </c>
-      <c r="B56" t="n">
-        <v>908</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[5, 2, 4, 7, 0, 3, 1, 6]</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>0.01695489883422852</v>
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>924</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.01801061630249023</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>[14, 10, 8, 10, 8, 8, 16, 14, 14, 16, 8, 10, 16, 16, 20, 20, 12, 16, 12, 12, 14, 14, 14, 8, 10, 10, 6, 6, 10, 8, 10, 12, 12, 12, 14, 12, 12, 16, 22, 20, 18, 12, 14, 14, 14, 16, 14, 14, 14, 14, 18, 14, 16, 16, 16, 12, 14, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>8</v>
       </c>
-      <c r="B57" t="n">
-        <v>1001</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[5, 7, 4, 1, 3, 6, 6, 2]</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>0.01894903182983398</v>
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.02000617980957031</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>[12, 16, 16, 16, 16, 12, 6, 12, 14, 12, 12, 8, 6, 8, 14, 16, 14, 22, 16, 16, 20, 20, 20, 18, 16, 14, 18, 22, 22, 24, 20, 16, 14, 12, 14, 8, 6, 6, 8, 10, 8, 8, 8, 10, 10, 14, 14, 20, 16, 14, 14, 10, 12, 12, 12, 12, 16, 16, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>8</v>
       </c>
-      <c r="B58" t="n">
-        <v>1001</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[6, 2, 7, 1, 4, 0, 5, 3]</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>0.01994681358337402</v>
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>262</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.004986763000488281</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>[16, 16, 14, 14, 14, 20, 22, 24, 22, 26, 22, 18, 18, 14, 22, 18, 12, 16, 22, 20, 22, 18, 18, 22, 20, 16, 16, 16, 16, 10, 18, 12, 16, 18, 14, 14, 10, 14, 14, 14, 18, 14, 16, 14, 10, 12, 16, 16, 16, 20, 16, 16, 18, 18, 12, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>8</v>
       </c>
-      <c r="B59" t="n">
-        <v>1001</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[1, 6, 4, 7, 0, 3, 5, 2]</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>0.01894950866699219</v>
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>92</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.001994609832763672</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>[16, 20, 16, 12, 18, 18, 14, 14, 14, 12, 14, 18, 20, 24, 28, 24, 24, 22, 20, 22, 18, 18, 20, 18, 18, 20, 20, 18, 20, 14, 12, 10, 10, 12, 10, 8, 6, 8, 10, 12, 14, 14, 14, 10, 10, 12, 12, 10, 10, 12, 12, 12, 10, 10, 10, 10, 12, 12, 14, 14, 16, 16, 10, 10, 10, 10, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>8</v>
       </c>
-      <c r="B60" t="n">
-        <v>1001</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[3, 6, 2, 7, 1, 4, 0, 5]</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>0.01894927024841309</v>
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>895</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.01801609992980957</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>[16, 12, 14, 12, 10, 8, 12, 14, 10, 16, 18, 20, 22, 16, 12, 12, 16, 20, 20, 18, 18, 14, 14, 20, 22, 16, 18, 24, 22, 14, 10, 12, 10, 12, 16, 16, 20, 22, 16, 16, 10, 14, 14, 12, 12, 12, 8, 12, 16, 12, 12, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>8</v>
       </c>
-      <c r="B61" t="n">
-        <v>1001</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[3, 7, 4, 2, 0, 6, 1, 5]</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>0.01994657516479492</v>
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>305</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.006012916564941406</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>[18, 16, 18, 20, 18, 18, 12, 10, 10, 14, 14, 20, 14, 18, 20, 20, 22, 20, 22, 18, 14, 14, 10, 8, 14, 18, 18, 18, 22, 18, 20, 14, 12, 20, 22, 22, 20, 20, 22, 20, 16, 18, 18, 14, 14, 16, 14, 12, 10, 10, 14, 14, 14, 14, 16, 16, 16, 14, 14, 14, 14, 12, 14, 14, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>10</v>
       </c>
-      <c r="B62" t="n">
-        <v>1001</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[2, 0, 7, 3, 1, 8, 4, 1, 9, 5]</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>0.02991986274719238</v>
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.03103423118591309</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>[30, 24, 22, 20, 26, 24, 26, 26, 26, 22, 18, 26, 26, 18, 22, 24, 26, 24, 20, 14, 16, 22, 24, 20, 22, 24, 24, 28, 34, 28, 24, 26, 30, 24, 24, 24, 26, 28, 24, 28, 22, 26, 24, 22, 24, 22, 30, 32, 28, 22, 22, 20, 20, 20, 20, 22, 22, 24, 22, 22, 20, 16, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>10</v>
       </c>
-      <c r="B63" t="n">
-        <v>1001</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[5, 0, 9, 7, 2, 2, 6, 8, 1, 4]</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>0.02992010116577148</v>
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.03001236915588379</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>[38, 32, 26, 28, 30, 26, 18, 18, 22, 22, 20, 20, 20, 22, 30, 24, 22, 16, 16, 12, 16, 18, 20, 18, 18, 22, 24, 20, 22, 24, 28, 26, 24, 18, 18, 20, 26, 24, 22, 20, 20, 18, 18, 18, 24, 30, 28, 32, 32, 32, 34, 32, 30, 30, 24, 24, 20, 22, 20, 16, 14, 16, 16, 14, 12, 12, 12, 12, 12, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>10</v>
       </c>
-      <c r="B64" t="n">
-        <v>1001</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[1, 8, 5, 3, 6, 9, 2, 5, 7, 4]</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>0.02846908569335938</v>
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.03099918365478516</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>[22, 24, 26, 24, 24, 22, 30, 36, 28, 28, 32, 32, 42, 42, 46, 34, 26, 26, 20, 18, 20, 26, 24, 20, 18, 18, 18, 16, 24, 24, 22, 20, 26, 26, 26, 20, 22, 20, 18, 18, 18, 18, 18, 22, 20, 22, 24, 18, 18, 18, 16, 20, 22, 22, 22, 22, 24, 20, 20, 22, 22, 22, 20, 16, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>10</v>
       </c>
-      <c r="B65" t="n">
-        <v>1001</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[8, 4, 9, 0, 3, 1, 7, 2, 6, 9]</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>0.02992010116577148</v>
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.02994942665100098</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>[18, 20, 22, 18, 24, 20, 26, 22, 22, 20, 22, 22, 30, 30, 26, 28, 24, 24, 20, 28, 24, 28, 34, 28, 20, 20, 26, 20, 22, 26, 28, 30, 30, 20, 26, 26, 26, 26, 24, 22, 18, 20, 24, 26, 26, 30, 22, 20, 22, 22, 20, 18, 18, 16, 14, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>10</v>
       </c>
-      <c r="B66" t="n">
-        <v>1001</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[7, 5, 1, 6, 0, 3, 8, 4, 2, 9]</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>0.02892255783081055</v>
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>409</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.01299214363098145</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>[18, 14, 14, 20, 22, 18, 18, 20, 16, 18, 20, 22, 18, 16, 20, 22, 16, 16, 16, 16, 18, 18, 20, 18, 22, 24, 24, 24, 24, 20, 20, 26, 22, 20, 26, 18, 24, 20, 22, 24, 24, 26, 22, 22, 22, 24, 26, 32, 26, 18, 18, 14, 12, 14, 16, 12, 12, 12, 12, 12, 12, 10, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>10</v>
       </c>
-      <c r="B67" t="n">
-        <v>1001</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[3, 5, 9, 4, 1, 7, 2, 6, 8, 0]</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>0.02892279624938965</v>
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>408</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.01199555397033691</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[16, 18, 18, 18, 18, 22, 18, 14, 18, 22, 24, 22, 20, 22, 22, 20, 22, 22, 22, 20, 26, 24, 20, 26, 24, 26, 26, 26, 22, 20, 14, 14, 16, 18, 18, 22, 18, 20, 14, 16, 12, 14, 14, 16, 12, 10, 8, 8, 10, 12, 14, 14, 14, 16, 14, 14, 14, 14, 14, 14, 16, 16, 16, 16, 16, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>10</v>
       </c>
-      <c r="B68" t="n">
-        <v>1001</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[5, 3, 8, 0, 2, 6, 9, 7, 1, 4]</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>0.02892279624938965</v>
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>652</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.02000641822814941</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>[26, 32, 28, 26, 32, 34, 32, 26, 26, 26, 22, 14, 12, 16, 16, 20, 18, 20, 22, 24, 20, 16, 20, 18, 16, 12, 14, 14, 18, 18, 18, 18, 16, 14, 18, 16, 18, 14, 14, 18, 18, 16, 18, 16, 16, 20, 18, 18, 18, 20, 14, 12, 12, 20, 20, 20, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>10</v>
       </c>
-      <c r="B69" t="n">
-        <v>987</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[0, 3, 6, 9, 1, 8, 4, 2, 7, 5]</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>0.02892231941223145</v>
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>498</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.01502847671508789</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>[16, 14, 10, 14, 16, 20, 20, 18, 12, 12, 14, 12, 14, 18, 16, 14, 16, 12, 14, 16, 14, 16, 14, 12, 18, 18, 22, 24, 26, 28, 26, 22, 20, 16, 16, 16, 18, 22, 20, 24, 20, 22, 18, 22, 16, 16, 14, 14, 16, 12, 16, 14, 18, 16, 16, 16, 16, 18, 18, 18, 18, 18, 18, 18, 20, 22, 22, 22, 20, 20, 18, 18, 16, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>10</v>
       </c>
-      <c r="B70" t="n">
-        <v>1001</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[2, 5, 8, 0, 3, 6, 9, 7, 1, 4]</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>0.02945733070373535</v>
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>914</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.02801632881164551</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>[16, 18, 22, 24, 28, 24, 28, 18, 16, 20, 18, 16, 20, 18, 20, 22, 18, 18, 20, 26, 32, 30, 28, 24, 20, 22, 18, 14, 18, 22, 20, 18, 26, 22, 22, 16, 14, 14, 20, 18, 20, 16, 22, 12, 12, 12, 14, 12, 12, 14, 18, 16, 16, 18, 18, 14, 18, 18, 14, 10, 8, 8, 8, 10, 8, 8, 8, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>10</v>
       </c>
-      <c r="B71" t="n">
-        <v>1001</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[8, 1, 3, 6, 9, 7, 4, 0, 7, 5]</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>0.02892279624938965</v>
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.03001284599304199</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>[20, 20, 22, 20, 20, 18, 20, 18, 20, 16, 12, 16, 18, 16, 22, 26, 20, 20, 22, 22, 26, 26, 22, 16, 12, 10, 16, 20, 26, 18, 18, 14, 12, 16, 14, 14, 22, 20, 22, 22, 18, 18, 18, 18, 16, 18, 16, 16, 16, 22, 16, 16, 12, 16, 18, 18, 14, 12, 12, 12, 12, 12, 12, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>10</v>
       </c>
-      <c r="B72" t="n">
-        <v>1001</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[6, 4, 7, 0, 3, 9, 2, 5, 8, 1]</t>
+        </is>
       </c>
       <c r="C72" t="n">
-        <v>0.02991986274719238</v>
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>378</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.01199841499328613</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>[18, 20, 26, 24, 30, 24, 18, 22, 16, 16, 16, 22, 22, 20, 20, 22, 20, 20, 24, 20, 16, 18, 14, 14, 18, 18, 16, 16, 20, 20, 16, 22, 26, 20, 18, 20, 24, 16, 10, 10, 8, 8, 12, 12, 16, 16, 14, 12, 12, 12, 10, 10, 10, 12, 12, 14, 14, 18, 18, 24, 26, 26, 26, 26, 20, 20, 18, 16, 16, 16, 10, 10, 10, 10, 10, 8, 8, 8, 8, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>10</v>
       </c>
-      <c r="B73" t="n">
-        <v>1001</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[3, 7, 2, 4, 8, 0, 5, 9, 6, 1]</t>
+        </is>
       </c>
       <c r="C73" t="n">
-        <v>0.02892255783081055</v>
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>567</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.01701235771179199</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>[32, 36, 30, 24, 28, 24, 16, 22, 20, 16, 16, 16, 18, 18, 20, 20, 16, 18, 14, 16, 22, 26, 22, 20, 22, 22, 26, 26, 20, 20, 24, 22, 18, 12, 10, 12, 18, 20, 20, 22, 16, 18, 20, 20, 24, 24, 22, 22, 18, 16, 10, 10, 16, 16, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>10</v>
       </c>
-      <c r="B74" t="n">
-        <v>1001</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[6, 3, 0, 7, 1, 8, 5, 2, 4, 9]</t>
+        </is>
       </c>
       <c r="C74" t="n">
-        <v>0.02892279624938965</v>
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>486</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.01498699188232422</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>[24, 20, 20, 24, 24, 22, 22, 26, 28, 30, 28, 24, 28, 26, 26, 28, 22, 26, 24, 18, 22, 24, 20, 26, 20, 22, 18, 18, 22, 22, 20, 24, 30, 38, 30, 22, 20, 20, 18, 20, 18, 16, 14, 14, 8, 10, 12, 12, 16, 16, 14, 10, 10, 18, 18, 18, 18, 16, 16, 20, 20, 20, 20, 20, 18, 16, 16, 14, 14, 14, 16, 16, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>10</v>
       </c>
-      <c r="B75" t="n">
-        <v>1001</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[3, 7, 4, 2, 0, 9, 6, 8, 5, 1]</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>0.02892255783081055</v>
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>343</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.01000022888183594</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>[14, 18, 14, 14, 10, 10, 12, 14, 18, 16, 20, 22, 18, 20, 18, 20, 20, 18, 14, 14, 14, 14, 20, 26, 20, 20, 16, 18, 16, 16, 16, 16, 14, 14, 14, 12, 14, 10, 10, 12, 8, 8, 6, 10, 10, 14, 14, 16, 16, 16, 16, 12, 12, 12, 10, 10, 10, 10, 10, 10, 16, 18, 16, 16, 16, 16, 18, 18, 16, 16, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>10</v>
       </c>
-      <c r="B76" t="n">
-        <v>1001</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[9, 6, 0, 2, 7, 1, 8, 8, 5, 3]</t>
+        </is>
       </c>
       <c r="C76" t="n">
-        <v>0.03091740608215332</v>
+        <v>2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.03100466728210449</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>[22, 24, 30, 24, 22, 16, 12, 14, 12, 18, 24, 24, 24, 24, 26, 32, 28, 26, 18, 12, 14, 22, 16, 20, 18, 22, 20, 20, 20, 22, 20, 24, 20, 20, 18, 20, 26, 26, 26, 26, 24, 18, 16, 18, 16, 16, 14, 14, 14, 14, 14, 10, 10, 10, 12, 12, 18, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>10</v>
       </c>
-      <c r="B77" t="n">
-        <v>1001</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[4, 6, 9, 5, 1, 8, 0, 2, 4, 7]</t>
+        </is>
       </c>
       <c r="C77" t="n">
-        <v>0.03191471099853516</v>
+        <v>2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.03000068664550781</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>[22, 20, 22, 18, 18, 20, 16, 16, 12, 12, 12, 16, 20, 16, 22, 24, 20, 22, 22, 28, 34, 32, 34, 28, 32, 32, 28, 26, 30, 24, 22, 16, 16, 18, 24, 34, 32, 30, 34, 30, 32, 22, 22, 22, 22, 16, 20, 16, 16, 16, 12, 12, 16, 16, 16, 16, 14, 14, 12, 12, 12, 16, 16, 16, 16, 16, 16, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>10</v>
       </c>
-      <c r="B78" t="n">
-        <v>1001</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[4, 7, 3, 0, 9, 5, 1, 8, 6, 2]</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>0.02947378158569336</v>
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.03100275993347168</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>[10, 10, 12, 12, 16, 18, 14, 20, 18, 24, 22, 22, 22, 20, 18, 18, 18, 14, 16, 18, 20, 24, 18, 18, 16, 18, 22, 22, 22, 18, 20, 24, 22, 22, 20, 24, 18, 14, 14, 14, 16, 16, 18, 14, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 14, 14, 16, 14, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>10</v>
       </c>
-      <c r="B79" t="n">
-        <v>1001</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[7, 9, 3, 0, 8, 4, 9, 1, 6, 2]</t>
+        </is>
       </c>
       <c r="C79" t="n">
-        <v>0.03091740608215332</v>
+        <v>2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.02996659278869629</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>[22, 26, 30, 34, 26, 24, 24, 26, 26, 26, 20, 12, 12, 8, 8, 12, 12, 10, 10, 10, 10, 14, 18, 16, 18, 24, 24, 24, 20, 22, 22, 22, 18, 20, 20, 20, 22, 16, 20, 18, 14, 16, 16, 16, 16, 12, 18, 22, 24, 20, 20, 20, 22, 22, 22, 18, 18, 24, 18, 18, 12, 12, 12, 12, 12, 14, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>10</v>
       </c>
-      <c r="B80" t="n">
-        <v>833</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[3, 9, 4, 2, 8, 6, 1, 7, 5, 0]</t>
+        </is>
       </c>
       <c r="C80" t="n">
-        <v>0.02692794799804688</v>
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>246</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.008008480072021484</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>[20, 20, 18, 24, 20, 22, 16, 14, 14, 10, 14, 14, 16, 16, 18, 14, 16, 20, 16, 20, 24, 20, 14, 16, 14, 16, 18, 20, 16, 16, 20, 14, 12, 14, 12, 8, 12, 14, 14, 18, 18, 18, 16, 16, 20, 18, 18, 20, 26, 22, 22, 22, 16, 18, 16, 20, 16, 16, 16, 16, 16, 16, 14, 16, 12, 12, 12, 12, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>10</v>
       </c>
-      <c r="B81" t="n">
-        <v>1001</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[4, 8, 1, 8, 2, 0, 9, 7, 5, 3]</t>
+        </is>
       </c>
       <c r="C81" t="n">
-        <v>0.03191447257995605</v>
+        <v>2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.03100323677062988</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>[20, 20, 20, 22, 18, 18, 12, 16, 18, 18, 22, 18, 16, 16, 18, 14, 18, 12, 14, 16, 22, 26, 20, 24, 20, 18, 22, 20, 22, 18, 20, 16, 18, 18, 16, 14, 10, 12, 16, 22, 20, 20, 16, 16, 18, 16, 20, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 16, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>10</v>
       </c>
-      <c r="B82" t="n">
-        <v>1001</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[1, 3, 8, 6, 4, 9, 5, 0, 4, 7]</t>
+        </is>
       </c>
       <c r="C82" t="n">
-        <v>0.02991986274719238</v>
+        <v>2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.02995419502258301</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>[22, 20, 18, 20, 22, 16, 14, 16, 20, 16, 20, 26, 22, 24, 24, 20, 18, 24, 22, 16, 16, 20, 18, 18, 18, 22, 26, 30, 26, 16, 20, 26, 20, 24, 20, 22, 20, 22, 24, 24, 22, 22, 22, 28, 20, 20, 22, 22, 22, 20, 16, 16, 16, 18, 18, 18, 18, 18, 14, 14, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>10</v>
       </c>
-      <c r="B83" t="n">
-        <v>1001</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[1, 4, 6, 8, 3, 7, 0, 2, 9, 5]</t>
+        </is>
       </c>
       <c r="C83" t="n">
-        <v>0.03390955924987793</v>
+        <v>2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.03097867965698242</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>[24, 26, 26, 26, 20, 22, 20, 20, 20, 24, 24, 24, 24, 20, 18, 16, 16, 14, 14, 14, 14, 20, 18, 16, 16, 20, 24, 26, 26, 20, 26, 14, 18, 18, 14, 12, 18, 18, 20, 22, 20, 18, 20, 16, 12, 8, 14, 14, 14, 14, 12, 12, 14, 16, 14, 14, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>10</v>
       </c>
-      <c r="B84" t="n">
-        <v>1001</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[6, 3, 5, 7, 1, 4, 2, 8, 0, 9]</t>
+        </is>
       </c>
       <c r="C84" t="n">
-        <v>0.03048253059387207</v>
+        <v>2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.03000807762145996</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>[36, 30, 22, 22, 22, 18, 22, 30, 28, 24, 22, 20, 22, 24, 20, 18, 18, 18, 24, 30, 30, 32, 32, 32, 24, 24, 26, 26, 24, 16, 20, 20, 16, 20, 20, 24, 30, 20, 18, 24, 20, 28, 26, 24, 18, 18, 14, 16, 16, 12, 16, 16, 14, 14, 12, 8, 10, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>10</v>
       </c>
-      <c r="B85" t="n">
-        <v>791</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[5, 7, 2, 0, 8, 6, 9, 3, 1, 4]</t>
+        </is>
       </c>
       <c r="C85" t="n">
-        <v>0.02393603324890137</v>
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>414</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.01296544075012207</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[12, 14, 16, 18, 16, 16, 16, 18, 16, 18, 20, 14, 16, 18, 18, 14, 16, 20, 22, 16, 18, 18, 28, 18, 18, 18, 20, 20, 24, 18, 16, 14, 16, 18, 16, 12, 20, 18, 20, 14, 14, 18, 24, 26, 24, 24, 22, 24, 24, 24, 24, 18, 18, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>10</v>
       </c>
-      <c r="B86" t="n">
-        <v>1001</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[6, 4, 7, 0, 3, 5, 8, 1, 9, 7]</t>
+        </is>
       </c>
       <c r="C86" t="n">
-        <v>0.02991962432861328</v>
+        <v>2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.03105616569519043</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[14, 14, 14, 16, 16, 14, 18, 16, 22, 18, 20, 16, 16, 18, 14, 16, 14, 14, 16, 14, 16, 16, 18, 16, 18, 16, 10, 12, 14, 16, 20, 18, 16, 12, 12, 12, 16, 12, 12, 12, 16, 18, 20, 20, 22, 24, 24, 24, 28, 24, 20, 24, 24, 26, 22, 18, 20, 20, 20, 20, 22, 22, 18, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>10</v>
       </c>
-      <c r="B87" t="n">
-        <v>851</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[2, 9, 5, 1, 8, 4, 0, 7, 3, 6]</t>
+        </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0249335765838623</v>
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>479</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.01401424407958984</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>[22, 22, 16, 14, 20, 18, 14, 10, 12, 12, 16, 22, 18, 18, 18, 14, 10, 14, 14, 10, 10, 14, 16, 14, 16, 20, 20, 26, 24, 20, 18, 12, 14, 16, 14, 12, 14, 14, 18, 18, 18, 18, 20, 24, 26, 22, 22, 20, 14, 14, 14, 14, 16, 16, 16, 20, 18, 20, 20, 20, 20, 20, 16, 16, 16, 16, 16, 16, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>10</v>
       </c>
-      <c r="B88" t="n">
-        <v>1001</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[6, 9, 0, 2, 9, 7, 1, 4, 8, 5]</t>
+        </is>
       </c>
       <c r="C88" t="n">
-        <v>0.03191471099853516</v>
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.03102779388427734</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[34, 36, 34, 28, 22, 18, 20, 20, 20, 20, 18, 14, 16, 10, 12, 12, 18, 22, 20, 20, 18, 22, 20, 16, 16, 22, 20, 20, 14, 18, 18, 20, 30, 24, 24, 18, 14, 18, 18, 14, 12, 10, 14, 16, 18, 16, 16, 16, 12, 14, 14, 14, 14, 14, 14, 10, 12, 12, 12, 12, 14, 14, 14, 14, 14, 14, 14, 14, 12, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>10</v>
       </c>
-      <c r="B89" t="n">
-        <v>1001</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[4, 7, 0, 6, 9, 2, 6, 8, 3, 5]</t>
+        </is>
       </c>
       <c r="C89" t="n">
-        <v>0.02992010116577148</v>
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.03101515769958496</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>[20, 20, 20, 20, 24, 26, 20, 18, 20, 26, 32, 30, 26, 28, 26, 26, 28, 24, 18, 20, 24, 22, 18, 16, 12, 16, 14, 16, 14, 16, 16, 16, 18, 16, 12, 12, 16, 18, 18, 18, 22, 20, 12, 10, 12, 12, 10, 10, 14, 12, 16, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>10</v>
       </c>
-      <c r="B90" t="n">
-        <v>1001</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[3, 5, 9, 4, 6, 0, 2, 7, 1, 8]</t>
+        </is>
       </c>
       <c r="C90" t="n">
-        <v>0.02892255783081055</v>
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>787</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0239865779876709</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>[22, 26, 20, 18, 18, 14, 14, 12, 8, 10, 12, 12, 16, 14, 14, 18, 18, 16, 16, 18, 18, 16, 16, 14, 16, 16, 16, 16, 20, 16, 14, 14, 14, 14, 14, 14, 16, 24, 30, 26, 26, 26, 20, 20, 28, 26, 20, 22, 20, 24, 26, 22, 22, 16, 16, 14, 14, 14, 16, 14, 14, 12, 10, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>10</v>
       </c>
-      <c r="B91" t="n">
-        <v>941</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[7, 3, 0, 8, 1, 5, 2, 6, 9, 4]</t>
+        </is>
       </c>
       <c r="C91" t="n">
-        <v>0.02752423286437988</v>
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.03105902671813965</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>[26, 30, 34, 30, 30, 38, 36, 34, 32, 28, 26, 28, 32, 30, 32, 28, 22, 20, 22, 16, 20, 16, 24, 26, 30, 28, 20, 20, 14, 16, 22, 22, 22, 28, 32, 34, 30, 26, 20, 16, 20, 16, 16, 14, 14, 14, 14, 10, 18, 14, 20, 16, 18, 18, 18, 22, 22, 22, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>12</v>
       </c>
-      <c r="B92" t="n">
-        <v>1001</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[7, 3, 6, 11, 1, 5, 9, 2, 4, 10, 8, 0]</t>
+        </is>
       </c>
       <c r="C92" t="n">
-        <v>0.04284286499023438</v>
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>378</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.01695489883422852</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>[38, 32, 34, 42, 36, 28, 20, 24, 24, 24, 22, 20, 28, 28, 28, 18, 22, 22, 34, 34, 34, 36, 36, 42, 32, 30, 24, 20, 20, 18, 26, 28, 28, 28, 28, 24, 22, 22, 22, 16, 16, 18, 18, 18, 18, 18, 26, 24, 20, 20, 22, 28, 28, 28, 28, 28, 24, 24, 24, 24, 22, 22, 16, 16, 16, 18, 16, 16, 16, 16, 16, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>12</v>
       </c>
-      <c r="B93" t="n">
-        <v>1001</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[5, 7, 11, 6, 0, 1, 4, 8, 10, 2, 9, 3]</t>
+        </is>
       </c>
       <c r="C93" t="n">
-        <v>0.0413973331451416</v>
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.04298090934753418</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>[24, 22, 18, 18, 20, 22, 26, 22, 30, 26, 28, 28, 26, 22, 20, 22, 28, 24, 18, 14, 14, 20, 24, 20, 24, 22, 20, 22, 24, 24, 28, 36, 46, 46, 40, 32, 30, 30, 32, 24, 24, 24, 22, 18, 18, 18, 20, 20, 20, 18, 18, 18, 16, 16, 14, 14, 14, 14, 14, 16, 18, 16, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>12</v>
       </c>
-      <c r="B94" t="n">
-        <v>1001</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[7, 1, 11, 6, 2, 9, 5, 8, 10, 3, 0, 8]</t>
+        </is>
       </c>
       <c r="C94" t="n">
-        <v>0.04188799858093262</v>
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.04393982887268066</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>[30, 24, 22, 22, 26, 26, 24, 28, 26, 26, 28, 26, 32, 36, 34, 32, 30, 28, 22, 26, 26, 24, 20, 22, 24, 28, 26, 26, 24, 26, 18, 14, 16, 18, 18, 20, 20, 20, 16, 18, 18, 18, 22, 22, 22, 22, 22, 20, 18, 16, 16, 18, 18, 18, 18, 24, 24, 24, 22, 20, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>12</v>
       </c>
-      <c r="B95" t="n">
-        <v>1001</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[5, 2, 10, 7, 11, 8, 0, 4, 1, 9, 6, 3]</t>
+        </is>
       </c>
       <c r="C95" t="n">
-        <v>0.04188799858093262</v>
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>520</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.02199220657348633</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>[20, 18, 20, 16, 14, 20, 18, 16, 18, 16, 16, 20, 28, 20, 14, 16, 18, 18, 18, 22, 22, 18, 18, 16, 22, 24, 22, 18, 26, 26, 28, 26, 26, 24, 24, 24, 24, 22, 18, 18, 20, 20, 24, 20, 20, 22, 24, 24, 26, 26, 26, 26, 18, 24, 22, 22, 22, 22, 20, 26, 26, 26, 20, 20, 18, 18, 18, 18, 18, 18, 18, 16, 16, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>12</v>
       </c>
-      <c r="B96" t="n">
-        <v>1001</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[8, 1, 5, 2, 0, 9, 3, 6, 10, 7, 11, 4]</t>
+        </is>
       </c>
       <c r="C96" t="n">
-        <v>0.04188799858093262</v>
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.04302763938903809</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>[20, 20, 20, 24, 28, 26, 36, 30, 26, 30, 26, 24, 18, 20, 18, 24, 26, 32, 26, 16, 18, 20, 26, 26, 32, 28, 26, 28, 36, 28, 28, 30, 28, 32, 30, 28, 28, 24, 22, 18, 24, 24, 24, 24, 26, 22, 20, 20, 24, 18, 24, 22, 24, 22, 20, 20, 20, 20, 20, 18, 18, 18, 18, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>12</v>
       </c>
-      <c r="B97" t="n">
-        <v>1001</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[8, 3, 1, 6, 11, 5, 10, 0, 9, 4, 2, 7]</t>
+        </is>
       </c>
       <c r="C97" t="n">
-        <v>0.04188799858093262</v>
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>541</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.02399373054504395</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>[22, 22, 22, 24, 24, 24, 26, 22, 24, 26, 24, 20, 22, 26, 18, 16, 14, 20, 28, 36, 34, 38, 36, 30, 26, 28, 22, 24, 28, 24, 28, 26, 26, 24, 28, 24, 22, 20, 20, 20, 22, 24, 20, 22, 18, 18, 16, 16, 18, 16, 20, 22, 22, 22, 18, 18, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>12</v>
       </c>
-      <c r="B98" t="n">
-        <v>1001</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[10, 7, 2, 6, 11, 1, 5, 0, 9, 4, 8, 3]</t>
+        </is>
       </c>
       <c r="C98" t="n">
-        <v>0.04239249229431152</v>
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>851</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.03602361679077148</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>[32, 32, 30, 26, 26, 30, 30, 28, 34, 30, 28, 24, 22, 18, 20, 18, 22, 24, 28, 24, 28, 24, 26, 22, 26, 26, 26, 28, 26, 26, 28, 22, 20, 20, 22, 22, 24, 24, 26, 26, 26, 26, 22, 22, 26, 22, 20, 24, 20, 18, 22, 24, 26, 22, 22, 22, 20, 20, 20, 16, 16, 12, 10, 10, 10, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>12</v>
       </c>
-      <c r="B99" t="n">
-        <v>908</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[5, 8, 6, 1, 10, 2, 7, 9, 11, 3, 0, 4]</t>
+        </is>
       </c>
       <c r="C99" t="n">
-        <v>0.03789901733398438</v>
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>638</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.02801251411437988</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>[22, 24, 24, 24, 24, 24, 24, 26, 26, 26, 22, 28, 36, 36, 36, 44, 44, 48, 46, 38, 44, 46, 40, 34, 30, 28, 22, 32, 22, 18, 20, 24, 22, 22, 20, 16, 22, 22, 30, 30, 32, 34, 30, 22, 28, 30, 28, 28, 34, 30, 24, 22, 22, 26, 20, 20, 20, 20, 22, 22, 20, 18, 16, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>12</v>
       </c>
-      <c r="B100" t="n">
-        <v>1001</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[5, 10, 8, 6, 0, 2, 10, 1, 7, 4, 11, 9]</t>
+        </is>
       </c>
       <c r="C100" t="n">
-        <v>0.04188776016235352</v>
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.04200458526611328</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>[30, 28, 26, 20, 22, 18, 22, 32, 36, 30, 28, 30, 32, 30, 32, 30, 26, 32, 30, 22, 22, 20, 22, 22, 22, 22, 26, 28, 26, 24, 18, 16, 14, 18, 22, 22, 20, 20, 18, 20, 18, 20, 20, 22, 22, 24, 20, 18, 18, 22, 20, 20, 20, 20, 20, 20, 18, 20, 14, 14, 20, 18, 18, 18, 18, 18, 16, 16, 16, 16, 12, 12, 12, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>12</v>
       </c>
-      <c r="B101" t="n">
-        <v>1001</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[0, 6, 8, 10, 1, 3, 9, 2, 4, 11, 9, 5]</t>
+        </is>
       </c>
       <c r="C101" t="n">
-        <v>0.04288530349731445</v>
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.04300045967102051</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>[18, 14, 14, 12, 14, 16, 14, 14, 14, 20, 24, 24, 24, 26, 24, 22, 22, 26, 26, 24, 28, 24, 20, 22, 24, 24, 26, 26, 26, 22, 20, 24, 32, 30, 28, 30, 26, 26, 26, 26, 26, 26, 22, 22, 22, 24, 26, 32, 30, 32, 28, 28, 24, 30, 30, 26, 26, 18, 18, 14, 18, 18, 18, 18, 18, 14, 14, 16, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>12</v>
       </c>
-      <c r="B102" t="n">
-        <v>1001</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[6, 8, 10, 0, 3, 6, 4, 1, 11, 9, 5, 2]</t>
+        </is>
       </c>
       <c r="C102" t="n">
-        <v>0.04188799858093262</v>
+        <v>2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.04300045967102051</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>[26, 30, 30, 30, 28, 22, 26, 34, 34, 36, 38, 40, 34, 34, 30, 30, 26, 24, 22, 24, 28, 26, 30, 28, 28, 22, 20, 14, 20, 18, 18, 18, 22, 22, 26, 30, 26, 18, 14, 16, 18, 18, 22, 20, 22, 20, 20, 24, 24, 24, 18, 18, 24, 22, 20, 20, 22, 22, 18, 18, 18, 18, 18, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>12</v>
       </c>
-      <c r="B103" t="n">
-        <v>1001</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[5, 7, 10, 0, 2, 6, 8, 3, 1, 4, 9, 11]</t>
+        </is>
       </c>
       <c r="C103" t="n">
-        <v>0.04239225387573242</v>
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>694</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.030029296875</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>[14, 16, 18, 20, 28, 24, 28, 24, 22, 24, 22, 22, 18, 18, 18, 22, 20, 16, 20, 26, 26, 30, 30, 34, 32, 36, 30, 24, 28, 36, 38, 38, 38, 34, 34, 34, 34, 38, 30, 28, 24, 20, 18, 18, 18, 18, 18, 18, 20, 26, 32, 30, 26, 28, 28, 26, 22, 20, 20, 16, 14, 16, 14, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>12</v>
       </c>
-      <c r="B104" t="n">
-        <v>1001</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[1, 4, 2, 11, 8, 10, 0, 3, 5, 7, 9, 6]</t>
+        </is>
       </c>
       <c r="C104" t="n">
-        <v>0.04188919067382812</v>
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>749</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.03203511238098145</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>[44, 42, 34, 30, 34, 38, 36, 28, 30, 26, 28, 20, 22, 22, 24, 18, 18, 24, 28, 26, 20, 20, 28, 32, 30, 32, 32, 30, 30, 28, 26, 20, 16, 20, 20, 16, 16, 18, 18, 20, 18, 18, 20, 24, 22, 24, 20, 24, 22, 20, 20, 18, 18, 20, 22, 20, 20, 20, 20, 20, 20, 20, 20, 18, 18, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>12</v>
       </c>
-      <c r="B105" t="n">
-        <v>1001</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>[9, 0, 4, 1, 7, 11, 2, 8, 5, 3, 10, 6]</t>
+        </is>
       </c>
       <c r="C105" t="n">
-        <v>0.04188680648803711</v>
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>328</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0139927864074707</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>[34, 32, 34, 36, 30, 28, 26, 22, 18, 24, 24, 24, 20, 24, 26, 26, 24, 26, 30, 28, 32, 28, 24, 24, 32, 28, 36, 32, 32, 34, 38, 50, 50, 46, 34, 44, 38, 36, 28, 36, 30, 32, 36, 42, 42, 32, 22, 18, 14, 14, 14, 14, 14, 14, 16, 16, 16, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>12</v>
       </c>
-      <c r="B106" t="n">
-        <v>1001</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>[3, 6, 4, 9, 0, 9, 5, 1, 8, 10, 7, 2]</t>
+        </is>
       </c>
       <c r="C106" t="n">
-        <v>0.04188799858093262</v>
+        <v>2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.04294872283935547</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>[28, 38, 32, 26, 26, 26, 26, 20, 18, 18, 20, 16, 16, 20, 24, 24, 20, 26, 28, 22, 24, 26, 32, 28, 28, 22, 24, 26, 24, 24, 26, 22, 20, 16, 18, 20, 18, 20, 20, 20, 20, 22, 20, 24, 30, 30, 26, 28, 26, 24, 24, 24, 24, 22, 20, 24, 26, 26, 28, 28, 24, 20, 18, 16, 14, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>12</v>
       </c>
-      <c r="B107" t="n">
-        <v>1001</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>[2, 7, 5, 11, 1, 10, 6, 3, 9, 4, 8, 0]</t>
+        </is>
       </c>
       <c r="C107" t="n">
-        <v>0.04239368438720703</v>
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>835</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0360252857208252</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>[22, 26, 24, 22, 22, 24, 24, 26, 28, 28, 26, 26, 28, 24, 24, 18, 20, 26, 24, 24, 18, 24, 28, 32, 24, 30, 24, 20, 18, 20, 16, 18, 24, 24, 28, 30, 32, 30, 34, 30, 36, 36, 38, 32, 34, 34, 34, 32, 26, 26, 28, 24, 24, 26, 26, 22, 22, 22, 20, 20, 20, 20, 20, 20, 20, 18, 18, 14, 14, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>12</v>
       </c>
-      <c r="B108" t="n">
-        <v>1001</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>[7, 11, 4, 1, 10, 5, 3, 8, 0, 2, 9, 6]</t>
+        </is>
       </c>
       <c r="C108" t="n">
-        <v>0.04445934295654297</v>
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>334</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.01402020454406738</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>[16, 22, 20, 18, 20, 20, 22, 24, 20, 22, 18, 16, 18, 22, 22, 24, 22, 28, 30, 36, 34, 26, 20, 16, 18, 20, 22, 22, 24, 28, 28, 38, 34, 28, 32, 30, 28, 32, 30, 26, 26, 26, 26, 24, 22, 20, 24, 18, 18, 18, 18, 18, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>12</v>
       </c>
-      <c r="B109" t="n">
-        <v>1001</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[4, 1, 5, 2, 11, 8, 3, 9, 6, 10, 0, 7]</t>
+        </is>
       </c>
       <c r="C109" t="n">
-        <v>0.04388260841369629</v>
+        <v>2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.04398655891418457</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>[26, 24, 26, 24, 22, 24, 28, 30, 22, 18, 22, 24, 26, 20, 20, 18, 26, 28, 32, 26, 22, 22, 24, 22, 22, 20, 22, 22, 26, 20, 24, 24, 24, 28, 24, 22, 20, 20, 20, 20, 22, 32, 26, 24, 22, 22, 22, 22, 18, 22, 22, 22, 20, 20, 20, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 6, 6, 6, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>12</v>
       </c>
-      <c r="B110" t="n">
-        <v>1001</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[1, 8, 2, 9, 3, 10, 0, 4, 6, 11, 3, 7]</t>
+        </is>
       </c>
       <c r="C110" t="n">
-        <v>0.04288554191589355</v>
+        <v>2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.04296708106994629</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>[26, 32, 24, 26, 32, 26, 24, 26, 26, 28, 26, 24, 24, 24, 24, 24, 16, 18, 18, 18, 16, 22, 22, 26, 22, 24, 22, 20, 16, 16, 16, 10, 8, 10, 14, 16, 20, 16, 14, 16, 16, 20, 24, 24, 24, 24, 22, 22, 28, 28, 28, 28, 32, 26, 24, 20, 14, 14, 14, 14, 18, 18, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>12</v>
       </c>
-      <c r="B111" t="n">
-        <v>1001</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>[4, 9, 1, 10, 5, 3, 8, 0, 11, 6, 2, 7]</t>
+        </is>
       </c>
       <c r="C111" t="n">
-        <v>0.04345130920410156</v>
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>495</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.02103447914123535</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>[24, 28, 32, 32, 30, 28, 28, 34, 34, 38, 34, 38, 28, 22, 18, 22, 26, 24, 26, 26, 24, 28, 32, 30, 28, 32, 30, 30, 28, 24, 22, 26, 24, 22, 26, 28, 28, 28, 18, 18, 16, 18, 24, 28, 22, 22, 18, 18, 22, 26, 28, 24, 28, 24, 22, 26, 18, 16, 18, 18, 18, 18, 16, 16, 16, 16, 16, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>12</v>
       </c>
-      <c r="B112" t="n">
-        <v>1001</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>[1, 9, 3, 8, 10, 4, 0, 11, 5, 7, 2, 6]</t>
+        </is>
       </c>
       <c r="C112" t="n">
-        <v>0.04488015174865723</v>
+        <v>2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.04398751258850098</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>[28, 24, 24, 22, 22, 22, 16, 18, 22, 22, 24, 20, 22, 20, 16, 20, 22, 20, 26, 28, 26, 22, 20, 24, 22, 22, 22, 18, 16, 16, 14, 16, 18, 18, 16, 20, 18, 16, 18, 18, 18, 22, 22, 24, 24, 26, 24, 20, 26, 18, 18, 22, 22, 20, 18, 18, 18, 18, 16, 16, 14, 14, 14, 14, 14, 14, 14, 12, 12, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>12</v>
       </c>
-      <c r="B113" t="n">
-        <v>1001</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>[9, 0, 8, 5, 2, 10, 1, 11, 4, 2, 7, 3]</t>
+        </is>
       </c>
       <c r="C113" t="n">
-        <v>0.04488039016723633</v>
+        <v>2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.04291749000549316</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>[30, 26, 24, 20, 24, 26, 20, 20, 24, 20, 22, 26, 26, 26, 18, 18, 20, 18, 18, 16, 14, 18, 18, 18, 16, 18, 20, 24, 26, 26, 24, 20, 22, 24, 26, 24, 20, 18, 20, 20, 18, 20, 18, 20, 20, 26, 30, 28, 24, 24, 22, 22, 26, 26, 24, 24, 22, 22, 20, 20, 18, 18, 18, 16, 16, 16, 14, 14, 14, 14, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>12</v>
       </c>
-      <c r="B114" t="n">
-        <v>1001</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>[3, 5, 8, 11, 9, 6, 2, 0, 7, 4, 10, 1]</t>
+        </is>
       </c>
       <c r="C114" t="n">
-        <v>0.04288482666015625</v>
+        <v>2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.04388260841369629</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[28, 28, 34, 40, 44, 36, 30, 26, 22, 20, 18, 18, 16, 22, 16, 14, 14, 20, 18, 16, 14, 16, 16, 22, 28, 34, 30, 26, 24, 22, 20, 24, 24, 24, 20, 20, 30, 28, 30, 32, 30, 30, 24, 24, 16, 16, 16, 14, 16, 14, 20, 16, 16, 14, 12, 18, 16, 16, 16, 16, 16, 16, 16, 16, 14, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 12, 12, 12, 12, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>12</v>
       </c>
-      <c r="B115" t="n">
-        <v>1001</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>[8, 0, 4, 1, 7, 9, 11, 3, 5, 10, 2, 4]</t>
+        </is>
       </c>
       <c r="C115" t="n">
-        <v>0.04188799858093262</v>
+        <v>2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.04288554191589355</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[26, 24, 30, 32, 34, 34, 32, 30, 30, 26, 28, 22, 22, 22, 24, 24, 30, 26, 22, 26, 26, 28, 28, 32, 32, 28, 34, 28, 24, 26, 34, 32, 32, 40, 42, 44, 36, 34, 28, 26, 22, 20, 22, 20, 18, 16, 20, 26, 24, 22, 30, 30, 26, 26, 22, 22, 28, 28, 28, 28, 24, 24, 24, 16, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>12</v>
       </c>
-      <c r="B116" t="n">
-        <v>1001</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>[6, 8, 3, 11, 9, 2, 5, 1, 10, 7, 0, 4]</t>
+        </is>
       </c>
       <c r="C116" t="n">
-        <v>0.04245114326477051</v>
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>421</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.01795172691345215</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[18, 22, 20, 24, 22, 22, 20, 16, 18, 22, 20, 20, 16, 18, 18, 16, 20, 26, 24, 30, 28, 32, 30, 32, 24, 26, 22, 24, 22, 12, 14, 18, 18, 24, 24, 24, 22, 20, 18, 14, 14, 18, 26, 26, 24, 22, 26, 26, 26, 24, 24, 18, 18, 16, 14, 16, 14, 14, 14, 14, 12, 12, 12, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>12</v>
       </c>
-      <c r="B117" t="n">
-        <v>1001</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>[0, 7, 5, 2, 9, 4, 8, 11, 3, 10, 6, 1]</t>
+        </is>
       </c>
       <c r="C117" t="n">
-        <v>0.04288363456726074</v>
+        <v>2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.04388308525085449</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>[22, 24, 22, 24, 26, 28, 32, 30, 26, 32, 30, 32, 28, 34, 36, 30, 36, 32, 26, 28, 20, 24, 24, 28, 24, 22, 18, 14, 16, 16, 20, 22, 18, 18, 20, 16, 20, 22, 24, 26, 24, 24, 28, 34, 36, 32, 32, 28, 28, 26, 30, 32, 28, 26, 22, 22, 22, 22, 24, 22, 22, 22, 22, 24, 24, 24, 20, 20, 20, 20, 20, 20, 20, 20, 14, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>12</v>
       </c>
-      <c r="B118" t="n">
-        <v>801</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>[8, 6, 2, 7, 10, 0, 5, 10, 1, 3, 11, 9]</t>
+        </is>
       </c>
       <c r="C118" t="n">
-        <v>0.03390932083129883</v>
+        <v>2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.04288506507873535</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>[16, 26, 26, 22, 26, 28, 24, 22, 20, 16, 12, 12, 12, 14, 14, 16, 20, 16, 14, 16, 16, 20, 18, 26, 18, 16, 18, 18, 16, 16, 18, 26, 34, 34, 26, 26, 30, 30, 32, 30, 24, 22, 28, 28, 26, 30, 28, 24, 22, 22, 22, 26, 26, 26, 22, 18, 18, 18, 18, 18, 16, 14, 14, 14, 14, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>12</v>
       </c>
-      <c r="B119" t="n">
-        <v>895</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>[3, 7, 4, 8, 3, 0, 10, 5, 1, 6, 11, 2]</t>
+        </is>
       </c>
       <c r="C119" t="n">
-        <v>0.03690147399902344</v>
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.04388260841369629</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[26, 22, 18, 20, 26, 22, 20, 18, 16, 18, 12, 16, 16, 16, 20, 20, 22, 26, 26, 26, 22, 16, 14, 14, 14, 18, 14, 16, 18, 24, 24, 18, 18, 18, 20, 14, 16, 20, 20, 22, 16, 20, 20, 16, 18, 18, 20, 22, 22, 20, 20, 20, 20, 20, 22, 22, 22, 18, 18, 16, 20, 18, 18, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>12</v>
       </c>
-      <c r="B120" t="n">
-        <v>1001</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>[2, 5, 11, 4, 7, 0, 11, 3, 8, 6, 9, 1]</t>
+        </is>
       </c>
       <c r="C120" t="n">
-        <v>0.04288530349731445</v>
+        <v>2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.04288554191589355</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>[20, 20, 26, 24, 30, 30, 26, 26, 26, 30, 24, 26, 24, 26, 24, 24, 18, 20, 22, 20, 20, 20, 12, 16, 14, 16, 16, 14, 18, 22, 28, 34, 38, 36, 36, 30, 28, 20, 18, 18, 18, 18, 18, 16, 16, 18, 20, 18, 16, 12, 20, 18, 18, 18, 18, 20, 18, 18, 18, 18, 18, 24, 16, 16, 16, 16, 16, 18, 16, 16, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>12</v>
       </c>
-      <c r="B121" t="n">
-        <v>1001</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>[2, 5, 10, 9, 0, 6, 3, 1, 7, 4, 8, 11]</t>
+        </is>
       </c>
       <c r="C121" t="n">
-        <v>0.04144406318664551</v>
+        <v>2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.04288506507873535</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>[24, 26, 26, 32, 38, 34, 30, 26, 32, 26, 24, 22, 16, 14, 14, 14, 12, 10, 14, 16, 16, 18, 16, 20, 16, 16, 18, 20, 20, 20, 18, 20, 22, 24, 28, 28, 30, 30, 32, 22, 22, 26, 26, 24, 22, 22, 32, 26, 22, 20, 16, 12, 12, 12, 14, 14, 18, 18, 18, 20, 22, 22, 22, 22, 22, 20, 20, 18, 18, 18, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>15</v>
       </c>
-      <c r="B122" t="n">
-        <v>1001</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>[4, 12, 8, 3, 5, 14, 11, 9, 0, 2, 13, 7, 10, 7, 1]</t>
+        </is>
       </c>
       <c r="C122" t="n">
-        <v>0.06682157516479492</v>
+        <v>2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.06796097755432129</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>[28, 24, 24, 24, 26, 30, 34, 28, 28, 28, 26, 22, 22, 22, 26, 26, 24, 26, 32, 30, 34, 30, 28, 30, 26, 24, 24, 20, 22, 22, 24, 24, 26, 32, 36, 34, 32, 30, 32, 30, 28, 26, 24, 24, 24, 26, 28, 26, 26, 26, 26, 26, 22, 22, 26, 26, 26, 26, 24, 28, 28, 28, 28, 28, 28, 28, 28, 28, 28, 22, 20, 20, 20, 20, 20, 20, 20, 20, 20, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>15</v>
       </c>
-      <c r="B123" t="n">
-        <v>1001</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>[5, 9, 12, 3, 13, 4, 2, 0, 11, 13, 8, 1, 14, 10, 6]</t>
+        </is>
       </c>
       <c r="C123" t="n">
-        <v>0.06482672691345215</v>
+        <v>2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.06696939468383789</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>[28, 28, 26, 28, 30, 24, 24, 24, 24, 24, 22, 18, 24, 26, 30, 30, 26, 26, 22, 24, 26, 28, 30, 32, 30, 32, 26, 30, 36, 32, 26, 26, 28, 24, 26, 30, 26, 26, 26, 24, 26, 26, 26, 24, 24, 22, 20, 16, 18, 18, 18, 18, 18, 22, 22, 20, 20, 20, 20, 20, 20, 20, 20, 26, 22, 22, 26, 26, 26, 26, 24, 20, 20, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>15</v>
       </c>
-      <c r="B124" t="n">
-        <v>1001</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>[2, 2, 9, 13, 8, 4, 14, 10, 0, 12, 5, 7, 1, 6, 11]</t>
+        </is>
       </c>
       <c r="C124" t="n">
-        <v>0.06537008285522461</v>
+        <v>4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.06694340705871582</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>[28, 28, 32, 28, 34, 34, 34, 32, 30, 34, 30, 30, 28, 26, 28, 30, 28, 30, 32, 30, 30, 28, 28, 30, 32, 36, 42, 38, 40, 32, 32, 34, 34, 36, 28, 32, 34, 28, 28, 28, 34, 34, 38, 38, 30, 30, 28, 32, 32, 24, 24, 28, 26, 24, 24, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>15</v>
       </c>
-      <c r="B125" t="n">
-        <v>1001</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>[9, 5, 14, 10, 0, 2, 6, 13, 3, 1, 8, 12, 11, 4, 7]</t>
+        </is>
       </c>
       <c r="C125" t="n">
-        <v>0.06482625007629395</v>
+        <v>2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.06602716445922852</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>[22, 24, 32, 32, 40, 34, 40, 32, 30, 34, 36, 34, 36, 36, 36, 36, 30, 28, 24, 24, 24, 26, 28, 24, 20, 20, 26, 26, 24, 22, 22, 20, 22, 26, 26, 22, 20, 20, 20, 20, 16, 14, 14, 14, 18, 18, 18, 20, 16, 20, 20, 20, 20, 24, 22, 22, 22, 22, 24, 26, 24, 24, 24, 24, 20, 20, 20, 18, 20, 20, 20, 20, 20, 20, 20, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>15</v>
       </c>
-      <c r="B126" t="n">
-        <v>1001</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>[8, 1, 3, 13, 7, 4, 11, 14, 12, 5, 0, 2, 10, 5, 9]</t>
+        </is>
       </c>
       <c r="C126" t="n">
-        <v>0.06482672691345215</v>
+        <v>2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.06698894500732422</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>[48, 46, 48, 48, 42, 40, 34, 40, 44, 46, 48, 48, 44, 44, 50, 46, 36, 30, 30, 32, 24, 26, 28, 34, 36, 40, 40, 36, 34, 30, 28, 28, 26, 26, 28, 30, 30, 32, 36, 32, 36, 36, 34, 32, 32, 42, 42, 40, 40, 44, 42, 42, 30, 22, 22, 22, 24, 22, 22, 20, 20, 20, 20, 20, 20, 20, 16, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
         <v>15</v>
       </c>
-      <c r="B127" t="n">
-        <v>1001</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>[12, 6, 3, 5, 13, 11, 14, 7, 2, 0, 9, 4, 1, 8, 10]</t>
+        </is>
       </c>
       <c r="C127" t="n">
-        <v>0.06536483764648438</v>
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>504</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.03302812576293945</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>[38, 34, 32, 30, 32, 36, 32, 26, 22, 24, 26, 28, 26, 24, 30, 34, 30, 30, 28, 28, 30, 30, 34, 40, 42, 40, 46, 42, 36, 44, 38, 38, 44, 36, 32, 30, 30, 28, 28, 28, 32, 30, 36, 34, 32, 36, 36, 32, 34, 34, 30, 30, 30, 28, 32, 32, 36, 36, 38, 38, 36, 34, 28, 24, 24, 24, 24, 24, 24, 24, 24, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
         <v>15</v>
       </c>
-      <c r="B128" t="n">
-        <v>1001</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>[11, 6, 5, 9, 2, 13, 10, 14, 7, 4, 0, 12, 8, 1, 3]</t>
+        </is>
       </c>
       <c r="C128" t="n">
-        <v>0.06482672691345215</v>
+        <v>2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.06699657440185547</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[22, 26, 24, 26, 20, 20, 20, 18, 20, 22, 28, 30, 24, 34, 34, 30, 30, 26, 28, 28, 26, 26, 28, 30, 32, 30, 30, 24, 24, 28, 28, 24, 22, 24, 24, 22, 22, 20, 18, 18, 18, 18, 20, 16, 18, 18, 16, 18, 22, 26, 28, 28, 24, 20, 26, 24, 24, 24, 22, 22, 20, 20, 20, 20, 20, 18, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
         <v>15</v>
       </c>
-      <c r="B129" t="n">
-        <v>1001</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>[7, 12, 8, 6, 14, 9, 0, 4, 13, 10, 5, 1, 5, 11, 2]</t>
+        </is>
       </c>
       <c r="C129" t="n">
-        <v>0.06482672691345215</v>
+        <v>2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.06603717803955078</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>[42, 52, 48, 48, 44, 38, 40, 44, 38, 42, 48, 46, 36, 28, 36, 46, 50, 48, 38, 38, 38, 34, 34, 46, 44, 42, 40, 32, 30, 34, 30, 24, 22, 20, 22, 22, 28, 30, 34, 36, 38, 34, 42, 42, 44, 44, 42, 42, 38, 34, 28, 30, 26, 28, 28, 26, 28, 26, 22, 22, 20, 18, 18, 20, 20, 20, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
         <v>15</v>
       </c>
-      <c r="B130" t="n">
-        <v>1001</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>[7, 2, 8, 11, 1, 14, 5, 10, 12, 4, 8, 13, 3, 9, 6]</t>
+        </is>
       </c>
       <c r="C130" t="n">
-        <v>0.06682133674621582</v>
+        <v>4</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.06700015068054199</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>[30, 38, 38, 38, 42, 40, 44, 34, 38, 34, 30, 28, 24, 24, 26, 28, 32, 34, 34, 38, 44, 38, 34, 28, 22, 26, 28, 30, 32, 34, 38, 40, 38, 38, 42, 34, 30, 26, 24, 28, 26, 26, 28, 32, 42, 42, 40, 40, 42, 38, 40, 42, 42, 40, 36, 34, 34, 34, 36, 34, 34, 34, 34, 30, 28, 28, 28, 28, 28, 28, 28, 28, 24, 24, 24, 24, 22, 22, 22, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
         <v>15</v>
       </c>
-      <c r="B131" t="n">
-        <v>1001</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>[4, 8, 13, 0, 10, 6, 14, 9, 0, 3, 8, 11, 1, 12, 5]</t>
+        </is>
       </c>
       <c r="C131" t="n">
-        <v>0.06538057327270508</v>
+        <v>4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.07002019882202148</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>[38, 34, 30, 34, 30, 34, 30, 32, 40, 32, 32, 40, 32, 24, 22, 22, 16, 20, 24, 20, 24, 26, 26, 26, 24, 28, 36, 34, 28, 26, 32, 30, 28, 28, 30, 32, 30, 34, 38, 42, 34, 32, 32, 34, 38, 44, 42, 42, 44, 44, 44, 44, 42, 36, 40, 38, 38, 36, 30, 30, 28, 28, 24, 24, 24, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
         <v>15</v>
       </c>
-      <c r="B132" t="n">
-        <v>1001</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>[3, 14, 8, 13, 9, 6, 8, 1, 4, 0, 9, 11, 5, 10, 12]</t>
+        </is>
       </c>
       <c r="C132" t="n">
-        <v>0.06582379341125488</v>
+        <v>4</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.07894563674926758</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>[48, 50, 44, 48, 48, 42, 36, 32, 38, 38, 32, 30, 36, 36, 34, 28, 32, 30, 32, 28, 24, 20, 18, 24, 24, 26, 22, 22, 24, 28, 28, 32, 30, 32, 32, 30, 32, 28, 30, 34, 42, 42, 34, 34, 34, 34, 32, 32, 32, 32, 38, 38, 32, 30, 30, 40, 36, 36, 38, 40, 42, 40, 36, 36, 36, 36, 36, 36, 30, 30, 30, 30, 26, 26, 26, 22, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
         <v>15</v>
       </c>
-      <c r="B133" t="n">
-        <v>1001</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>[9, 1, 6, 14, 11, 0, 8, 12, 2, 7, 3, 0, 13, 5, 10]</t>
+        </is>
       </c>
       <c r="C133" t="n">
-        <v>0.06682157516479492</v>
+        <v>2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.06698369979858398</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[32, 34, 32, 32, 30, 34, 42, 34, 32, 32, 28, 28, 26, 30, 34, 30, 36, 34, 34, 30, 26, 24, 28, 24, 24, 24, 26, 30, 30, 30, 28, 32, 28, 26, 26, 28, 26, 22, 26, 26, 26, 26, 30, 26, 28, 28, 26, 26, 26, 22, 20, 24, 24, 24, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
         <v>15</v>
       </c>
-      <c r="B134" t="n">
-        <v>1001</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>[11, 2, 6, 3, 14, 10, 8, 13, 4, 0, 7, 5, 1, 12, 9]</t>
+        </is>
       </c>
       <c r="C134" t="n">
-        <v>0.06938362121582031</v>
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>948</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.06308364868164062</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>[26, 24, 24, 26, 30, 26, 20, 16, 22, 18, 20, 20, 24, 30, 34, 26, 28, 28, 30, 34, 28, 22, 18, 20, 26, 30, 26, 30, 36, 34, 34, 32, 30, 30, 30, 30, 26, 30, 32, 32, 30, 28, 28, 28, 28, 26, 32, 34, 30, 30, 32, 32, 30, 30, 30, 28, 26, 26, 24, 24, 24, 24, 24, 26, 26, 26, 24, 24, 24, 24, 24, 24, 20, 20, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
         <v>15</v>
       </c>
-      <c r="B135" t="n">
-        <v>1001</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>[0, 6, 14, 5, 8, 12, 9, 4, 2, 10, 3, 7, 1, 11, 13]</t>
+        </is>
       </c>
       <c r="C135" t="n">
-        <v>0.06881594657897949</v>
+        <v>2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.06796669960021973</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>[24, 26, 22, 24, 26, 26, 28, 24, 26, 26, 26, 28, 30, 26, 26, 22, 22, 26, 26, 36, 40, 40, 40, 38, 36, 30, 26, 32, 36, 30, 22, 24, 26, 28, 24, 28, 30, 32, 26, 28, 24, 24, 26, 26, 28, 30, 26, 30, 26, 26, 32, 38, 38, 40, 40, 36, 38, 40, 34, 34, 32, 30, 30, 30, 28, 28, 28, 28, 28, 26, 22, 22, 22, 22, 22, 22, 22, 20, 20, 20, 20, 20, 20, 20, 20, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
         <v>15</v>
       </c>
-      <c r="B136" t="n">
-        <v>1001</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>[4, 11, 5, 14, 12, 1, 3, 13, 6, 9, 0, 10, 7, 2, 8]</t>
+        </is>
       </c>
       <c r="C136" t="n">
-        <v>0.06781840324401855</v>
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>357</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.02398586273193359</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>[30, 26, 20, 28, 30, 30, 32, 32, 34, 30, 32, 28, 32, 34, 30, 34, 30, 30, 26, 26, 28, 30, 38, 36, 36, 38, 38, 44, 38, 44, 48, 54, 56, 58, 54, 58, 52, 50, 50, 46, 44, 44, 48, 50, 48, 38, 30, 30, 34, 34, 26, 26, 24, 18, 18, 16, 16, 18, 18, 22, 20, 20, 20, 20, 20, 20, 20, 18, 14, 14, 14, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
         <v>15</v>
       </c>
-      <c r="B137" t="n">
-        <v>905</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>[8, 12, 2, 7, 3, 10, 13, 9, 14, 5, 1, 6, 0, 11, 4]</t>
+        </is>
       </c>
       <c r="C137" t="n">
-        <v>0.06440329551696777</v>
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>783</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.05203723907470703</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>[40, 38, 44, 44, 46, 48, 52, 50, 46, 52, 48, 46, 44, 42, 38, 30, 30, 28, 28, 30, 26, 24, 26, 28, 30, 32, 32, 28, 36, 30, 38, 40, 42, 30, 30, 32, 28, 28, 28, 30, 24, 22, 18, 18, 22, 24, 24, 26, 24, 26, 26, 24, 18, 18, 18, 18, 18, 18, 18, 20, 18, 18, 20, 18, 18, 18, 20, 20, 20, 20, 20, 20, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
         <v>15</v>
       </c>
-      <c r="B138" t="n">
-        <v>1001</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>[9, 4, 0, 13, 3, 5, 8, 11, 14, 10, 7, 1, 12, 2, 6]</t>
+        </is>
       </c>
       <c r="C138" t="n">
-        <v>0.06981348991394043</v>
+        <v>2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.06699585914611816</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[36, 32, 34, 32, 34, 36, 36, 32, 34, 28, 28, 30, 28, 22, 20, 22, 20, 20, 22, 22, 20, 14, 12, 14, 20, 22, 28, 26, 26, 28, 28, 28, 26, 24, 18, 16, 22, 16, 16, 20, 20, 18, 20, 20, 18, 22, 22, 22, 22, 24, 26, 32, 32, 30, 22, 24, 26, 26, 30, 30, 34, 34, 34, 36, 32, 32, 34, 32, 32, 32, 30, 22, 22, 24, 24, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
         <v>15</v>
       </c>
-      <c r="B139" t="n">
-        <v>1001</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>[10, 6, 0, 11, 7, 12, 0, 8, 1, 13, 9, 2, 14, 3, 14]</t>
+        </is>
       </c>
       <c r="C139" t="n">
-        <v>0.06881594657897949</v>
+        <v>4</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.06798076629638672</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[30, 26, 26, 26, 30, 36, 42, 50, 46, 42, 34, 30, 24, 30, 36, 30, 36, 42, 40, 38, 30, 28, 28, 26, 22, 18, 20, 22, 24, 30, 24, 22, 22, 20, 20, 22, 22, 26, 30, 26, 26, 24, 28, 24, 22, 22, 14, 16, 20, 22, 20, 20, 28, 28, 34, 30, 34, 34, 34, 34, 28, 30, 30, 30, 28, 28, 24, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
         <v>15</v>
       </c>
-      <c r="B140" t="n">
-        <v>1001</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>[7, 1, 3, 5, 9, 13, 0, 4, 14, 12, 2, 6, 11, 1, 10]</t>
+        </is>
       </c>
       <c r="C140" t="n">
-        <v>0.07380270957946777</v>
+        <v>2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.06695294380187988</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>[34, 36, 34, 30, 28, 32, 38, 38, 34, 34, 32, 28, 30, 26, 26, 24, 26, 26, 30, 36, 32, 28, 26, 24, 26, 30, 28, 32, 36, 32, 34, 46, 50, 48, 46, 42, 40, 32, 28, 32, 30, 32, 32, 26, 30, 30, 28, 26, 28, 26, 26, 26, 26, 26, 26, 26, 24, 24, 24, 24, 24, 22, 22, 22, 24, 20, 20, 20, 20, 20, 20, 20, 20, 20, 18, 18, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
         <v>15</v>
       </c>
-      <c r="B141" t="n">
-        <v>1001</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>[11, 2, 7, 1, 12, 0, 8, 3, 4, 13, 10, 14, 9, 6, 5]</t>
+        </is>
       </c>
       <c r="C141" t="n">
-        <v>0.06482648849487305</v>
+        <v>4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.06703305244445801</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>[24, 26, 28, 28, 36, 34, 34, 36, 36, 34, 30, 34, 34, 36, 30, 26, 30, 28, 24, 22, 26, 30, 36, 34, 38, 40, 32, 36, 32, 32, 40, 42, 36, 34, 32, 32, 30, 30, 32, 32, 32, 30, 30, 28, 32, 28, 36, 42, 38, 34, 34, 34, 36, 26, 32, 24, 28, 28, 28, 28, 28, 30, 30, 30, 26, 28, 28, 26, 26, 26, 26, 22, 22, 22, 22, 22, 22, 22, 22, 22, 20, 18, 18, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
         <v>15</v>
       </c>
-      <c r="B142" t="n">
-        <v>1001</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>[6, 11, 7, 0, 12, 5, 13, 1, 10, 2, 14, 3, 8, 4, 9]</t>
+        </is>
       </c>
       <c r="C142" t="n">
-        <v>0.07081079483032227</v>
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>678</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.0459589958190918</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>[32, 26, 26, 24, 26, 26, 32, 32, 36, 38, 36, 38, 42, 42, 48, 46, 40, 38, 44, 42, 40, 38, 40, 36, 36, 34, 38, 44, 42, 36, 38, 36, 34, 34, 26, 30, 34, 38, 36, 34, 36, 36, 32, 24, 24, 24, 24, 22, 24, 26, 24, 24, 20, 22, 26, 26, 26, 24, 24, 24, 22, 20, 20, 14, 14, 14, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
         <v>15</v>
       </c>
-      <c r="B143" t="n">
-        <v>1001</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>[10, 5, 3, 11, 13, 7, 3, 0, 14, 14, 9, 2, 12, 8, 1]</t>
+        </is>
       </c>
       <c r="C143" t="n">
-        <v>0.06582403182983398</v>
+        <v>4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.06702375411987305</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>[38, 38, 38, 30, 28, 24, 26, 28, 32, 26, 26, 24, 22, 28, 32, 34, 34, 34, 28, 26, 26, 32, 32, 32, 30, 28, 26, 26, 30, 32, 34, 38, 30, 28, 26, 28, 28, 28, 24, 24, 26, 28, 30, 30, 32, 34, 34, 34, 36, 34, 40, 36, 30, 30, 30, 28, 28, 28, 28, 28, 28, 30, 26, 24, 26, 24, 24, 24, 24, 24, 22, 22, 22, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
         <v>15</v>
       </c>
-      <c r="B144" t="n">
-        <v>1001</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>[7, 12, 4, 1, 5, 0, 2, 10, 8, 3, 14, 11, 9, 6, 13]</t>
+        </is>
       </c>
       <c r="C144" t="n">
-        <v>0.06482648849487305</v>
+        <v>2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.06693530082702637</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>[24, 24, 20, 18, 22, 22, 20, 24, 28, 32, 28, 30, 32, 30, 34, 36, 42, 42, 38, 36, 40, 44, 42, 44, 44, 38, 34, 40, 44, 38, 40, 40, 38, 40, 38, 30, 36, 34, 40, 38, 38, 38, 36, 40, 38, 40, 40, 38, 40, 40, 36, 34, 36, 34, 36, 32, 30, 28, 28, 24, 22, 22, 22, 22, 22, 22, 22, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 14, 14, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
         <v>15</v>
       </c>
-      <c r="B145" t="n">
-        <v>1001</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>[1, 10, 5, 9, 12, 0, 8, 3, 13, 6, 14, 2, 11, 7, 4]</t>
+        </is>
       </c>
       <c r="C145" t="n">
-        <v>0.06536293029785156</v>
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>624</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.04101443290710449</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>[32, 30, 26, 24, 30, 26, 30, 32, 26, 26, 26, 30, 32, 34, 34, 38, 44, 42, 38, 34, 30, 28, 30, 30, 32, 34, 40, 42, 32, 36, 40, 42, 40, 36, 42, 52, 54, 54, 50, 46, 44, 40, 40, 38, 42, 36, 38, 40, 44, 50, 44, 34, 32, 32, 30, 32, 32, 30, 30, 30, 30, 30, 30, 30, 30, 30, 26, 26, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
         <v>15</v>
       </c>
-      <c r="B146" t="n">
-        <v>1001</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>[6, 11, 0, 2, 9, 13, 10, 1, 3, 12, 7, 4, 8, 14, 5]</t>
+        </is>
       </c>
       <c r="C146" t="n">
-        <v>0.06482672691345215</v>
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>663</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.04500126838684082</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>[34, 36, 36, 34, 36, 34, 34, 30, 30, 34, 34, 36, 32, 34, 32, 36, 38, 42, 44, 38, 40, 46, 46, 44, 50, 52, 42, 40, 38, 38, 32, 34, 34, 30, 26, 28, 30, 26, 28, 32, 36, 32, 28, 28, 22, 24, 24, 24, 32, 30, 30, 24, 26, 28, 28, 28, 28, 28, 26, 24, 24, 22, 22, 22, 22, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
         <v>15</v>
       </c>
-      <c r="B147" t="n">
-        <v>953</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>[10, 7, 5, 14, 9, 13, 6, 2, 12, 3, 1, 4, 8, 11, 0]</t>
+        </is>
       </c>
       <c r="C147" t="n">
-        <v>0.06183433532714844</v>
+        <v>4</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.0660243034362793</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>[46, 46, 50, 40, 44, 44, 38, 30, 28, 30, 34, 36, 36, 36, 36, 30, 32, 32, 30, 28, 24, 26, 26, 24, 26, 34, 24, 34, 36, 34, 44, 42, 38, 36, 38, 40, 40, 40, 36, 34, 30, 24, 26, 24, 30, 28, 28, 28, 34, 34, 36, 34, 34, 34, 32, 32, 32, 32, 28, 28, 20, 20, 20, 20, 20, 18, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+        </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
         <v>15</v>
       </c>
-      <c r="B148" t="n">
-        <v>1001</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>[6, 14, 10, 7, 9, 3, 1, 4, 11, 8, 12, 5, 8, 13, 0]</t>
+        </is>
       </c>
       <c r="C148" t="n">
-        <v>0.06536507606506348</v>
+        <v>2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.06804394721984863</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>[42, 34, 28, 28, 32, 32, 36, 32, 32, 26, 22, 28, 28, 26, 30, 30, 30, 32, 30, 28, 32, 30, 30, 30, 38, 42, 38, 42, 32, 24, 26, 32, 34, 40, 36, 34, 32, 36, 38, 32, 24, 22, 20, 22, 28, 32, 36, 42, 40, 42, 40, 36, 36, 26, 26, 26, 26, 26, 24, 24, 26, 22, 22, 22, 22, 26, 26, 20, 20, 20, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
         <v>15</v>
       </c>
-      <c r="B149" t="n">
-        <v>1001</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>[9, 14, 5, 9, 0, 13, 11, 4, 8, 1, 3, 10, 2, 7, 12]</t>
+        </is>
       </c>
       <c r="C149" t="n">
-        <v>0.06482672691345215</v>
+        <v>2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.06688475608825684</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>[28, 32, 34, 42, 42, 40, 32, 30, 30, 30, 32, 28, 24, 22, 24, 26, 28, 28, 30, 30, 26, 22, 22, 26, 30, 36, 44, 42, 32, 30, 30, 34, 34, 32, 34, 26, 26, 24, 28, 24, 24, 18, 18, 16, 16, 16, 16, 16, 18, 18, 18, 18, 18, 18, 16, 22, 22, 24, 24, 26, 22, 24, 24, 22, 22, 22, 22, 22, 22, 20, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
         <v>15</v>
       </c>
-      <c r="B150" t="n">
-        <v>1001</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>[3, 5, 14, 8, 10, 0, 7, 1, 6, 11, 2, 4, 12, 9, 13]</t>
+        </is>
       </c>
       <c r="C150" t="n">
-        <v>0.06382942199707031</v>
+        <v>2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.06682085990905762</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>[36, 36, 36, 34, 34, 40, 42, 36, 32, 38, 36, 42, 40, 34, 32, 32, 36, 30, 32, 28, 38, 30, 34, 38, 34, 28, 26, 30, 28, 26, 24, 24, 26, 26, 30, 30, 28, 28, 24, 28, 30, 34, 34, 42, 44, 40, 40, 42, 38, 34, 38, 34, 38, 40, 40, 40, 40, 40, 38, 38, 36, 36, 36, 36, 34, 32, 32, 32, 32, 26, 26, 26, 24, 22, 22, 20, 20, 18, 18, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
         <v>15</v>
       </c>
-      <c r="B151" t="n">
-        <v>1001</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>[8, 4, 7, 14, 0, 11, 1, 14, 12, 9, 3, 13, 10, 2, 5]</t>
+        </is>
       </c>
       <c r="C151" t="n">
-        <v>0.06682133674621582</v>
+        <v>2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.06781888008117676</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>[50, 46, 54, 50, 52, 52, 50, 44, 52, 50, 52, 42, 36, 32, 34, 46, 44, 38, 28, 30, 28, 30, 20, 20, 20, 24, 30, 36, 36, 36, 36, 46, 50, 46, 48, 50, 44, 50, 54, 46, 38, 38, 34, 38, 40, 42, 42, 44, 48, 46, 46, 38, 38, 36, 36, 30, 30, 30, 30, 30, 22, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/tp5-busquedas-locales/code/simulated_annealing_results.xlsx
+++ b/tp5-busquedas-locales/code/simulated_annealing_results.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[3, 0, 0, 2]</t>
+          <t>[0, 3, 1, 1]</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -488,21 +488,21 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.0009975433349609375</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[4, 8, 8, 8, 6, 8, 8, 4, 8, 6, 10, 8, 6, 8, 8, 6, 10, 8, 8, 8, 6, 6, 10, 6, 10, 10, 10, 10, 8, 8, 10, 6, 6, 6, 8, 6, 6, 8, 4, 8, 8, 4, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 8, 6, 6, 6, 6, 6, 0]</t>
+          <t>[4, 4, 6, 6, 10, 10, 10, 6, 6, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 0]</t>
+          <t>[2, 1, 2, 0]</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -517,21 +517,21 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[8, 8, 4, 4, 4, 4, 2, 4, 8, 4, 4, 4, 4, 2, 6, 8, 6, 10, 10, 6, 8, 6, 10, 6, 4, 4, 0]</t>
+          <t>[6, 4, 8, 8, 4, 4, 6, 10, 8, 10, 10, 8, 10, 8, 10, 10, 10, 12, 10, 12, 8, 4, 4, 4, 4, 6, 8, 8, 6, 10, 8, 6, 10, 10, 10, 8, 6, 6, 8, 4, 6, 6, 6, 8, 6, 8, 2, 4, 6, 4, 4, 4, 6, 8, 6, 6, 4, 4, 4, 4, 4, 4, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[2, 0, 0, 3]</t>
+          <t>[1, 3, 1, 0]</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -539,28 +539,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0009975433349609375</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[4, 8, 4, 4, 4, 2, 6, 2, 4, 6, 10, 8, 6, 8, 6, 4, 0]</t>
+          <t>[4, 2, 6, 6, 4, 8, 6, 2, 2, 6, 2, 4, 6, 4, 6, 8, 12, 8, 12, 10, 10, 8, 4, 6, 8, 6, 6, 10, 8, 8, 6, 6, 4, 6, 6, 8, 8, 10, 6, 4, 4, 4, 6, 8, 6, 2, 6, 4, 6, 6, 6, 6, 4, 6, 4, 4, 6, 4, 8, 4, 6, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[0, 3, 1, 1]</t>
+          <t>[2, 3, 3, 1]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -568,28 +568,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[4, 6, 6, 2, 4, 10, 4, 10, 6, 4, 6, 4, 6, 2, 4, 8, 6, 8, 8, 4, 8, 4, 8, 6, 2, 4, 8, 4, 4, 4, 4, 4, 4, 8, 6, 10, 4, 4, 4, 6, 2, 4, 10, 10, 8, 8, 6, 6, 8, 8, 6, 6, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 4, 4, 4, 0]</t>
+          <t>[6, 4, 4, 0]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 0]</t>
+          <t>[0, 2, 0, 0]</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -597,28 +597,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[8, 4, 6, 8, 8, 8, 4, 8, 4, 4, 6, 8, 6, 8, 6, 6, 2, 2, 2, 4, 6, 6, 8, 6, 8, 6, 2, 0]</t>
+          <t>[8, 8, 8, 8, 8, 6, 6, 8, 12, 8, 8, 8, 6, 8, 10, 4, 8, 12, 10, 6, 8, 8, 6, 2, 4, 4, 6, 8, 4, 10, 10, 6, 6, 8, 4, 6, 10, 6, 2, 4, 4, 8, 4, 8, 6, 8, 8, 4, 2, 6, 4, 8, 6, 4, 4, 10, 8, 8, 8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[3, 2, 1, 0]</t>
+          <t>[0, 1, 1, 3]</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -626,28 +626,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.0009973049163818359</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[12, 8, 4, 2, 8, 2, 6, 8, 8, 6, 8, 6, 6, 6, 8, 6, 8, 6, 2, 4, 4, 8, 8, 8, 8, 2, 6, 10, 8, 8, 8, 6, 0]</t>
+          <t>[8, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 6, 8, 4, 4, 8, 6, 8, 6, 8, 6, 8, 6, 10, 10, 10, 8, 8, 6, 8, 4, 0]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[3, 1, 1, 1]</t>
+          <t>[0, 3, 1, 3]</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -655,28 +655,28 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[8, 6, 8, 6, 8, 8, 6, 6, 4, 6, 4, 6, 8, 6, 6, 8, 8, 8, 8, 8, 8, 4, 2, 6, 4, 8, 6, 6, 8, 6, 8, 6, 4, 6, 6, 6, 8, 6, 8, 8, 6, 2, 8, 4, 4, 4, 4, 4, 10, 12, 8, 4, 4, 4, 6, 4, 4, 4, 4, 10, 10, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[4, 6, 10, 6, 8, 6, 6, 8, 8, 12, 8, 6, 8, 12, 6, 2, 6, 8, 6, 4, 4, 4, 6, 10, 10, 10, 6, 0]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[2, 2, 0, 3]</t>
+          <t>[0, 3, 1, 1]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -684,28 +684,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0.0009970664978027344</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[4, 8, 8, 10, 8, 8, 8, 4, 8, 8, 8, 4, 2, 6, 10, 8, 4, 4, 4, 4, 6, 8, 6, 8, 6, 10, 8, 10, 10, 10, 8, 6, 6, 10, 6, 4, 8, 4, 8, 8, 8, 6, 4, 8, 8, 6, 4, 4, 8, 4, 4, 2, 4, 6, 4, 6, 8, 6, 6, 6, 6, 6, 6, 2, 2, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[4, 6, 6, 10, 6, 8, 8, 8, 10, 4, 8, 8, 12, 8, 6, 4, 6, 4, 6, 8, 4, 2, 4, 8, 6, 10, 6, 6, 8, 10, 6, 6, 6, 8, 10, 6, 4, 8, 6, 2, 2, 4, 4, 8, 4, 4, 4, 10, 8, 8, 8, 8, 4, 6, 4, 4, 4, 4, 4, 6, 4, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[3, 0, 3, 3]</t>
+          <t>[2, 1, 2, 2]</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -713,28 +713,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[6, 4, 4, 2, 6, 6, 0]</t>
+          <t>[10, 8, 6, 4, 6, 6, 6, 10, 6, 10, 8, 8, 8, 4, 4, 2, 6, 8, 6, 2, 6, 8, 6, 8, 6, 2, 4, 8, 12, 8, 8, 8, 4, 4, 6, 6, 4, 2, 4, 4, 2, 6, 6, 6, 6, 6, 0]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[3, 2, 0, 2]</t>
+          <t>[2, 1, 3, 1]</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -749,21 +749,21 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009975433349609375</v>
+        <v>0.0009970664978027344</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[4, 8, 8, 8, 4, 2, 6, 4, 6, 4, 4, 4, 6, 8, 6, 8, 6, 6, 4, 8, 6, 4, 8, 6, 6, 8, 12, 8, 6, 8, 6, 6, 8, 10, 8, 10, 4, 6, 2, 4, 10, 10, 10, 10, 6, 6, 6, 2, 2, 4, 2, 2, 2, 2, 2, 6, 6, 2, 2, 2, 2, 2, 2, 4, 4, 4, 4, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[4, 6, 6, 8, 8, 12, 8, 6, 8, 8, 10, 8, 10, 6, 4, 8, 8, 8, 8, 8, 4, 8, 8, 6, 2, 4, 8, 8, 6, 4, 10, 6, 8, 6, 10, 6, 2, 4, 4, 10, 8, 6, 10, 8, 8, 8, 6, 4, 8, 6, 6, 8, 8, 6, 6, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 0]</t>
+          <t>[1, 1, 0, 3]</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -778,21 +778,21 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009970664978027344</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[8, 8, 4, 6, 8, 6, 8, 6, 2, 2, 4, 8, 8, 8, 8, 6, 6, 2, 4, 8, 8, 8, 6, 8, 8, 6, 10, 8, 6, 8, 4, 2, 6, 8, 12, 8, 8, 8, 4, 8, 10, 6, 4, 4, 4, 4, 4, 2, 2, 2, 4, 6, 2, 2, 8, 4, 4, 4, 4, 2, 2, 4, 4, 4, 4, 4, 0]</t>
+          <t>[6, 2, 6, 4, 8, 4, 6, 8, 6, 6, 10, 10, 6, 8, 10, 6, 8, 6, 10, 10, 10, 10, 8, 8, 10, 8, 10, 10, 10, 10, 4, 4, 8, 8, 12, 8, 4, 2, 4, 4, 4, 8, 8, 8, 8, 8, 6, 6, 6, 4, 4, 8, 6, 4, 6, 8, 4, 6, 4, 6, 6, 6, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[1, 2, 1, 3]</t>
+          <t>[0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -800,28 +800,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[6, 8, 12, 10, 10, 8, 6, 4, 4, 2, 6, 8, 6, 4, 8, 6, 8, 6, 6, 6, 2, 0]</t>
+          <t>[10, 6, 4, 8, 10, 6, 8, 8, 8, 8, 8, 4, 4, 4, 8, 8, 8, 6, 4, 4, 4, 6, 2, 4, 8, 6, 8, 6, 4, 6, 6, 6, 6, 8, 6, 6, 6, 6, 6, 8, 12, 10, 8, 8, 6, 6, 4, 6, 8, 8, 6, 6, 6, 6, 4, 4, 4, 4, 4, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[2, 0, 0, 1]</t>
+          <t>[1, 3, 0, 3]</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -829,28 +829,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[6, 10, 6, 4, 6, 10, 8, 4, 6, 2, 6, 10, 8, 4, 8, 8, 6, 8, 6, 6, 8, 6, 8, 4, 6, 6, 4, 4, 6, 4, 6, 6, 8, 8, 6, 4, 4, 8, 4, 8, 12, 8, 6, 4, 0]</t>
+          <t>[2, 6, 10, 8, 6, 2, 6, 8, 6, 8, 6, 6, 4, 6, 4, 6, 6, 8, 6, 8, 10, 6, 10, 10, 8, 6, 8, 6, 8, 4, 6, 4, 8, 6, 8, 6, 0]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[0, 3, 2, 3]</t>
+          <t>[2, 3, 0, 2]</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -858,28 +858,28 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0009982585906982422</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[10, 6, 6, 4, 6, 6, 6, 6, 10, 8, 6, 6, 10, 4, 4, 8, 8, 6, 8, 6, 6, 8, 6, 2, 6, 8, 12, 6, 10, 6, 10, 8, 6, 2, 2, 2, 2, 6, 6, 8, 8, 6, 10, 8, 8, 4, 4, 4, 4, 4, 6, 6, 4, 4, 6, 6, 8, 10, 8, 6, 6, 6, 4, 4, 4, 4, 4, 4, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[6, 8, 8, 4, 4, 8, 12, 10, 10, 6, 4, 4, 6, 6, 6, 8, 8, 6, 6, 10, 6, 4, 8, 8, 2, 4, 4, 6, 2, 2, 8, 4, 6, 4, 4, 2, 6, 10, 6, 6, 2, 4, 6, 6, 10, 8, 8, 8, 8, 8, 4, 4, 8, 10, 8, 8, 6, 6, 6, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[2, 0, 1, 0]</t>
+          <t>[2, 3, 2, 2]</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -887,28 +887,28 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0009968280792236328</v>
+        <v>0.0009977817535400391</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[6, 10, 10, 10, 8, 6, 8, 8, 8, 4, 4, 2, 4, 8, 6, 10, 8, 8, 8, 8, 4, 4, 8, 4, 10, 6, 2, 4, 6, 4, 4, 4, 6, 8, 6, 8, 6, 10, 10, 10, 10, 4, 2, 2, 4, 4, 4, 6, 6, 8, 6, 6, 6, 6, 6, 6, 8, 8, 8, 6, 6, 6, 6, 6, 6, 8, 4, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 6, 10, 12, 8, 12, 8, 6, 6, 8, 8, 4, 6, 10, 8, 4, 8, 10, 6, 6, 6, 10, 12, 8, 6, 6, 6, 4, 4, 4, 4, 4, 4, 10, 10, 10, 6, 10, 6, 6, 2, 4, 4, 4, 6, 6, 6, 10, 6, 8, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[1, 3, 3, 1]</t>
+          <t>[1, 0, 2, 0]</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -923,21 +923,21 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[8, 8, 8, 8, 2, 4, 4, 4, 2, 6, 4, 10, 10, 6, 2, 6, 2, 2, 6, 4, 10, 6, 4, 6, 4, 8, 6, 4, 4, 4, 6, 8, 12, 8, 8, 4, 4, 6, 4, 4, 4, 4, 6, 8, 10, 4, 6, 6, 8, 8, 6, 2, 0]</t>
+          <t>[4, 4, 4, 6, 4, 4, 10, 6, 2, 4, 2, 6, 10, 8, 6, 10, 10, 10, 4, 4, 4, 6, 6, 8, 6, 0]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1]</t>
+          <t>[0, 2, 3, 2]</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -945,28 +945,28 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009970664978027344</v>
+        <v>0.0009968280792236328</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[10, 4, 6, 10, 10, 8, 10, 6, 2, 4, 10, 6, 8, 8, 4, 8, 4, 4, 8, 8, 4, 6, 10, 8, 8, 8, 4, 6, 8, 6, 6, 4, 4, 8, 4, 6, 8, 4, 4, 4, 8, 4, 2, 2, 6, 8, 6, 4, 6, 6, 2, 6, 4, 4, 4, 10, 6, 8, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[6, 10, 10, 10, 4, 8, 4, 8, 8, 6, 8, 6, 8, 6, 8, 6, 10, 10, 6, 10, 6, 8, 4, 2, 6, 8, 8, 6, 6, 6, 10, 10, 8, 4, 8, 8, 10, 8, 4, 10, 10, 10, 12, 10, 8, 4, 2, 4, 4, 4, 8, 6, 4, 6, 4, 4, 4, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[2, 3, 0, 3]</t>
+          <t>[2, 2, 1, 3]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -981,21 +981,21 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0.0009968280792236328</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[6, 6, 10, 4, 10, 6, 2, 4, 8, 8, 6, 10, 10, 10, 10, 4, 4, 6, 6, 8, 4, 4, 8, 4, 4, 8, 8, 8, 12, 10, 6, 8, 10, 10, 6, 4, 8, 4, 6, 4, 8, 6, 8, 8, 8, 8, 8, 6, 6, 8, 8, 8, 8, 6, 6, 6, 4, 4, 4, 4, 4, 2, 2, 2, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[4, 8, 4, 4, 2, 6, 6, 6, 6, 2, 2, 6, 8, 6, 6, 8, 6, 8, 6, 8, 6, 8, 8, 8, 12, 8, 4, 6, 6, 10, 10, 6, 10, 4, 4, 4, 6, 8, 8, 8, 6, 2, 2, 6, 8, 8, 6, 2, 2, 2, 6, 6, 6, 4, 4, 6, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[3, 2, 3, 3]</t>
+          <t>[1, 1, 2, 0]</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1010,21 +1010,21 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[10, 10, 8, 6, 10, 8, 4, 4, 8, 10, 10, 4, 2, 4, 8, 8, 6, 6, 4, 8, 10, 8, 10, 8, 6, 2, 6, 10, 6, 2, 2, 0]</t>
+          <t>[4, 6, 10, 6, 4, 8, 8, 6, 2, 6, 10, 8, 10, 8, 10, 6, 8, 12, 8, 12, 8, 6, 8, 6, 8, 8, 4, 4, 8, 4, 8, 8, 10, 8, 4, 8, 4, 4, 2, 4, 6, 8, 8, 8, 4, 4, 4, 4, 8, 8, 8, 8, 8, 6, 2, 2, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[0, 3, 3, 0]</t>
+          <t>[0, 3, 1, 1]</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1032,28 +1032,28 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[4, 6, 10, 8, 6, 8, 6, 8, 8, 6, 4, 6, 4, 8, 8, 10, 10, 4, 4, 10, 8, 12, 8, 4, 8, 6, 8, 6, 6, 6, 2, 2, 6, 10, 8, 6, 8, 4, 4, 2, 4, 8, 6, 8, 4, 4, 4, 2, 4, 8, 4, 8, 8, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 0]</t>
+          <t>[4, 8, 4, 8, 10, 6, 4, 8, 12, 6, 12, 8, 8, 8, 6, 6, 6, 6, 0]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[2, 1, 2, 0]</t>
+          <t>[3, 3, 2, 0]</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1061,28 +1061,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[6, 6, 6, 10, 10, 8, 8, 6, 8, 8, 6, 6, 8, 8, 8, 8, 4, 6, 4, 4, 6, 4, 4, 10, 8, 10, 6, 4, 8, 6, 2, 6, 8, 6, 8, 6, 10, 12, 10, 8, 8, 8, 8, 4, 4, 6, 4, 4, 4, 4, 8, 6, 8, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[6, 6, 10, 6, 6, 10, 10, 10, 10, 10, 10, 10, 8, 10, 6, 4, 10, 10, 10, 8, 4, 8, 4, 4, 6, 6, 6, 10, 10, 8, 2, 6, 8, 8, 4, 6, 6, 2, 6, 4, 8, 4, 4, 4, 4, 4, 8, 8, 8, 10, 8, 6, 4, 4, 4, 4, 4, 2, 2, 2, 6, 6, 6, 10, 10, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 0]</t>
+          <t>[1, 3, 0, 1]</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1097,21 +1097,21 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[8, 8, 6, 8, 8, 8, 6, 6, 4, 8, 8, 6, 6, 4, 6, 8, 6, 6, 6, 8, 10, 6, 4, 4, 4, 8, 12, 8, 4, 8, 10, 10, 10, 6, 8, 6, 8, 6, 8, 8, 8, 10, 10, 8, 4, 8, 4, 6, 6, 6, 4, 8, 4, 6, 8, 8, 4, 4, 4, 2, 2, 2, 2, 2, 0]</t>
+          <t>[6, 10, 8, 4, 4, 6, 6, 2, 6, 4, 4, 6, 8, 8, 10, 6, 8, 6, 2, 4, 4, 8, 6, 8, 6, 4, 10, 10, 6, 2, 4, 6, 2, 6, 6, 6, 6, 6, 6, 4, 6, 4, 4, 6, 6, 6, 2, 4, 8, 8, 4, 4, 2, 2, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[0, 3, 3, 0]</t>
+          <t>[1, 3, 0, 0]</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1119,28 +1119,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.0009980201721191406</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[4, 6, 4, 6, 4, 4, 10, 8, 10, 12, 8, 4, 4, 2, 6, 8, 8, 10, 8, 12, 10, 10, 8, 4, 8, 8, 6, 8, 8, 8, 6, 6, 8, 4, 4, 4, 8, 4, 4, 10, 8, 2, 4, 8, 6, 6, 6, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 8, 8, 6, 0]</t>
+          <t>[2, 6, 6, 6, 8, 6, 6, 6, 8, 6, 8, 8, 8, 6, 8, 6, 6, 8, 6, 8, 12, 8, 4, 4, 2, 6, 6, 10, 8, 8, 8, 4, 8, 8, 8, 6, 4, 2, 4, 8, 6, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[3, 0, 2, 1]</t>
+          <t>[3, 1, 2, 2]</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1155,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0009970664978027344</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[2, 4, 4, 8, 4, 4, 2, 2, 4, 6, 4, 10, 8, 10, 10, 6, 2, 4, 4, 8, 12, 8, 8, 4, 4, 6, 2, 6, 6, 10, 8, 10, 12, 8, 8, 6, 6, 6, 6, 8, 4, 4, 8, 4, 8, 10, 8, 8, 6, 6, 6, 4, 6, 2, 4, 4, 4, 4, 6, 6, 6, 8, 8, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[4, 6, 8, 8, 12, 8, 8, 8, 10, 8, 8, 10, 10, 6, 4, 4, 4, 6, 6, 4, 6, 10, 6, 4, 6, 2, 4, 4, 4, 4, 8, 6, 6, 2, 2, 6, 6, 0]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[3, 0, 3, 3]</t>
+          <t>[1, 2, 0, 0]</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1177,28 +1177,28 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[6, 6, 8, 8, 8, 4, 8, 4, 2, 0]</t>
+          <t>[6, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[0, 2, 1, 1]</t>
+          <t>[1, 1, 3, 3]</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1206,28 +1206,28 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[4, 4, 8, 6, 4, 6, 4, 6, 4, 6, 8, 6, 6, 8, 10, 8, 4, 4, 4, 4, 4, 8, 8, 8, 8, 4, 2, 6, 6, 8, 6, 8, 6, 4, 4, 4, 8, 4, 4, 4, 4, 4, 4, 8, 4, 6, 4, 8, 4, 6, 4, 2, 2, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[8, 8, 6, 4, 4, 8, 4, 4, 4, 4, 4, 10, 4, 4, 6, 8, 8, 8, 6, 2, 6, 6, 10, 10, 10, 6, 2, 4, 4, 4, 10, 6, 4, 4, 2, 2, 2, 6, 2, 6, 4, 6, 2, 6, 4, 6, 6, 4, 4, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 2]</t>
+          <t>[3, 0, 1, 2]</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1242,21 +1242,21 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[10, 10, 12, 8, 4, 4, 4, 8, 6, 6, 6, 8, 10, 4, 2, 4, 8, 8, 8, 6, 2, 6, 6, 2, 0]</t>
+          <t>[8, 6, 2, 6, 8, 8, 4, 2, 2, 6, 8, 8, 8, 8, 4, 8, 6, 4, 4, 8, 6, 8, 6, 10, 6, 8, 4, 4, 8, 10, 6, 2, 2, 4, 4, 4, 4, 8, 10, 12, 8, 4, 6, 8, 8, 8, 8, 10, 4, 8, 6, 6, 6, 2, 4, 4, 2, 2, 2, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[1, 2, 2, 0]</t>
+          <t>[0, 2, 0, 0]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1264,28 +1264,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="F29" t="n">
         <v>0.0009973049163818359</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[6, 6, 2, 4, 6, 4, 4, 4, 6, 2, 2, 4, 2, 6, 10, 6, 6, 6, 8, 6, 2, 2, 4, 8, 2, 2, 6, 8, 10, 12, 8, 8, 4, 6, 4, 2, 4, 6, 6, 6, 8, 8, 8, 8, 6, 8, 6, 8, 8, 12, 10, 6, 2, 2, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[8, 8, 8, 8, 6, 2, 6, 8, 4, 8, 8, 8, 8, 6, 10, 8, 4, 8, 8, 8, 4, 8, 6, 8, 8, 6, 8, 8, 8, 8, 4, 2, 6, 6, 4, 6, 6, 4, 6, 2, 2, 6, 6, 6, 6, 2, 2, 4, 6, 8, 6, 2, 6, 6, 8, 6, 6, 8, 8, 8, 6, 4, 4, 6, 4, 0]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[1, 3, 2, 3]</t>
+          <t>[2, 1, 1, 1]</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1300,21 +1300,21 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[6, 8, 10, 4, 10, 8, 10, 6, 10, 6, 10, 10, 10, 8, 10, 8, 6, 8, 6, 6, 8, 6, 2, 4, 6, 2, 2, 6, 6, 4, 4, 4, 8, 4, 8, 4, 4, 8, 12, 8, 6, 8, 8, 6, 6, 6, 8, 6, 6, 2, 2, 2, 2, 4, 2, 2, 2, 2, 2, 2, 2, 6, 6, 6, 6, 6, 8, 8, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[8, 6, 10, 10, 6, 10, 12, 8, 10, 6, 10, 10, 6, 6, 4, 6, 4, 8, 8, 6, 8, 8, 4, 2, 4, 10, 6, 6, 8, 8, 10, 4, 4, 8, 10, 6, 6, 2, 2, 2, 6, 10, 6, 8, 4, 8, 6, 8, 6, 8, 10, 4, 4, 4, 8, 8, 4, 4, 4, 4, 8, 8, 4, 4, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[2, 3, 3, 1]</t>
+          <t>[2, 2, 1, 1]</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1322,28 +1322,28 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0009982585906982422</v>
+        <v>0.0009975433349609375</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[6, 4, 6, 6, 4, 4, 8, 6, 6, 8, 8, 4, 8, 8, 6, 6, 8, 10, 6, 10, 10, 6, 6, 6, 2, 4, 6, 4, 6, 4, 8, 6, 2, 8, 2, 2, 8, 8, 4, 2, 2, 6, 6, 8, 4, 2, 2, 6, 4, 6, 4, 4, 10, 6, 4, 4, 4, 2, 4, 6, 6, 4, 0]</t>
+          <t>[6, 10, 10, 8, 4, 8, 4, 2, 6, 6, 6, 8, 8, 6, 8, 8, 8, 10, 10, 12, 8, 8, 8, 10, 6, 2, 2, 8, 4, 6, 10, 6, 4, 4, 8, 6, 10, 10, 10, 10, 10, 4, 6, 2, 2, 2, 6, 6, 8, 6, 8, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[7, 2, 1, 1, 1, 5, 1, 7]</t>
+          <t>[2, 5, 1, 2, 5, 1, 7, 0]</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1351,28 +1351,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[6, 4, 2, 0, 5, 7, 1, 3]</t>
+          <t>[7, 5, 3, 0, 6, 4, 2, 1]</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>627</v>
+        <v>1000</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01196718215942383</v>
+        <v>0.01994729042053223</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[20, 22, 24, 16, 14, 12, 8, 10, 10, 14, 14, 18, 14, 18, 18, 12, 18, 18, 10, 16, 22, 26, 26, 24, 28, 24, 20, 14, 10, 16, 10, 10, 6, 10, 8, 12, 12, 14, 16, 14, 10, 14, 16, 14, 12, 10, 10, 14, 16, 14, 14, 14, 14, 12, 12, 12, 12, 14, 14, 14, 10, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[12, 14, 14, 20, 18, 18, 18, 14, 14, 10, 8, 8, 8, 10, 8, 6, 6, 8, 8, 12, 14, 14, 12, 18, 18, 14, 14, 14, 12, 10, 16, 14, 10, 10, 10, 12, 12, 8, 10, 12, 14, 18, 18, 16, 16, 18, 20, 16, 14, 14, 16, 12, 12, 12, 12, 12, 12, 12, 12, 8, 10, 10, 8, 8, 8, 8, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[3, 7, 3, 0, 4, 6, 5, 1]</t>
+          <t>[4, 7, 4, 2, 1, 1, 5, 7]</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1380,28 +1380,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[2, 4, 6, 0, 3, 1, 7, 5]</t>
+          <t>[5, 7, 0, 0, 3, 1, 6, 2]</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>179</v>
+        <v>1000</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003989219665527344</v>
+        <v>0.01994562149047852</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[14, 12, 20, 22, 24, 20, 22, 22, 12, 12, 6, 8, 8, 10, 8, 12, 12, 18, 20, 14, 12, 14, 22, 16, 16, 18, 16, 16, 20, 22, 16, 16, 16, 16, 16, 10, 16, 14, 12, 10, 12, 12, 12, 10, 10, 10, 14, 14, 12, 12, 16, 14, 12, 12, 14, 10, 12, 12, 10, 10, 6, 6, 6, 4, 4, 4, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 0]</t>
+          <t>[12, 12, 18, 26, 30, 22, 16, 14, 16, 12, 14, 18, 16, 10, 8, 8, 10, 12, 10, 12, 12, 14, 18, 14, 12, 12, 18, 18, 18, 20, 22, 16, 18, 18, 20, 14, 16, 16, 16, 12, 12, 10, 10, 12, 10, 14, 16, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 10, 12, 14, 10, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[7, 1, 4, 5, 7, 4, 2, 4]</t>
+          <t>[1, 4, 2, 6, 6, 2, 6, 1]</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1409,28 +1409,28 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[4, 6, 0, 3, 1, 7, 5, 2]</t>
+          <t>[4, 1, 5, 0, 6, 3, 7, 2]</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>172</v>
+        <v>295</v>
       </c>
       <c r="F34" t="n">
-        <v>0.002992630004882812</v>
+        <v>0.005984783172607422</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[14, 12, 14, 10, 10, 8, 14, 16, 14, 14, 14, 8, 10, 12, 14, 18, 16, 12, 18, 18, 16, 18, 22, 22, 28, 24, 18, 12, 12, 14, 8, 8, 12, 10, 10, 14, 22, 18, 18, 14, 16, 18, 18, 14, 16, 20, 16, 18, 20, 16, 16, 16, 14, 12, 14, 14, 10, 10, 14, 14, 14, 12, 12, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 0]</t>
+          <t>[14, 20, 26, 20, 16, 22, 18, 22, 20, 16, 14, 8, 8, 8, 10, 14, 12, 20, 10, 14, 16, 12, 18, 12, 16, 16, 12, 16, 14, 20, 16, 14, 14, 14, 10, 12, 12, 8, 10, 14, 10, 6, 10, 16, 18, 14, 14, 12, 16, 12, 14, 14, 14, 16, 16, 16, 16, 10, 10, 10, 12, 14, 14, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[5, 7, 5, 4, 6, 1, 1, 1]</t>
+          <t>[1, 2, 4, 5, 1, 3, 0, 1]</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[5, 7, 4, 1, 3, 6, 6, 2]</t>
+          <t>[1, 7, 4, 6, 3, 0, 2, 5]</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1448,18 +1448,18 @@
         <v>1000</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01894855499267578</v>
+        <v>0.01994609832763672</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[16, 20, 18, 20, 18, 18, 14, 16, 24, 18, 12, 16, 20, 14, 12, 12, 16, 22, 22, 16, 20, 20, 16, 18, 16, 20, 20, 20, 12, 10, 10, 8, 8, 6, 10, 10, 10, 10, 6, 8, 10, 12, 12, 10, 12, 14, 14, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 8, 8, 8, 8, 8, 8, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[20, 16, 16, 8, 8, 8, 10, 12, 18, 18, 18, 22, 18, 16, 16, 18, 16, 18, 14, 10, 12, 10, 10, 14, 16, 12, 12, 12, 16, 14, 16, 10, 10, 12, 12, 12, 16, 16, 18, 20, 24, 26, 22, 26, 22, 22, 24, 24, 22, 20, 18, 14, 10, 14, 14, 14, 14, 10, 10, 10, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[1, 3, 6, 5, 7, 6, 5, 2]</t>
+          <t>[5, 7, 6, 1, 0, 5, 7, 3]</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1467,28 +1467,28 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[1, 6, 2, 0, 7, 4, 2, 5]</t>
+          <t>[2, 5, 7, 1, 3, 0, 6, 4]</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01994657516479492</v>
+        <v>0.01795196533203125</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[16, 12, 10, 10, 12, 10, 12, 14, 14, 12, 10, 8, 10, 4, 6, 10, 18, 22, 12, 12, 14, 18, 16, 20, 14, 16, 14, 14, 12, 8, 10, 14, 12, 12, 12, 18, 20, 18, 14, 14, 16, 12, 10, 12, 12, 10, 10, 10, 8, 8, 10, 14, 14, 14, 12, 12, 14, 14, 12, 12, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[12, 12, 8, 6, 8, 12, 12, 8, 12, 16, 10, 14, 16, 16, 12, 20, 24, 26, 28, 28, 28, 24, 24, 20, 16, 16, 14, 14, 14, 16, 12, 12, 14, 14, 16, 10, 12, 16, 20, 18, 14, 16, 20, 20, 20, 26, 22, 22, 16, 16, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[1, 4, 0, 0, 1, 5, 0, 4]</t>
+          <t>[6, 2, 6, 7, 5, 7, 1, 3]</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1496,28 +1496,28 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[4, 0, 7, 3, 1, 6, 2, 5]</t>
+          <t>[1, 5, 7, 2, 0, 3, 6, 4]</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>992</v>
+        <v>910</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01894927024841309</v>
+        <v>0.01795196533203125</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[18, 12, 16, 16, 20, 12, 16, 18, 28, 36, 30, 20, 14, 20, 20, 18, 16, 22, 18, 18, 22, 18, 16, 14, 14, 12, 18, 24, 22, 26, 20, 20, 20, 18, 20, 18, 16, 12, 16, 18, 16, 16, 20, 20, 16, 14, 12, 14, 14, 14, 12, 12, 16, 18, 14, 14, 12, 12, 14, 14, 14, 16, 16, 8, 8, 8, 8, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 14, 12, 16, 20, 14, 8, 8, 12, 8, 14, 6, 10, 8, 6, 6, 6, 10, 6, 6, 8, 10, 12, 14, 12, 12, 12, 14, 14, 22, 24, 18, 10, 8, 8, 8, 12, 12, 12, 20, 22, 30, 30, 22, 26, 26, 20, 20, 20, 16, 14, 16, 16, 16, 16, 18, 20, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[7, 0, 7, 5, 4, 3, 1, 1]</t>
+          <t>[5, 4, 2, 3, 1, 7, 6, 7]</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1525,28 +1525,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[2, 5, 3, 0, 7, 4, 6, 1]</t>
+          <t>[4, 6, 0, 3, 1, 7, 5, 2]</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="F38" t="n">
-        <v>0.002992153167724609</v>
+        <v>0.005983591079711914</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[18, 16, 14, 14, 12, 12, 14, 16, 16, 18, 16, 12, 20, 16, 20, 18, 20, 18, 16, 14, 8, 12, 10, 14, 12, 18, 14, 12, 14, 8, 14, 14, 12, 16, 14, 12, 14, 16, 14, 16, 12, 12, 18, 16, 16, 16, 18, 16, 14, 14, 14, 12, 12, 12, 10, 10, 8, 8, 8, 6, 6, 6, 4, 6, 6, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[22, 18, 20, 16, 16, 12, 16, 18, 20, 22, 18, 14, 16, 20, 18, 16, 16, 16, 18, 14, 16, 18, 18, 20, 22, 20, 22, 24, 20, 28, 28, 24, 20, 18, 16, 12, 12, 14, 12, 8, 10, 8, 8, 8, 8, 10, 14, 12, 14, 12, 12, 8, 6, 6, 6, 8, 10, 8, 6, 6, 8, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[7, 0, 3, 6, 1, 3, 0, 2]</t>
+          <t>[3, 7, 2, 6, 5, 4, 0, 6]</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1554,28 +1554,28 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[1, 5, 7, 2, 0, 3, 6, 4]</t>
+          <t>[5, 1, 6, 0, 3, 7, 4, 2]</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="F39" t="n">
         <v>0.007978916168212891</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[8, 12, 12, 12, 8, 12, 16, 16, 18, 16, 16, 16, 24, 24, 18, 22, 24, 16, 20, 24, 20, 18, 18, 18, 24, 26, 20, 20, 14, 16, 16, 16, 14, 18, 14, 12, 14, 12, 12, 14, 12, 10, 8, 8, 8, 8, 8, 8, 14, 12, 10, 14, 14, 12, 8, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[12, 20, 18, 12, 14, 16, 16, 16, 14, 16, 18, 14, 16, 16, 10, 12, 14, 14, 10, 14, 18, 18, 20, 16, 14, 20, 14, 14, 10, 10, 10, 14, 12, 8, 10, 8, 12, 16, 12, 10, 12, 18, 20, 24, 26, 22, 22, 20, 18, 16, 18, 18, 14, 14, 18, 20, 20, 18, 16, 12, 10, 6, 6, 6, 6, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[4, 6, 7, 7, 5, 7, 0, 2]</t>
+          <t>[5, 0, 3, 7, 5, 0, 1, 7]</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1583,28 +1583,28 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[4, 2, 0, 6, 1, 7, 5, 3]</t>
+          <t>[5, 3, 6, 0, 7, 1, 4, 2]</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>112</v>
+        <v>489</v>
       </c>
       <c r="F40" t="n">
-        <v>0.001994609832763672</v>
+        <v>0.008975982666015625</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[16, 14, 14, 10, 8, 4, 8, 10, 12, 12, 12, 10, 12, 10, 12, 12, 18, 16, 20, 14, 12, 14, 18, 26, 28, 26, 18, 14, 14, 16, 14, 10, 12, 10, 12, 10, 12, 18, 14, 16, 20, 16, 12, 10, 14, 14, 14, 14, 12, 12, 18, 14, 16, 16, 14, 14, 14, 12, 12, 12, 16, 14, 14, 6, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 0]</t>
+          <t>[16, 16, 20, 28, 28, 24, 22, 18, 20, 20, 16, 14, 16, 16, 16, 16, 18, 14, 18, 14, 16, 14, 18, 14, 10, 14, 14, 14, 14, 14, 12, 10, 12, 8, 8, 6, 8, 12, 12, 16, 12, 14, 12, 18, 16, 24, 20, 16, 18, 22, 22, 22, 18, 18, 16, 14, 14, 14, 10, 16, 16, 16, 10, 10, 10, 8, 8, 8, 6, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 5, 2, 5, 3, 2]</t>
+          <t>[3, 2, 1, 1, 0, 5, 0, 7]</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1612,28 +1612,28 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[2, 5, 1, 4, 7, 0, 6, 3]</t>
+          <t>[2, 4, 6, 1, 3, 5, 0, 2]</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>94</v>
+        <v>1000</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001994609832763672</v>
+        <v>0.01994752883911133</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[14, 16, 16, 16, 16, 14, 16, 14, 14, 20, 18, 16, 16, 20, 22, 24, 22, 20, 18, 18, 16, 16, 20, 18, 12, 8, 10, 12, 12, 14, 12, 16, 18, 20, 16, 20, 26, 26, 22, 30, 32, 32, 24, 18, 14, 16, 12, 12, 10, 10, 10, 8, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 10, 10, 10, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 0]</t>
+          <t>[14, 18, 16, 16, 18, 14, 18, 18, 12, 18, 22, 20, 20, 18, 14, 8, 10, 12, 12, 12, 14, 14, 14, 18, 20, 20, 20, 16, 20, 22, 26, 18, 24, 22, 20, 14, 14, 12, 12, 10, 16, 16, 14, 14, 12, 16, 12, 12, 12, 8, 8, 16, 18, 18, 18, 16, 16, 20, 16, 16, 18, 18, 16, 18, 18, 14, 14, 14, 14, 14, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[5, 1, 3, 2, 1, 6, 0, 5]</t>
+          <t>[0, 4, 0, 3, 5, 4, 1, 3]</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1641,28 +1641,28 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[5, 0, 4, 1, 7, 2, 6, 3]</t>
+          <t>[2, 5, 1, 6, 0, 3, 7, 4]</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F42" t="n">
-        <v>0.001994848251342773</v>
+        <v>0.002991437911987305</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[18, 20, 22, 18, 18, 16, 16, 16, 10, 8, 14, 14, 16, 16, 16, 16, 18, 18, 18, 24, 18, 20, 24, 18, 16, 16, 12, 12, 8, 10, 10, 12, 12, 14, 10, 10, 10, 10, 10, 10, 10, 10, 18, 16, 12, 12, 16, 22, 24, 24, 20, 16, 18, 18, 16, 12, 10, 10, 6, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 10, 8, 8, 10, 14, 10, 10, 14, 12, 12, 10, 12, 12, 14, 18, 14, 10, 8, 10, 10, 10, 10, 12, 16, 22, 16, 18, 16, 16, 16, 12, 16, 16, 16, 18, 18, 18, 18, 12, 16, 16, 16, 10, 14, 12, 12, 12, 12, 10, 12, 12, 12, 12, 10, 10, 10, 8, 8, 8, 8, 10, 10, 10, 10, 10, 10, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 0]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[6, 6, 4, 7, 7, 4, 7, 7]</t>
+          <t>[0, 7, 5, 7, 2, 5, 5, 4]</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1670,28 +1670,28 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[3, 5, 7, 1, 6, 0, 2, 4]</t>
+          <t>[2, 5, 7, 0, 3, 6, 4, 1]</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>333</v>
+        <v>584</v>
       </c>
       <c r="F43" t="n">
-        <v>0.006981134414672852</v>
+        <v>0.0109705924987793</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[18, 20, 20, 18, 20, 14, 12, 8, 10, 10, 8, 12, 10, 16, 24, 26, 28, 28, 24, 20, 16, 14, 18, 16, 18, 14, 16, 16, 20, 18, 20, 24, 18, 16, 10, 8, 10, 10, 12, 16, 20, 24, 24, 24, 16, 20, 20, 14, 14, 14, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[14, 18, 18, 18, 20, 18, 18, 18, 14, 18, 14, 12, 14, 14, 16, 12, 6, 4, 10, 12, 8, 10, 14, 16, 10, 8, 10, 8, 12, 10, 12, 18, 20, 12, 16, 18, 18, 18, 18, 12, 14, 12, 10, 10, 10, 8, 12, 12, 14, 14, 14, 16, 14, 12, 10, 14, 14, 10, 8, 8, 8, 8, 6, 6, 6, 6, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[0, 2, 2, 2, 0, 7, 3, 5]</t>
+          <t>[3, 0, 5, 5, 3, 2, 5, 4]</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1699,28 +1699,28 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[6, 2, 7, 1, 4, 0, 5, 3]</t>
+          <t>[2, 4, 1, 7, 5, 3, 6, 0]</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002992153167724609</v>
+        <v>0.00498652458190918</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[14, 12, 18, 14, 14, 14, 12, 12, 16, 20, 16, 12, 12, 14, 14, 16, 12, 14, 20, 18, 12, 14, 14, 12, 10, 12, 10, 10, 12, 14, 20, 18, 12, 8, 10, 12, 10, 10, 10, 14, 18, 16, 16, 20, 18, 12, 14, 12, 14, 12, 8, 8, 8, 10, 8, 8, 8, 8, 8, 10, 10, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 0]</t>
+          <t>[26, 18, 22, 22, 14, 16, 10, 8, 12, 20, 20, 18, 20, 24, 28, 22, 18, 14, 16, 14, 12, 10, 14, 18, 16, 16, 18, 10, 8, 8, 8, 12, 10, 10, 8, 14, 14, 12, 22, 26, 18, 18, 18, 14, 18, 16, 16, 18, 18, 20, 16, 16, 16, 16, 12, 12, 12, 8, 10, 10, 10, 14, 14, 14, 12, 14, 10, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[3, 2, 2, 6, 0, 6, 2, 2]</t>
+          <t>[5, 6, 1, 6, 1, 2, 4, 2]</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1728,28 +1728,28 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[0, 4, 7, 5, 2, 6, 1, 3]</t>
+          <t>[1, 3, 5, 7, 2, 0, 6, 4]</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>908</v>
+        <v>88</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01795172691345215</v>
+        <v>0.001995086669921875</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[26, 24, 18, 10, 10, 10, 8, 10, 14, 14, 12, 16, 18, 12, 10, 14, 14, 12, 8, 10, 10, 10, 18, 20, 20, 20, 12, 12, 14, 10, 14, 12, 12, 10, 10, 14, 16, 14, 14, 12, 10, 10, 8, 8, 12, 20, 22, 14, 14, 16, 14, 16, 10, 10, 10, 10, 10, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 14, 14, 14, 16, 20, 22, 14, 12, 18, 14, 10, 14, 14, 8, 8, 12, 18, 20, 18, 20, 22, 20, 18, 18, 12, 10, 12, 14, 12, 10, 10, 10, 10, 10, 8, 10, 18, 14, 10, 12, 12, 10, 10, 14, 14, 18, 18, 20, 12, 10, 12, 10, 8, 10, 12, 12, 12, 8, 8, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 0]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[7, 1, 5, 5, 7, 7, 1, 0]</t>
+          <t>[7, 5, 2, 1, 3, 5, 6, 1]</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1757,28 +1757,28 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[5, 3, 6, 0, 7, 1, 4, 2]</t>
+          <t>[3, 1, 6, 2, 5, 7, 4, 0]</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>938</v>
+        <v>347</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01795268058776855</v>
+        <v>0.00698089599609375</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[26, 24, 18, 22, 20, 18, 22, 22, 22, 16, 16, 18, 20, 18, 16, 14, 10, 14, 14, 10, 12, 12, 10, 18, 18, 16, 16, 18, 18, 22, 16, 16, 18, 14, 20, 22, 18, 16, 16, 16, 20, 16, 20, 22, 26, 22, 22, 20, 14, 14, 14, 16, 16, 10, 8, 10, 10, 10, 12, 12, 12, 12, 8, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[14, 10, 8, 12, 14, 12, 14, 10, 8, 10, 10, 12, 14, 14, 10, 14, 14, 14, 10, 10, 10, 10, 12, 14, 14, 14, 12, 8, 8, 10, 14, 18, 22, 20, 14, 14, 20, 18, 18, 16, 14, 10, 12, 10, 10, 12, 10, 10, 10, 10, 18, 16, 16, 18, 18, 14, 12, 14, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[3, 0, 3, 6, 7, 3, 0, 1]</t>
+          <t>[2, 3, 7, 1, 5, 7, 6, 5]</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1786,28 +1786,28 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[5, 7, 1, 4, 6, 3, 0, 2]</t>
+          <t>[3, 1, 7, 4, 6, 0, 2, 5]</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1000</v>
+        <v>401</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01994609832763672</v>
+        <v>0.007978677749633789</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[18, 20, 18, 18, 20, 18, 20, 12, 14, 18, 12, 12, 10, 10, 16, 22, 20, 22, 16, 16, 22, 16, 10, 12, 12, 14, 20, 12, 12, 14, 14, 18, 16, 12, 12, 10, 10, 14, 14, 14, 14, 12, 12, 14, 16, 10, 16, 16, 8, 10, 10, 6, 8, 8, 6, 12, 12, 12, 10, 10, 12, 12, 12, 12, 12, 12, 12, 12, 14, 14, 12, 12, 12, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[22, 16, 20, 18, 18, 18, 14, 8, 10, 10, 12, 14, 16, 16, 12, 10, 16, 14, 10, 12, 12, 10, 12, 10, 12, 12, 10, 12, 14, 10, 16, 20, 16, 14, 16, 14, 18, 14, 20, 26, 22, 14, 8, 10, 10, 12, 12, 12, 14, 14, 10, 10, 6, 12, 12, 12, 14, 16, 16, 16, 16, 16, 16, 14, 14, 14, 12, 12, 10, 8, 8, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[7, 4, 5, 2, 2, 1, 4, 4]</t>
+          <t>[2, 6, 5, 7, 7, 1, 0, 7]</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1815,28 +1815,28 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[5, 3, 6, 0, 7, 1, 4, 2]</t>
+          <t>[3, 5, 0, 4, 1, 7, 2, 6]</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>392</v>
+        <v>227</v>
       </c>
       <c r="F48" t="n">
-        <v>0.006981372833251953</v>
+        <v>0.004986763000488281</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[18, 16, 20, 14, 14, 10, 8, 10, 14, 12, 20, 16, 14, 16, 16, 14, 18, 20, 16, 14, 12, 10, 4, 10, 12, 16, 12, 10, 14, 14, 12, 16, 16, 10, 14, 12, 12, 16, 12, 14, 12, 6, 10, 10, 12, 14, 18, 18, 14, 20, 18, 22, 20, 22, 22, 14, 14, 12, 8, 8, 8, 8, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[12, 10, 16, 18, 20, 24, 20, 18, 20, 22, 22, 22, 30, 28, 22, 24, 24, 24, 20, 32, 30, 22, 18, 16, 12, 18, 16, 22, 24, 18, 14, 12, 12, 16, 12, 12, 14, 18, 16, 12, 14, 10, 14, 14, 10, 10, 12, 12, 12, 12, 8, 8, 10, 12, 12, 8, 8, 10, 10, 10, 10, 10, 10, 10, 10, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[7, 6, 7, 1, 1, 4, 5, 6]</t>
+          <t>[4, 7, 0, 4, 4, 2, 4, 0]</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1844,28 +1844,28 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[4, 0, 7, 5, 2, 6, 1, 3]</t>
+          <t>[4, 6, 1, 5, 2, 0, 3, 7]</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>564</v>
+        <v>179</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0109705924987793</v>
+        <v>0.002992153167724609</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[18, 16, 16, 10, 12, 12, 10, 14, 16, 18, 16, 18, 16, 16, 16, 20, 16, 12, 12, 12, 14, 12, 12, 12, 12, 12, 12, 16, 24, 16, 14, 16, 12, 12, 14, 12, 12, 14, 8, 8, 14, 14, 14, 12, 14, 16, 16, 18, 14, 16, 14, 14, 14, 12, 10, 10, 10, 10, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[24, 26, 30, 30, 24, 26, 20, 20, 22, 22, 22, 28, 26, 28, 26, 22, 26, 18, 12, 14, 18, 20, 16, 10, 18, 18, 16, 16, 22, 28, 32, 30, 20, 18, 14, 12, 12, 14, 18, 16, 14, 16, 16, 16, 16, 14, 16, 18, 16, 16, 16, 16, 16, 16, 12, 12, 10, 12, 12, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[4, 0, 0, 5, 3, 2, 1, 3]</t>
+          <t>[4, 1, 5, 4, 2, 5, 2, 4]</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1873,28 +1873,28 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[6, 0, 3, 1, 7, 5, 2, 0]</t>
+          <t>[0, 5, 7, 2, 6, 3, 1, 4]</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01894950866699219</v>
+        <v>0.001994609832763672</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[12, 14, 16, 16, 16, 14, 18, 12, 10, 12, 10, 12, 10, 12, 20, 18, 16, 20, 20, 18, 14, 14, 14, 8, 12, 14, 16, 14, 10, 10, 16, 14, 18, 18, 14, 12, 12, 10, 8, 12, 18, 16, 20, 18, 18, 18, 20, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 10, 10, 8, 10, 10, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[14, 16, 14, 14, 12, 14, 18, 14, 20, 20, 18, 16, 20, 24, 24, 22, 18, 22, 24, 18, 16, 18, 14, 16, 10, 8, 12, 12, 14, 16, 12, 10, 16, 14, 16, 16, 14, 12, 18, 8, 12, 12, 12, 12, 16, 18, 22, 22, 20, 18, 18, 10, 12, 10, 14, 14, 14, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 4, 4, 4, 4, 4, 0]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[4, 1, 3, 4, 5, 3, 4, 5]</t>
+          <t>[6, 6, 4, 2, 2, 1, 5, 3]</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1902,28 +1902,28 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[0, 6, 3, 5, 7, 1, 4, 2]</t>
+          <t>[3, 1, 4, 7, 5, 0, 2, 6]</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>443</v>
+        <v>177</v>
       </c>
       <c r="F51" t="n">
-        <v>0.008975744247436523</v>
+        <v>0.00399017333984375</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[22, 14, 20, 22, 14, 8, 10, 10, 8, 10, 14, 14, 18, 18, 24, 22, 14, 14, 10, 8, 16, 14, 10, 14, 14, 14, 18, 18, 22, 22, 24, 22, 22, 18, 10, 8, 8, 12, 10, 12, 12, 12, 12, 14, 10, 10, 10, 6, 10, 6, 8, 10, 8, 8, 6, 6, 6, 6, 6, 8, 8, 8, 6, 6, 6, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[20, 18, 14, 12, 16, 18, 16, 16, 14, 20, 18, 14, 14, 12, 18, 18, 20, 20, 22, 20, 20, 24, 30, 22, 22, 20, 20, 22, 24, 24, 22, 20, 22, 18, 16, 18, 12, 10, 10, 10, 12, 16, 20, 20, 16, 18, 14, 18, 14, 12, 10, 10, 10, 10, 10, 10, 10, 10, 12, 12, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[4, 0, 7, 4, 6, 4, 6, 7]</t>
+          <t>[7, 5, 4, 0, 7, 0, 2, 7]</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1931,28 +1931,28 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[0, 4, 7, 1, 6, 2, 5, 3]</t>
+          <t>[3, 5, 7, 1, 6, 0, 2, 4]</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1000</v>
+        <v>484</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01994681358337402</v>
+        <v>0.008974790573120117</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[16, 14, 14, 12, 12, 12, 8, 16, 12, 14, 10, 14, 14, 14, 10, 14, 16, 16, 16, 12, 12, 12, 14, 14, 16, 12, 16, 18, 18, 22, 14, 18, 18, 12, 6, 10, 6, 6, 8, 6, 8, 10, 12, 12, 14, 14, 14, 16, 16, 16, 20, 16, 16, 12, 12, 12, 10, 12, 10, 10, 10, 10, 10, 10, 8, 8, 8, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[10, 14, 16, 14, 10, 10, 12, 12, 12, 14, 10, 14, 18, 16, 16, 16, 18, 20, 18, 16, 16, 16, 12, 6, 12, 12, 8, 12, 10, 16, 16, 16, 20, 16, 18, 16, 22, 20, 20, 24, 18, 14, 10, 6, 6, 6, 10, 6, 12, 12, 10, 12, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[0, 6, 6, 1, 2, 1, 4, 0]</t>
+          <t>[1, 3, 4, 7, 7, 7, 2, 3]</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1960,28 +1960,28 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[1, 5, 6, 0, 3, 7, 4, 2]</t>
+          <t>[6, 2, 0, 5, 7, 4, 1, 3]</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1000</v>
+        <v>104</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01894950866699219</v>
+        <v>0.001994609832763672</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[16, 10, 14, 18, 16, 14, 16, 14, 16, 20, 14, 14, 14, 14, 16, 20, 18, 18, 12, 10, 8, 6, 10, 14, 12, 14, 18, 20, 20, 14, 16, 12, 12, 12, 12, 16, 18, 20, 16, 14, 22, 22, 20, 18, 18, 18, 14, 10, 12, 12, 14, 12, 12, 10, 10, 10, 10, 8, 8, 8, 8, 10, 8, 8, 8, 8, 8, 8, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[18, 18, 12, 12, 12, 12, 12, 12, 8, 12, 16, 20, 24, 16, 10, 14, 16, 20, 12, 18, 22, 24, 20, 22, 24, 22, 20, 16, 14, 8, 6, 6, 8, 8, 8, 12, 10, 8, 14, 18, 22, 20, 18, 20, 12, 20, 20, 18, 24, 32, 28, 20, 20, 16, 16, 14, 14, 12, 12, 10, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[0, 2, 6, 6, 3, 0, 1, 5]</t>
+          <t>[6, 3, 4, 2, 2, 5, 1, 3]</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[0, 7, 5, 2, 6, 1, 7, 4]</t>
+          <t>[2, 0, 3, 7, 5, 1, 6, 4]</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1999,18 +1999,18 @@
         <v>1000</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01894903182983398</v>
+        <v>0.01994657516479492</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[8, 10, 16, 20, 12, 12, 18, 14, 12, 16, 12, 16, 12, 10, 16, 18, 20, 12, 12, 12, 14, 16, 14, 14, 12, 12, 14, 16, 10, 10, 8, 8, 4, 4, 8, 14, 14, 10, 12, 16, 18, 14, 10, 10, 12, 18, 16, 16, 18, 18, 18, 16, 14, 14, 12, 12, 12, 8, 8, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[14, 16, 14, 16, 18, 14, 14, 14, 14, 10, 8, 16, 8, 8, 12, 14, 16, 22, 22, 16, 20, 18, 20, 14, 16, 20, 24, 20, 20, 20, 20, 20, 24, 20, 20, 22, 14, 12, 14, 16, 16, 18, 14, 12, 8, 12, 8, 8, 10, 6, 6, 6, 8, 8, 8, 6, 6, 8, 8, 12, 10, 10, 8, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[5, 0, 7, 4, 2, 4, 5, 5]</t>
+          <t>[0, 6, 3, 0, 6, 2, 2, 3]</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2018,28 +2018,28 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[4, 1, 3, 6, 2, 7, 5, 0]</t>
+          <t>[6, 1, 5, 2, 0, 3, 7, 4]</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>979</v>
+        <v>125</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01894950866699219</v>
+        <v>0.001995563507080078</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[20, 24, 22, 20, 26, 20, 12, 12, 14, 10, 12, 14, 14, 12, 16, 10, 10, 18, 18, 18, 14, 12, 14, 14, 10, 14, 12, 16, 16, 22, 16, 16, 18, 20, 20, 22, 20, 16, 16, 18, 14, 16, 18, 20, 20, 20, 28, 20, 18, 18, 20, 12, 16, 16, 16, 14, 14, 14, 14, 14, 14, 18, 22, 22, 16, 16, 16, 16, 12, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 16, 14, 14, 14, 12, 14, 12, 16, 24, 26, 22, 16, 16, 12, 14, 20, 18, 16, 20, 20, 16, 10, 8, 14, 10, 10, 10, 20, 18, 20, 18, 14, 12, 10, 14, 18, 26, 22, 20, 20, 22, 18, 16, 16, 22, 22, 22, 18, 14, 12, 12, 12, 14, 12, 12, 12, 14, 12, 12, 12, 12, 14, 12, 16, 12, 12, 12, 12, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[4, 6, 5, 4, 7, 0, 5, 7]</t>
+          <t>[5, 1, 7, 7, 6, 5, 3, 7]</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2047,28 +2047,28 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[5, 3, 6, 0, 2, 4, 1, 7]</t>
+          <t>[2, 5, 7, 1, 3, 0, 6, 4]</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00698089599609375</v>
+        <v>0.001994848251342773</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[16, 16, 16, 18, 12, 14, 10, 8, 10, 8, 12, 12, 14, 20, 20, 16, 18, 14, 14, 14, 14, 12, 14, 14, 16, 16, 16, 20, 16, 14, 16, 20, 20, 22, 30, 24, 26, 22, 26, 24, 20, 20, 12, 12, 12, 12, 14, 10, 10, 14, 12, 14, 16, 16, 16, 18, 18, 14, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[24, 28, 24, 22, 22, 16, 14, 14, 6, 6, 6, 6, 10, 10, 8, 12, 14, 14, 18, 14, 16, 12, 16, 8, 14, 18, 16, 14, 10, 16, 22, 20, 20, 22, 20, 18, 20, 18, 14, 10, 10, 10, 14, 16, 18, 22, 24, 26, 18, 18, 16, 16, 20, 20, 14, 12, 12, 12, 10, 10, 10, 10, 10, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 0]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[3, 1, 2, 5, 7, 1, 6, 1]</t>
+          <t>[0, 0, 6, 0, 7, 2, 3, 6]</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2076,28 +2076,28 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[3, 0, 4, 7, 1, 6, 2, 5]</t>
+          <t>[1, 7, 5, 0, 2, 4, 6, 3]</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>213</v>
+        <v>323</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003989219665527344</v>
+        <v>0.005983829498291016</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[16, 14, 16, 20, 20, 24, 22, 20, 22, 16, 16, 16, 20, 16, 16, 22, 22, 22, 22, 14, 10, 14, 18, 18, 16, 20, 20, 20, 20, 20, 20, 20, 18, 22, 18, 18, 16, 18, 18, 14, 16, 16, 16, 18, 14, 14, 14, 14, 12, 12, 10, 12, 16, 16, 14, 16, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 16, 14, 8, 10, 10, 10, 10, 10, 12, 14, 18, 20, 20, 22, 22, 22, 22, 22, 26, 22, 22, 22, 20, 16, 26, 24, 24, 22, 24, 30, 26, 26, 18, 14, 18, 18, 16, 12, 14, 14, 18, 18, 16, 16, 16, 22, 18, 26, 20, 20, 14, 14, 16, 16, 16, 16, 14, 14, 14, 14, 16, 18, 16, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[7, 5, 6, 0, 5, 5, 4, 0]</t>
+          <t>[7, 4, 4, 2, 2, 4, 4, 4]</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2105,28 +2105,28 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[2, 4, 1, 7, 0, 6, 3, 5]</t>
+          <t>[5, 3, 1, 7, 2, 0, 6, 4]</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="F58" t="n">
-        <v>0.006981849670410156</v>
+        <v>0.01994657516479492</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[14, 18, 14, 16, 18, 18, 14, 18, 20, 16, 18, 16, 18, 26, 22, 16, 20, 18, 20, 18, 18, 16, 16, 12, 14, 10, 12, 14, 14, 12, 12, 16, 12, 14, 18, 14, 12, 8, 12, 18, 16, 12, 20, 20, 16, 10, 12, 8, 10, 14, 16, 18, 16, 16, 12, 10, 8, 8, 8, 8, 10, 10, 12, 12, 12, 10, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[30, 26, 24, 22, 24, 22, 24, 20, 16, 18, 18, 22, 16, 14, 12, 16, 12, 12, 16, 12, 16, 12, 12, 14, 16, 12, 10, 14, 18, 18, 20, 20, 16, 20, 20, 22, 16, 16, 16, 14, 16, 18, 18, 14, 14, 10, 8, 6, 8, 14, 14, 10, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[7, 0, 1, 1, 3, 0, 4, 7]</t>
+          <t>[4, 2, 6, 3, 2, 5, 0, 1]</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2134,28 +2134,28 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[2, 6, 1, 7, 5, 3, 0, 4]</t>
+          <t>[1, 6, 4, 7, 0, 3, 5, 2]</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>537</v>
+        <v>115</v>
       </c>
       <c r="F59" t="n">
-        <v>0.009972810745239258</v>
+        <v>0.002992153167724609</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[16, 14, 20, 24, 26, 24, 30, 36, 28, 24, 24, 18, 20, 18, 16, 18, 20, 22, 24, 20, 16, 22, 18, 18, 18, 18, 18, 24, 22, 22, 14, 10, 6, 8, 8, 8, 12, 14, 10, 12, 18, 12, 12, 16, 16, 12, 14, 16, 14, 14, 14, 10, 10, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 16, 24, 24, 24, 16, 16, 18, 18, 20, 18, 10, 12, 10, 10, 10, 12, 16, 20, 16, 12, 14, 24, 18, 18, 12, 24, 18, 24, 26, 26, 28, 24, 26, 30, 18, 14, 14, 14, 14, 12, 12, 18, 18, 12, 14, 14, 14, 14, 10, 10, 10, 10, 10, 14, 14, 8, 8, 4, 4, 6, 6, 8, 8, 8, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[5, 0, 6, 4, 6, 2, 4, 4]</t>
+          <t>[7, 0, 0, 5, 1, 3, 2, 2]</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2163,28 +2163,28 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[5, 2, 4, 1, 7, 5, 3, 0]</t>
+          <t>[4, 1, 5, 0, 6, 3, 7, 2]</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1000</v>
+        <v>307</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01994681358337402</v>
+        <v>0.00598454475402832</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[14, 22, 14, 16, 14, 18, 18, 18, 14, 12, 6, 12, 16, 10, 10, 8, 10, 12, 10, 10, 10, 12, 14, 12, 12, 16, 12, 10, 10, 12, 18, 18, 16, 14, 14, 14, 14, 16, 14, 16, 16, 14, 12, 18, 16, 14, 18, 20, 18, 18, 12, 16, 18, 20, 20, 22, 20, 20, 14, 16, 16, 16, 18, 14, 12, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[12, 10, 12, 14, 12, 10, 12, 14, 16, 16, 14, 16, 16, 12, 12, 12, 14, 16, 16, 16, 16, 24, 18, 18, 12, 10, 12, 12, 10, 10, 10, 10, 8, 8, 12, 16, 12, 8, 10, 10, 10, 8, 8, 8, 6, 10, 10, 6, 6, 10, 8, 8, 8, 8, 8, 8, 8, 4, 4, 6, 8, 8, 8, 8, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 2, 0, 6, 5, 2]</t>
+          <t>[5, 2, 7, 4, 6, 0, 0, 4]</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2192,28 +2192,28 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[4, 2, 0, 6, 1, 7, 5, 3]</t>
+          <t>[5, 3, 6, 0, 7, 1, 4, 2]</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>792</v>
+        <v>238</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01495981216430664</v>
+        <v>0.004986047744750977</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[24, 22, 16, 16, 20, 18, 18, 12, 14, 10, 8, 8, 14, 16, 20, 16, 16, 16, 12, 12, 18, 18, 16, 18, 18, 18, 16, 18, 20, 16, 16, 16, 14, 18, 18, 22, 22, 20, 20, 14, 12, 14, 14, 14, 12, 12, 12, 10, 10, 10, 10, 10, 10, 8, 10, 10, 10, 10, 10, 10, 14, 14, 14, 14, 16, 16, 16, 16, 14, 14, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 8, 10, 16, 14, 14, 18, 18, 14, 14, 16, 14, 8, 8, 10, 10, 4, 8, 12, 10, 10, 10, 14, 14, 20, 12, 14, 14, 8, 8, 8, 8, 14, 10, 10, 10, 10, 14, 14, 12, 12, 12, 10, 8, 6, 10, 10, 12, 12, 10, 12, 12, 14, 12, 16, 16, 16, 18, 18, 16, 14, 12, 12, 12, 12, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[4, 2, 8, 0, 8, 4, 0, 7, 0, 2]</t>
+          <t>[4, 5, 9, 2, 5, 2, 5, 0, 5, 6]</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2221,28 +2221,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[4, 7, 1, 3, 9, 0, 8, 5, 2, 6]</t>
+          <t>[0, 7, 9, 6, 3, 1, 4, 8, 5, 2]</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>946</v>
+        <v>1000</v>
       </c>
       <c r="F62" t="n">
-        <v>0.02892303466796875</v>
+        <v>0.02992010116577148</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[16, 18, 18, 26, 36, 28, 26, 20, 16, 16, 16, 18, 16, 16, 16, 18, 14, 18, 20, 20, 18, 20, 24, 24, 22, 22, 20, 18, 16, 18, 18, 22, 28, 28, 26, 26, 20, 16, 16, 16, 14, 18, 22, 20, 14, 14, 14, 14, 14, 14, 14, 14, 14, 18, 20, 20, 22, 22, 22, 16, 20, 20, 18, 18, 18, 18, 18, 18, 18, 12, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[28, 26, 34, 30, 20, 22, 28, 30, 32, 30, 32, 30, 26, 22, 16, 22, 20, 24, 24, 18, 24, 26, 26, 28, 18, 22, 20, 20, 22, 20, 26, 24, 26, 22, 22, 18, 14, 18, 16, 12, 12, 18, 18, 14, 16, 20, 24, 24, 22, 22, 22, 22, 22, 20, 20, 20, 22, 22, 22, 20, 20, 20, 24, 26, 18, 18, 16, 16, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[8, 3, 1, 0, 7, 8, 4, 4, 2, 2]</t>
+          <t>[1, 6, 4, 5, 1, 7, 3, 3, 7, 5]</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2250,28 +2250,28 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[6, 8, 3, 1, 4, 7, 9, 0, 2, 5]</t>
+          <t>[6, 3, 0, 7, 9, 2, 5, 8, 1, 3]</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>353</v>
+        <v>1000</v>
       </c>
       <c r="F63" t="n">
-        <v>0.009973764419555664</v>
+        <v>0.02992057800292969</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[20, 20, 22, 30, 26, 30, 30, 26, 30, 30, 24, 16, 24, 20, 18, 20, 14, 14, 18, 16, 12, 10, 8, 10, 10, 10, 12, 12, 16, 14, 16, 16, 12, 10, 14, 12, 16, 16, 16, 16, 16, 14, 18, 18, 20, 18, 18, 18, 22, 26, 26, 18, 16, 14, 12, 12, 12, 14, 12, 12, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[18, 20, 22, 20, 22, 20, 20, 14, 22, 24, 18, 16, 16, 22, 24, 16, 24, 20, 16, 16, 20, 18, 18, 14, 12, 16, 18, 16, 14, 14, 12, 18, 22, 18, 24, 26, 22, 20, 22, 24, 30, 26, 26, 30, 30, 32, 32, 28, 28, 22, 24, 24, 22, 26, 18, 16, 18, 18, 18, 18, 18, 18, 14, 16, 16, 16, 16, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>[6, 5, 9, 6, 1, 8, 5, 4, 2, 4]</t>
+          <t>[1, 2, 6, 1, 8, 4, 0, 1, 9, 6]</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2279,28 +2279,28 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[2, 6, 1, 7, 0, 3, 9, 4, 8, 5]</t>
+          <t>[6, 2, 7, 5, 1, 9, 4, 0, 8, 3]</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1000</v>
+        <v>934</v>
       </c>
       <c r="F64" t="n">
-        <v>0.02991986274719238</v>
+        <v>0.02792453765869141</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[20, 18, 18, 14, 22, 16, 18, 20, 24, 20, 22, 20, 20, 16, 18, 18, 20, 18, 18, 18, 20, 18, 20, 18, 24, 24, 28, 24, 24, 26, 24, 22, 26, 24, 18, 20, 16, 16, 16, 16, 16, 16, 18, 22, 20, 20, 18, 16, 18, 16, 16, 20, 20, 18, 20, 24, 24, 24, 24, 24, 24, 22, 22, 24, 20, 20, 20, 20, 20, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[20, 16, 22, 26, 24, 26, 28, 22, 20, 22, 14, 14, 16, 18, 18, 16, 18, 18, 22, 20, 16, 14, 18, 16, 12, 12, 12, 10, 14, 18, 20, 18, 22, 22, 20, 16, 18, 16, 16, 14, 14, 18, 16, 18, 18, 20, 18, 18, 18, 18, 16, 20, 16, 16, 16, 16, 16, 16, 14, 16, 18, 16, 16, 14, 14, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[1, 9, 8, 5, 2, 8, 9, 3, 0, 8]</t>
+          <t>[7, 1, 6, 3, 0, 1, 0, 8, 5, 7]</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2308,28 +2308,28 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[9, 6, 2, 5, 7, 9, 0, 8, 4, 1]</t>
+          <t>[4, 8, 1, 9, 6, 3, 0, 7, 5, 2]</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1000</v>
+        <v>272</v>
       </c>
       <c r="F65" t="n">
-        <v>0.02991938591003418</v>
+        <v>0.008976221084594727</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[18, 18, 20, 26, 20, 22, 24, 26, 30, 28, 34, 30, 26, 26, 28, 22, 20, 20, 24, 26, 22, 20, 14, 20, 22, 20, 22, 26, 20, 20, 22, 22, 18, 18, 16, 16, 14, 16, 18, 20, 18, 26, 24, 20, 16, 10, 10, 10, 14, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[16, 12, 10, 16, 18, 22, 18, 16, 22, 26, 22, 20, 22, 18, 18, 16, 12, 14, 12, 12, 16, 18, 22, 24, 26, 26, 22, 24, 28, 26, 24, 18, 16, 16, 14, 16, 16, 20, 18, 14, 10, 8, 10, 10, 10, 12, 12, 14, 10, 10, 10, 10, 12, 10, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[6, 7, 2, 9, 0, 3, 8, 5, 8, 8]</t>
+          <t>[7, 5, 9, 6, 6, 5, 1, 9, 4, 3]</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[4, 9, 4, 2, 5, 8, 1, 7, 0, 6]</t>
+          <t>[5, 3, 6, 9, 2, 8, 1, 7, 4, 0]</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2347,18 +2347,18 @@
         <v>1000</v>
       </c>
       <c r="F66" t="n">
-        <v>0.02992010116577148</v>
+        <v>0.02991986274719238</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[22, 18, 20, 16, 14, 16, 14, 16, 14, 16, 16, 12, 10, 14, 14, 12, 14, 12, 14, 14, 16, 14, 20, 22, 18, 26, 20, 22, 20, 22, 22, 16, 16, 22, 24, 20, 22, 22, 24, 20, 26, 24, 26, 38, 34, 26, 24, 22, 22, 22, 22, 22, 22, 16, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[16, 22, 26, 26, 30, 32, 30, 34, 26, 22, 24, 32, 36, 30, 28, 24, 28, 30, 26, 34, 24, 22, 24, 28, 32, 24, 24, 18, 22, 22, 22, 18, 18, 16, 18, 20, 18, 22, 20, 24, 16, 16, 22, 26, 22, 22, 22, 24, 24, 26, 18, 18, 22, 18, 14, 12, 12, 12, 12, 12, 12, 12, 12, 14, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[1, 7, 4, 7, 2, 2, 8, 4, 3, 5]</t>
+          <t>[5, 8, 9, 6, 6, 2, 8, 7, 2, 1]</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2366,28 +2366,28 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[1, 8, 5, 0, 4, 9, 2, 6, 3, 7]</t>
+          <t>[8, 1, 7, 0, 3, 6, 9, 5, 2, 4]</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1000</v>
+        <v>577</v>
       </c>
       <c r="F67" t="n">
-        <v>0.02892255783081055</v>
+        <v>0.01695489883422852</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[16, 16, 16, 18, 20, 24, 24, 22, 16, 20, 20, 18, 20, 18, 16, 16, 18, 16, 16, 18, 16, 14, 8, 8, 8, 8, 8, 8, 10, 12, 14, 12, 16, 14, 16, 14, 12, 18, 16, 18, 22, 22, 26, 26, 26, 26, 26, 28, 24, 26, 26, 24, 22, 26, 24, 26, 26, 28, 20, 22, 22, 22, 20, 20, 18, 16, 18, 18, 18, 18, 14, 14, 12, 12, 12, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[20, 20, 20, 16, 14, 16, 16, 18, 16, 18, 14, 18, 14, 12, 10, 10, 16, 20, 10, 14, 16, 14, 6, 8, 10, 10, 10, 16, 20, 20, 18, 22, 18, 18, 26, 22, 18, 14, 14, 12, 16, 16, 12, 10, 14, 14, 14, 14, 14, 16, 20, 20, 22, 14, 14, 14, 16, 16, 16, 16, 14, 16, 16, 14, 14, 14, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[7, 8, 6, 6, 3, 9, 2, 0, 9, 1]</t>
+          <t>[4, 2, 3, 8, 8, 1, 1, 9, 1, 1]</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2395,28 +2395,28 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[3, 7, 4, 2, 0, 9, 6, 8, 5, 1]</t>
+          <t>[9, 5, 3, 1, 9, 7, 2, 0, 8, 6]</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>138</v>
+        <v>1000</v>
       </c>
       <c r="F68" t="n">
-        <v>0.003989696502685547</v>
+        <v>0.03490662574768066</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[18, 20, 26, 24, 28, 24, 22, 14, 16, 20, 20, 20, 20, 20, 20, 14, 18, 16, 14, 14, 22, 14, 16, 20, 22, 30, 28, 26, 22, 22, 24, 18, 20, 20, 22, 18, 14, 20, 18, 22, 18, 20, 18, 10, 10, 14, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 0]</t>
+          <t>[18, 18, 20, 18, 14, 18, 18, 20, 22, 22, 20, 20, 22, 24, 28, 30, 28, 28, 30, 22, 24, 24, 22, 16, 18, 18, 16, 14, 18, 20, 20, 22, 26, 32, 30, 26, 26, 24, 22, 20, 20, 16, 20, 20, 18, 18, 16, 18, 12, 14, 14, 12, 14, 16, 14, 14, 16, 20, 20, 24, 24, 20, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[0, 2, 8, 3, 1, 1, 5, 3, 8, 4]</t>
+          <t>[5, 1, 9, 5, 7, 9, 0, 2, 6, 4]</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2424,28 +2424,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[1, 4, 2, 7, 9, 3, 8, 0, 4, 6]</t>
+          <t>[3, 8, 6, 4, 1, 5, 0, 9, 7, 2]</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1000</v>
+        <v>346</v>
       </c>
       <c r="F69" t="n">
-        <v>0.02892279624938965</v>
+        <v>0.009973287582397461</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[18, 22, 20, 24, 20, 20, 18, 20, 20, 20, 22, 26, 28, 26, 20, 26, 24, 24, 24, 22, 22, 22, 22, 22, 18, 16, 12, 10, 14, 14, 14, 20, 24, 26, 22, 24, 20, 22, 24, 20, 24, 28, 26, 24, 28, 26, 24, 26, 26, 28, 28, 32, 32, 28, 28, 26, 22, 20, 22, 22, 22, 22, 22, 18, 16, 16, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[10, 12, 16, 14, 16, 16, 12, 12, 16, 20, 28, 24, 28, 26, 24, 26, 22, 22, 26, 22, 22, 26, 24, 12, 14, 18, 18, 18, 14, 12, 16, 14, 16, 20, 20, 20, 20, 28, 26, 26, 28, 22, 22, 22, 22, 20, 20, 24, 26, 22, 22, 20, 22, 20, 20, 20, 18, 10, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[0, 7, 5, 9, 6, 5, 1, 7, 1, 9]</t>
+          <t>[3, 4, 0, 9, 1, 7, 2, 0, 4, 4]</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[7, 1, 3, 0, 8, 3, 5, 9, 2, 4]</t>
+          <t>[4, 6, 8, 3, 1, 7, 9, 5, 0, 2]</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2463,18 +2463,18 @@
         <v>1000</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02992105484008789</v>
+        <v>0.03091716766357422</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[26, 26, 22, 24, 20, 20, 22, 24, 22, 24, 30, 22, 20, 16, 18, 16, 10, 12, 12, 16, 18, 14, 14, 20, 16, 16, 16, 20, 24, 22, 20, 18, 10, 14, 14, 20, 20, 28, 26, 28, 20, 20, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 16, 18, 18, 14, 14, 14, 16, 16, 16, 16, 12, 8, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[20, 22, 20, 20, 18, 22, 22, 18, 20, 22, 18, 20, 16, 14, 16, 22, 24, 26, 26, 22, 16, 14, 16, 14, 14, 18, 20, 18, 22, 32, 36, 28, 26, 32, 42, 32, 30, 30, 24, 24, 26, 26, 22, 24, 24, 28, 28, 30, 30, 18, 20, 20, 20, 20, 22, 22, 22, 24, 22, 22, 20, 22, 18, 18, 18, 16, 16, 16, 18, 18, 12, 12, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[9, 5, 7, 7, 5, 4, 8, 7, 9, 6]</t>
+          <t>[3, 5, 1, 7, 8, 1, 4, 4, 6, 8]</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2482,28 +2482,28 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[9, 6, 3, 0, 7, 1, 8, 5, 2, 4]</t>
+          <t>[4, 7, 0, 6, 9, 2, 8, 8, 3, 1]</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="F71" t="n">
-        <v>0.006980180740356445</v>
+        <v>0.02992010116577148</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[28, 18, 24, 22, 24, 24, 26, 24, 20, 22, 20, 18, 18, 18, 22, 20, 20, 20, 24, 22, 24, 28, 28, 32, 32, 28, 20, 26, 18, 16, 14, 14, 20, 24, 20, 20, 20, 20, 18, 18, 16, 18, 18, 18, 18, 18, 14, 18, 20, 20, 30, 26, 24, 18, 18, 18, 18, 18, 16, 16, 16, 12, 12, 10, 12, 12, 12, 12, 12, 10, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[22, 20, 24, 26, 24, 20, 14, 20, 22, 26, 20, 18, 22, 22, 26, 26, 20, 20, 22, 28, 22, 18, 16, 12, 14, 16, 14, 20, 20, 16, 16, 16, 18, 16, 16, 12, 12, 14, 12, 14, 14, 10, 12, 16, 18, 18, 18, 14, 10, 8, 8, 12, 12, 16, 16, 10, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[1, 0, 9, 7, 7, 7, 6, 6, 3, 5]</t>
+          <t>[1, 2, 9, 4, 2, 5, 6, 9, 8, 3]</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2511,28 +2511,28 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[6, 4, 2, 8, 5, 9, 1, 3, 0, 7]</t>
+          <t>[4, 0, 5, 9, 6, 1, 7, 2, 8, 3]</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>929</v>
+        <v>1000</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02792549133300781</v>
+        <v>0.03091835975646973</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[20, 18, 16, 18, 18, 16, 14, 16, 18, 16, 16, 16, 20, 24, 30, 26, 26, 28, 22, 22, 26, 24, 26, 28, 32, 30, 32, 34, 34, 34, 26, 24, 34, 34, 34, 30, 20, 18, 16, 18, 14, 10, 10, 10, 10, 10, 10, 14, 16, 16, 18, 18, 20, 24, 22, 18, 12, 12, 14, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[20, 22, 22, 26, 24, 22, 30, 32, 34, 30, 28, 36, 28, 26, 24, 24, 26, 22, 20, 14, 14, 20, 24, 30, 24, 24, 20, 18, 26, 32, 34, 28, 16, 16, 12, 14, 14, 12, 14, 14, 14, 14, 14, 14, 18, 18, 12, 10, 18, 18, 14, 12, 16, 14, 14, 14, 14, 14, 14, 14, 10, 10, 10, 6, 6, 8, 8, 8, 8, 8, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[0, 4, 9, 6, 9, 7, 6, 6, 3, 5]</t>
+          <t>[2, 0, 5, 9, 0, 3, 7, 9, 6, 1]</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[5, 7, 4, 0, 2, 6, 9, 3, 1, 8]</t>
+          <t>[6, 8, 0, 4, 1, 7, 2, 6, 3, 9]</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2550,18 +2550,18 @@
         <v>1000</v>
       </c>
       <c r="F73" t="n">
-        <v>0.04288578033447266</v>
+        <v>0.02991890907287598</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[18, 22, 18, 18, 22, 32, 22, 20, 22, 26, 18, 20, 24, 20, 22, 24, 24, 28, 24, 26, 18, 26, 20, 22, 20, 24, 22, 26, 34, 38, 34, 40, 44, 32, 28, 22, 18, 16, 12, 10, 12, 14, 10, 12, 10, 16, 18, 18, 16, 20, 16, 16, 12, 10, 12, 16, 14, 14, 12, 16, 16, 16, 16, 16, 18, 18, 14, 14, 12, 12, 10, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[8, 10, 10, 16, 16, 16, 12, 12, 12, 16, 16, 20, 18, 16, 18, 18, 18, 18, 20, 22, 22, 24, 24, 22, 22, 20, 20, 18, 16, 16, 18, 18, 22, 24, 24, 22, 32, 28, 32, 32, 26, 26, 22, 20, 20, 20, 18, 14, 14, 14, 12, 14, 14, 10, 14, 14, 12, 12, 12, 12, 12, 12, 12, 14, 14, 14, 14, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>[1, 3, 3, 7, 4, 8, 3, 2, 9, 2]</t>
+          <t>[7, 0, 3, 7, 5, 9, 9, 0, 2, 6]</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2569,28 +2569,28 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[8, 5, 2, 4, 1, 7, 9, 3, 6, 0]</t>
+          <t>[0, 4, 7, 1, 6, 9, 2, 8, 5, 3]</t>
         </is>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>852</v>
+        <v>448</v>
       </c>
       <c r="F74" t="n">
-        <v>0.03490614891052246</v>
+        <v>0.01396369934082031</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[16, 24, 22, 24, 24, 24, 24, 18, 18, 24, 24, 20, 20, 18, 14, 14, 20, 16, 14, 20, 22, 14, 16, 18, 20, 16, 16, 20, 20, 28, 20, 20, 18, 12, 10, 12, 12, 10, 10, 16, 16, 14, 12, 12, 12, 12, 12, 12, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 20, 18, 22, 20, 20, 20, 20, 22, 18, 26, 16, 18, 16, 14, 12, 16, 16, 16, 14, 8, 12, 16, 16, 16, 16, 12, 12, 16, 18, 14, 10, 10, 14, 16, 18, 16, 16, 18, 16, 18, 20, 18, 20, 18, 14, 20, 28, 30, 28, 34, 34, 26, 20, 16, 14, 18, 14, 14, 14, 12, 14, 16, 14, 14, 14, 14, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>[8, 0, 0, 4, 5, 2, 2, 7, 0, 8]</t>
+          <t>[8, 6, 4, 7, 3, 4, 8, 3, 1, 7]</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2598,28 +2598,28 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[0, 6, 8, 1, 7, 4, 2, 9, 5, 3]</t>
+          <t>[5, 7, 1, 4, 2, 8, 6, 9, 3, 0]</t>
         </is>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>677</v>
+        <v>563</v>
       </c>
       <c r="F75" t="n">
-        <v>0.02094483375549316</v>
+        <v>0.01695442199707031</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[22, 18, 18, 24, 22, 24, 22, 22, 20, 18, 12, 14, 14, 12, 18, 12, 14, 20, 16, 14, 20, 26, 26, 18, 20, 20, 26, 22, 18, 18, 20, 22, 20, 20, 26, 28, 24, 20, 18, 20, 18, 18, 14, 14, 14, 12, 16, 18, 20, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[18, 14, 12, 14, 14, 12, 14, 18, 22, 24, 18, 24, 18, 14, 12, 10, 10, 16, 12, 16, 20, 16, 20, 24, 26, 26, 28, 24, 22, 24, 20, 22, 28, 28, 26, 22, 16, 14, 16, 16, 14, 14, 20, 16, 14, 16, 16, 16, 20, 16, 16, 14, 14, 14, 14, 14, 14, 12, 12, 12, 14, 14, 14, 12, 12, 12, 12, 12, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[0, 9, 3, 4, 4, 0, 6, 9, 8, 4]</t>
+          <t>[3, 4, 0, 3, 5, 8, 9, 9, 0, 8]</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2627,28 +2627,28 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[8, 6, 2, 7, 1, 4, 0, 9, 3, 5]</t>
+          <t>[9, 2, 8, 3, 0, 7, 5, 1, 6, 4]</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="F76" t="n">
-        <v>0.01894950866699219</v>
+        <v>0.0139617919921875</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[30, 24, 22, 22, 24, 26, 32, 26, 22, 24, 22, 18, 12, 10, 12, 14, 16, 16, 22, 24, 20, 20, 20, 18, 18, 20, 18, 18, 22, 20, 18, 18, 22, 22, 18, 24, 18, 18, 20, 22, 22, 22, 20, 20, 16, 10, 10, 12, 12, 12, 12, 12, 16, 12, 12, 16, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[20, 18, 18, 20, 16, 16, 14, 16, 16, 20, 18, 18, 18, 22, 18, 14, 12, 18, 18, 22, 24, 20, 14, 16, 14, 16, 14, 14, 16, 16, 14, 16, 20, 18, 18, 20, 16, 16, 14, 12, 14, 14, 14, 14, 20, 16, 16, 22, 24, 24, 22, 16, 16, 10, 10, 8, 8, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 3, 8, 0, 5, 9, 1, 4]</t>
+          <t>[5, 8, 8, 1, 7, 2, 9, 0, 2, 7]</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[7, 2, 0, 5, 9, 4, 0, 3, 8, 6]</t>
+          <t>[2, 6, 3, 7, 0, 8, 0, 5, 1, 9]</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2666,18 +2666,18 @@
         <v>1000</v>
       </c>
       <c r="F77" t="n">
-        <v>0.05186057090759277</v>
+        <v>0.02992010116577148</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[14, 12, 14, 14, 18, 18, 20, 26, 26, 24, 26, 26, 32, 28, 24, 24, 20, 22, 22, 28, 30, 26, 26, 20, 18, 12, 12, 16, 16, 16, 18, 16, 18, 18, 26, 20, 16, 16, 14, 14, 18, 18, 20, 18, 18, 16, 20, 22, 22, 24, 22, 22, 24, 24, 18, 16, 16, 16, 14, 16, 16, 14, 14, 14, 14, 14, 12, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[14, 12, 14, 14, 14, 18, 12, 12, 12, 14, 18, 12, 16, 22, 20, 18, 18, 16, 14, 12, 18, 18, 20, 26, 26, 22, 16, 16, 18, 16, 16, 14, 18, 18, 20, 22, 34, 26, 14, 20, 20, 16, 16, 24, 26, 20, 28, 26, 24, 20, 14, 18, 10, 8, 12, 12, 12, 12, 12, 12, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[8, 3, 0, 3, 3, 9, 0, 5, 6, 5]</t>
+          <t>[8, 4, 4, 5, 9, 4, 4, 4, 4, 5]</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2685,28 +2685,28 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[3, 7, 4, 8, 0, 9, 1, 5, 2, 6]</t>
+          <t>[6, 1, 4, 7, 3, 8, 2, 5, 9, 0]</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>334</v>
+        <v>1000</v>
       </c>
       <c r="F78" t="n">
-        <v>0.008975744247436523</v>
+        <v>0.02991986274719238</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[24, 26, 24, 30, 30, 26, 20, 20, 16, 14, 20, 22, 22, 18, 18, 14, 18, 18, 16, 18, 12, 10, 10, 12, 12, 16, 12, 12, 14, 14, 18, 20, 26, 20, 24, 26, 28, 30, 30, 26, 30, 30, 22, 20, 16, 18, 14, 10, 10, 10, 8, 8, 14, 14, 18, 18, 18, 14, 14, 16, 14, 12, 12, 10, 10, 10, 14, 14, 14, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[38, 36, 38, 36, 38, 36, 28, 28, 30, 30, 30, 32, 24, 20, 28, 28, 34, 28, 26, 26, 24, 24, 20, 20, 18, 16, 14, 14, 14, 10, 10, 14, 12, 14, 10, 12, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 16, 14, 14, 20, 22, 22, 22, 22, 22, 24, 24, 28, 28, 24, 24, 18, 18, 14, 14, 14, 14, 14, 14, 14, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>[9, 4, 5, 0, 4, 4, 0, 0, 6, 1]</t>
+          <t>[0, 6, 6, 6, 7, 5, 5, 0, 8, 9]</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[3, 6, 2, 9, 1, 4, 7, 9, 0, 5]</t>
+          <t>[9, 6, 1, 7, 2, 8, 8, 4, 0, 3]</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2724,18 +2724,18 @@
         <v>1000</v>
       </c>
       <c r="F79" t="n">
-        <v>0.02892231941223145</v>
+        <v>0.02992010116577148</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[18, 20, 22, 24, 22, 18, 24, 20, 18, 20, 18, 24, 24, 28, 20, 20, 22, 22, 22, 14, 10, 10, 14, 16, 22, 14, 14, 18, 18, 24, 20, 24, 26, 30, 28, 26, 22, 24, 24, 26, 22, 20, 18, 18, 18, 16, 18, 18, 18, 18, 18, 22, 14, 16, 14, 16, 12, 12, 12, 12, 12, 12, 12, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[28, 22, 20, 24, 26, 22, 22, 22, 22, 22, 24, 22, 22, 18, 14, 20, 20, 22, 16, 16, 14, 16, 22, 28, 26, 26, 22, 20, 18, 12, 16, 20, 16, 14, 10, 10, 16, 20, 20, 20, 18, 24, 20, 20, 22, 16, 20, 20, 18, 18, 18, 16, 14, 14, 14, 14, 16, 14, 12, 12, 12, 12, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[8, 5, 5, 4, 7, 7, 6, 4, 8, 1]</t>
+          <t>[3, 6, 5, 2, 7, 5, 1, 5, 9, 9]</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2743,28 +2743,28 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[4, 6, 1, 9, 7, 3, 0, 2, 8, 5]</t>
+          <t>[9, 3, 5, 0, 4, 1, 8, 6, 2, 7]</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="F80" t="n">
-        <v>0.02393603324890137</v>
+        <v>0.02992057800292969</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[18, 16, 22, 20, 18, 18, 16, 12, 10, 16, 16, 18, 16, 14, 20, 20, 18, 18, 16, 12, 18, 22, 24, 24, 26, 28, 24, 18, 24, 18, 18, 16, 16, 16, 14, 12, 12, 10, 10, 12, 12, 12, 12, 14, 18, 12, 12, 14, 14, 14, 12, 14, 12, 12, 10, 12, 12, 12, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[22, 22, 24, 24, 20, 16, 18, 18, 22, 26, 30, 32, 32, 24, 28, 18, 18, 24, 24, 28, 30, 32, 28, 24, 22, 24, 24, 16, 18, 16, 14, 16, 18, 12, 10, 10, 16, 12, 16, 18, 18, 22, 28, 24, 22, 20, 20, 20, 18, 20, 20, 18, 18, 18, 18, 18, 16, 12, 10, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[9, 7, 4, 3, 5, 4, 2, 7, 3, 8]</t>
+          <t>[8, 9, 7, 5, 0, 1, 8, 1, 0, 2]</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2772,28 +2772,28 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[6, 4, 0, 5, 3, 9, 7, 2, 8, 1]</t>
+          <t>[0, 3, 8, 4, 7, 9, 2, 5, 1, 6]</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>822</v>
+        <v>609</v>
       </c>
       <c r="F81" t="n">
-        <v>0.02393603324890137</v>
+        <v>0.01795172691345215</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[20, 18, 20, 16, 18, 18, 18, 18, 26, 24, 18, 22, 20, 18, 18, 24, 16, 20, 20, 24, 20, 22, 20, 18, 20, 22, 26, 28, 22, 20, 20, 26, 20, 30, 24, 22, 22, 16, 20, 20, 14, 16, 18, 16, 18, 16, 18, 18, 12, 14, 14, 14, 12, 10, 20, 20, 20, 18, 20, 20, 22, 20, 20, 18, 18, 14, 14, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[24, 24, 24, 22, 22, 24, 24, 26, 28, 28, 30, 30, 32, 30, 40, 30, 30, 26, 26, 16, 18, 18, 12, 16, 20, 12, 16, 20, 28, 26, 20, 20, 22, 24, 28, 30, 26, 22, 20, 14, 10, 14, 14, 10, 16, 14, 16, 14, 14, 22, 20, 18, 18, 14, 16, 14, 14, 14, 12, 16, 22, 22, 22, 22, 22, 22, 20, 20, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[3, 4, 0, 8, 2, 9, 2, 6, 0, 4]</t>
+          <t>[5, 3, 5, 3, 6, 8, 0, 5, 4, 9]</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2801,28 +2801,28 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[7, 3, 1, 6, 9, 5, 0, 8, 4, 2]</t>
+          <t>[2, 6, 1, 7, 0, 8, 3, 5, 9, 9]</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
-        <v>372</v>
+        <v>1000</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0109705924987793</v>
+        <v>0.02991962432861328</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[14, 10, 10, 16, 12, 12, 16, 18, 22, 16, 12, 10, 16, 18, 24, 26, 22, 20, 22, 20, 14, 16, 20, 14, 16, 18, 14, 16, 14, 14, 12, 10, 12, 18, 16, 10, 10, 14, 10, 14, 16, 18, 16, 18, 18, 20, 18, 20, 18, 18, 20, 20, 22, 18, 20, 16, 16, 16, 12, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 12, 12, 10, 10, 10, 10, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[18, 18, 20, 20, 16, 14, 16, 20, 20, 20, 16, 18, 14, 14, 16, 18, 16, 18, 18, 22, 22, 24, 16, 14, 10, 12, 12, 8, 14, 14, 18, 22, 22, 20, 18, 16, 14, 18, 24, 24, 32, 28, 28, 26, 28, 28, 30, 20, 16, 14, 14, 14, 14, 16, 16, 16, 14, 14, 16, 16, 16, 12, 12, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[8, 0, 0, 5, 6, 9, 0, 3, 6, 6]</t>
+          <t>[8, 0, 3, 4, 6, 7, 4, 8, 8, 8]</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2830,28 +2830,28 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[5, 7, 2, 6, 3, 9, 0, 8, 4, 1]</t>
+          <t>[9, 7, 3, 0, 8, 5, 1, 9, 6, 2]</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="F83" t="n">
-        <v>0.01296615600585938</v>
+        <v>0.02992010116577148</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[22, 20, 20, 18, 24, 24, 20, 18, 16, 18, 16, 16, 18, 18, 20, 22, 20, 14, 12, 14, 16, 18, 18, 12, 12, 10, 10, 8, 14, 14, 20, 24, 28, 30, 28, 20, 12, 12, 12, 14, 10, 14, 12, 18, 22, 18, 16, 18, 20, 20, 20, 20, 16, 18, 12, 12, 12, 10, 10, 10, 10, 12, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[26, 24, 18, 20, 16, 20, 18, 18, 22, 16, 28, 22, 26, 28, 26, 22, 22, 20, 24, 18, 18, 18, 14, 14, 14, 12, 12, 16, 14, 18, 22, 22, 22, 20, 16, 24, 16, 16, 20, 26, 26, 30, 20, 16, 20, 20, 20, 16, 18, 20, 18, 18, 20, 22, 22, 20, 18, 18, 18, 16, 16, 14, 14, 12, 12, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>[4, 8, 3, 9, 3, 5, 0, 8, 4, 0]</t>
+          <t>[9, 4, 3, 0, 7, 3, 5, 5, 7, 9]</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[7, 5, 1, 8, 0, 3, 7, 9, 2, 6]</t>
+          <t>[0, 9, 3, 6, 2, 7, 5, 1, 8, 4]</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2869,18 +2869,18 @@
         <v>1000</v>
       </c>
       <c r="F84" t="n">
-        <v>0.02991914749145508</v>
+        <v>0.02991986274719238</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[14, 16, 14, 18, 12, 10, 22, 14, 16, 18, 16, 20, 26, 22, 26, 20, 14, 18, 16, 16, 18, 22, 24, 24, 24, 20, 18, 24, 28, 26, 28, 22, 18, 18, 16, 18, 18, 14, 12, 18, 16, 18, 18, 14, 14, 16, 14, 14, 10, 14, 14, 10, 10, 12, 12, 12, 12, 12, 12, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[18, 16, 12, 14, 16, 26, 22, 26, 28, 20, 16, 14, 14, 10, 14, 12, 14, 10, 8, 12, 12, 14, 16, 18, 18, 14, 14, 16, 16, 14, 10, 12, 18, 22, 28, 26, 26, 30, 26, 24, 22, 20, 16, 18, 18, 22, 14, 16, 14, 16, 14, 14, 12, 12, 10, 14, 14, 18, 18, 18, 16, 20, 20, 20, 20, 20, 18, 16, 16, 16, 16, 16, 14, 14, 12, 12, 12, 10, 10, 10, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[9, 6, 3, 4, 0, 5, 1, 5, 7, 6]</t>
+          <t>[3, 4, 7, 5, 6, 0, 7, 2, 5, 0]</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2888,28 +2888,28 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[6, 2, 0, 8, 4, 7, 1, 3, 5, 0]</t>
+          <t>[8, 1, 4, 9, 7, 0, 3, 6, 2, 5]</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1000</v>
+        <v>947</v>
       </c>
       <c r="F85" t="n">
-        <v>0.02992010116577148</v>
+        <v>0.02792525291442871</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[14, 18, 14, 12, 18, 16, 22, 18, 16, 16, 16, 14, 14, 14, 12, 18, 24, 20, 18, 18, 18, 18, 16, 16, 16, 18, 24, 22, 18, 22, 24, 16, 16, 18, 18, 18, 18, 24, 26, 26, 28, 30, 30, 32, 34, 32, 28, 18, 22, 16, 16, 16, 18, 12, 18, 16, 16, 16, 14, 14, 14, 12, 14, 14, 14, 14, 14, 14, 16, 16, 14, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[22, 22, 24, 24, 26, 16, 12, 16, 18, 16, 14, 16, 18, 22, 16, 18, 18, 18, 18, 24, 18, 16, 14, 18, 12, 12, 14, 12, 16, 18, 16, 22, 24, 22, 26, 26, 22, 16, 18, 18, 20, 22, 20, 20, 16, 16, 16, 16, 20, 28, 28, 28, 28, 28, 28, 24, 18, 18, 18, 18, 18, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 16, 12, 12, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>[3, 9, 8, 2, 8, 0, 5, 2, 1, 5]</t>
+          <t>[5, 2, 2, 5, 2, 4, 8, 5, 5, 3]</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2917,28 +2917,28 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[9, 5, 0, 4, 1, 8, 6, 3, 7, 2]</t>
+          <t>[4, 2, 9, 5, 3, 8, 0, 7, 1, 6]</t>
         </is>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001994609832763672</v>
+        <v>0.006981134414672852</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[16, 16, 18, 14, 14, 18, 16, 20, 20, 18, 22, 22, 22, 22, 20, 16, 18, 14, 16, 20, 18, 18, 14, 18, 18, 18, 18, 18, 16, 18, 20, 16, 24, 20, 18, 26, 28, 28, 28, 28, 30, 32, 30, 24, 28, 26, 24, 24, 28, 28, 30, 26, 22, 16, 16, 16, 14, 8, 8, 8, 8, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 0]</t>
+          <t>[24, 22, 22, 18, 22, 24, 20, 24, 22, 16, 18, 20, 18, 20, 18, 16, 16, 18, 16, 16, 14, 18, 14, 14, 14, 14, 18, 14, 16, 16, 18, 16, 14, 20, 20, 20, 26, 24, 30, 24, 28, 32, 28, 30, 28, 22, 20, 20, 20, 18, 18, 14, 12, 12, 8, 10, 12, 14, 14, 14, 16, 16, 14, 14, 14, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 0]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>[2, 9, 2, 9, 9, 5, 6, 3, 6, 0]</t>
+          <t>[6, 5, 7, 3, 2, 3, 7, 1, 3, 1]</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[2, 6, 3, 0, 2, 9, 5, 1, 8, 4]</t>
+          <t>[3, 9, 6, 2, 4, 1, 8, 0, 5, 7]</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2956,18 +2956,18 @@
         <v>1000</v>
       </c>
       <c r="F87" t="n">
-        <v>0.02992010116577148</v>
+        <v>0.02992033958435059</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[24, 22, 18, 16, 14, 16, 18, 16, 18, 16, 20, 22, 20, 20, 22, 22, 24, 20, 24, 26, 26, 24, 18, 18, 14, 18, 18, 14, 18, 20, 16, 22, 20, 16, 14, 14, 10, 8, 10, 10, 10, 14, 16, 16, 16, 18, 18, 18, 14, 16, 14, 14, 18, 18, 16, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[26, 26, 32, 38, 36, 30, 42, 36, 36, 36, 32, 28, 24, 28, 24, 20, 20, 20, 22, 24, 20, 26, 22, 22, 14, 16, 16, 16, 14, 16, 14, 16, 14, 16, 20, 22, 28, 24, 24, 20, 14, 16, 18, 16, 14, 14, 18, 14, 12, 12, 16, 16, 16, 12, 12, 12, 12, 12, 14, 14, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>[8, 4, 5, 6, 3, 2, 9, 9, 4, 0]</t>
+          <t>[2, 3, 5, 1, 6, 1, 3, 6, 6, 9]</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[4, 6, 9, 5, 2, 8, 3, 7, 9, 1]</t>
+          <t>[1, 9, 5, 8, 4, 7, 0, 2, 6, 6]</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2985,18 +2985,18 @@
         <v>1000</v>
       </c>
       <c r="F88" t="n">
-        <v>0.02892255783081055</v>
+        <v>0.02992010116577148</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[24, 18, 22, 26, 26, 22, 22, 20, 24, 24, 22, 28, 30, 26, 30, 32, 24, 22, 18, 22, 22, 20, 20, 18, 14, 16, 16, 16, 16, 16, 22, 20, 18, 22, 24, 20, 26, 34, 26, 18, 16, 14, 12, 14, 10, 14, 14, 16, 14, 16, 14, 12, 8, 10, 10, 10, 10, 10, 10, 10, 10, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[20, 22, 18, 22, 22, 20, 20, 18, 24, 24, 30, 22, 22, 20, 26, 28, 30, 30, 30, 28, 28, 24, 20, 20, 18, 18, 18, 20, 22, 20, 18, 20, 22, 20, 18, 16, 16, 16, 14, 16, 10, 10, 14, 18, 26, 24, 26, 22, 20, 20, 24, 20, 20, 20, 20, 20, 18, 18, 14, 14, 20, 16, 16, 16, 14, 12, 12, 12, 12, 12, 12, 12, 12, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[3, 6, 4, 3, 6, 4, 3, 4, 2, 9]</t>
+          <t>[5, 2, 2, 3, 4, 6, 9, 7, 9, 7]</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3004,28 +3004,28 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[0, 3, 6, 9, 3, 1, 4, 8, 5, 2]</t>
+          <t>[2, 7, 9, 0, 5, 1, 4, 6, 8, 3]</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1000</v>
+        <v>574</v>
       </c>
       <c r="F89" t="n">
-        <v>0.02992033958435059</v>
+        <v>0.01695466041564941</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[26, 22, 22, 24, 22, 28, 28, 24, 30, 22, 22, 22, 22, 22, 20, 22, 22, 20, 18, 18, 22, 18, 14, 20, 26, 36, 36, 30, 26, 24, 22, 20, 26, 26, 26, 26, 18, 14, 16, 24, 26, 28, 28, 28, 30, 32, 32, 34, 22, 22, 16, 16, 14, 14, 20, 20, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 12, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[24, 22, 18, 22, 22, 24, 22, 18, 18, 18, 12, 20, 20, 22, 28, 24, 28, 26, 22, 24, 20, 16, 22, 24, 22, 22, 20, 26, 22, 26, 24, 30, 30, 30, 30, 32, 30, 30, 22, 24, 24, 24, 20, 18, 18, 16, 24, 20, 16, 16, 16, 16, 16, 16, 12, 18, 16, 16, 14, 14, 18, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[9, 9, 5, 1, 2, 8, 2, 0, 1, 7]</t>
+          <t>[6, 4, 8, 5, 0, 0, 4, 9, 8, 0]</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[5, 7, 1, 3, 8, 6, 3, 9, 2, 4]</t>
+          <t>[2, 6, 3, 7, 0, 8, 0, 5, 1, 9]</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3043,18 +3043,18 @@
         <v>1000</v>
       </c>
       <c r="F90" t="n">
-        <v>0.02991962432861328</v>
+        <v>0.02992033958435059</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[20, 16, 18, 18, 16, 18, 24, 26, 26, 22, 16, 14, 16, 14, 12, 18, 18, 16, 14, 12, 12, 12, 14, 14, 16, 18, 10, 10, 10, 14, 16, 16, 20, 18, 14, 14, 10, 10, 10, 10, 12, 16, 20, 26, 26, 18, 14, 18, 20, 16, 20, 20, 20, 18, 20, 20, 14, 12, 16, 18, 18, 16, 16, 16, 16, 16, 14, 14, 14, 14, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[20, 24, 22, 20, 18, 16, 22, 22, 24, 24, 20, 14, 22, 22, 14, 22, 22, 16, 20, 18, 20, 22, 18, 22, 24, 22, 20, 24, 28, 28, 30, 26, 20, 22, 24, 30, 28, 26, 26, 30, 24, 28, 30, 30, 30, 28, 24, 22, 26, 28, 22, 22, 22, 16, 16, 16, 14, 16, 16, 16, 16, 16, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[1, 4, 9, 1, 7, 4, 1, 7, 9, 5]</t>
+          <t>[1, 5, 1, 1, 0, 1, 7, 9, 8, 4]</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3062,28 +3062,28 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[2, 9, 1, 9, 5, 8, 0, 7, 3, 6]</t>
+          <t>[2, 9, 7, 0, 4, 1, 5, 8, 6, 3]</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>1000</v>
+        <v>878</v>
       </c>
       <c r="F91" t="n">
-        <v>0.02991986274719238</v>
+        <v>0.02593040466308594</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[20, 18, 20, 18, 12, 16, 18, 16, 12, 14, 16, 14, 14, 14, 10, 10, 12, 20, 22, 22, 16, 22, 30, 22, 20, 20, 16, 14, 8, 14, 18, 18, 22, 18, 18, 14, 16, 20, 22, 26, 22, 24, 26, 24, 20, 24, 20, 18, 18, 16, 18, 12, 12, 12, 12, 14, 14, 12, 12, 12, 12, 6, 6, 6, 6, 6, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[24, 14, 20, 20, 14, 10, 16, 14, 16, 20, 12, 16, 18, 18, 18, 14, 16, 26, 30, 28, 30, 28, 24, 22, 24, 26, 24, 24, 24, 28, 34, 32, 24, 24, 22, 18, 20, 26, 22, 18, 16, 10, 10, 8, 12, 12, 16, 16, 20, 14, 16, 18, 18, 18, 18, 12, 14, 12, 14, 12, 12, 10, 10, 10, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[6, 11, 1, 1, 10, 11, 10, 8, 8, 4, 2, 0]</t>
+          <t>[8, 11, 6, 8, 4, 1, 8, 10, 7, 0, 2, 5]</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[2, 6, 10, 3, 4, 0, 5, 8, 11, 1, 7, 9]</t>
+          <t>[5, 9, 0, 3, 7, 11, 8, 1, 1, 10, 2, 6]</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -3101,18 +3101,18 @@
         <v>1000</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04188799858093262</v>
+        <v>0.04188776016235352</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[22, 28, 26, 30, 26, 26, 22, 28, 26, 26, 20, 16, 14, 12, 14, 18, 18, 18, 22, 22, 20, 24, 26, 30, 26, 26, 26, 26, 24, 28, 28, 24, 26, 24, 22, 22, 20, 22, 16, 16, 18, 22, 24, 26, 28, 24, 26, 26, 26, 26, 20, 22, 22, 24, 24, 24, 24, 16, 14, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[14, 18, 22, 28, 22, 22, 14, 18, 14, 12, 16, 22, 18, 22, 20, 18, 18, 22, 20, 16, 16, 16, 16, 20, 16, 18, 18, 14, 18, 16, 16, 18, 16, 14, 20, 20, 22, 22, 20, 22, 14, 16, 16, 18, 14, 14, 14, 16, 16, 12, 10, 10, 10, 10, 12, 14, 14, 16, 16, 16, 16, 16, 16, 18, 18, 18, 18, 18, 18, 18, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[0, 2, 5, 10, 10, 8, 1, 0, 1, 11, 10, 6]</t>
+          <t>[3, 11, 9, 0, 6, 10, 10, 10, 8, 7, 2, 11]</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[8, 4, 0, 3, 11, 4, 7, 9, 2, 5, 1, 6]</t>
+          <t>[6, 3, 5, 11, 9, 10, 4, 1, 8, 0, 2, 7]</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -3130,18 +3130,18 @@
         <v>1000</v>
       </c>
       <c r="F93" t="n">
-        <v>0.04188823699951172</v>
+        <v>0.04288530349731445</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[28, 28, 26, 20, 20, 18, 20, 18, 18, 22, 20, 18, 28, 18, 20, 20, 24, 20, 22, 28, 30, 34, 32, 30, 26, 26, 24, 22, 22, 30, 32, 34, 24, 20, 22, 18, 16, 20, 22, 20, 16, 24, 24, 22, 20, 18, 18, 16, 18, 20, 20, 16, 16, 18, 16, 20, 20, 18, 18, 18, 18, 14, 14, 14, 14, 16, 16, 16, 16, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[22, 18, 16, 18, 20, 18, 22, 18, 18, 20, 18, 20, 22, 20, 22, 26, 22, 30, 30, 24, 24, 24, 24, 24, 26, 28, 28, 26, 30, 26, 22, 24, 22, 26, 26, 28, 20, 22, 24, 26, 30, 28, 30, 32, 28, 26, 24, 24, 24, 24, 18, 12, 12, 12, 12, 12, 14, 16, 16, 14, 14, 16, 18, 18, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>[6, 2, 7, 11, 5, 10, 7, 11, 11, 0, 11, 9]</t>
+          <t>[8, 7, 7, 5, 5, 8, 11, 9, 11, 0, 11, 10]</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[3, 9, 4, 10, 8, 0, 5, 1, 6, 2, 7, 11]</t>
+          <t>[5, 11, 2, 0, 10, 8, 0, 3, 1, 7, 9, 6]</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -3159,18 +3159,18 @@
         <v>1000</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04188776016235352</v>
+        <v>0.04288530349731445</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[34, 38, 44, 36, 40, 32, 34, 30, 30, 30, 36, 34, 30, 34, 34, 34, 36, 28, 28, 36, 26, 22, 18, 12, 14, 18, 12, 16, 20, 16, 20, 22, 24, 24, 22, 22, 24, 24, 24, 26, 30, 30, 28, 20, 20, 20, 28, 30, 28, 28, 26, 20, 18, 18, 18, 18, 18, 16, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[34, 30, 28, 24, 22, 24, 26, 22, 22, 26, 30, 32, 30, 26, 24, 24, 26, 32, 30, 30, 36, 34, 30, 32, 28, 26, 26, 26, 28, 32, 32, 30, 24, 24, 30, 28, 22, 20, 22, 20, 16, 18, 24, 26, 30, 20, 14, 16, 16, 16, 20, 12, 12, 12, 16, 18, 18, 16, 16, 22, 22, 22, 22, 22, 22, 22, 18, 18, 18, 18, 18, 18, 16, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>[0, 5, 11, 3, 4, 3, 11, 4, 5, 7, 8, 10]</t>
+          <t>[8, 5, 10, 9, 1, 3, 10, 7, 8, 3, 0, 10]</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[0, 2, 8, 5, 3, 10, 6, 11, 1, 4, 7, 9]</t>
+          <t>[4, 7, 0, 6, 11, 2, 8, 5, 9, 1, 3, 10]</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -3188,18 +3188,18 @@
         <v>1000</v>
       </c>
       <c r="F95" t="n">
-        <v>0.05983996391296387</v>
+        <v>0.04288530349731445</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[28, 24, 26, 20, 22, 18, 18, 22, 20, 18, 18, 22, 18, 22, 24, 28, 28, 22, 20, 18, 18, 16, 16, 16, 20, 26, 30, 24, 20, 20, 22, 18, 22, 18, 20, 16, 20, 20, 16, 22, 20, 20, 24, 18, 22, 22, 22, 18, 20, 22, 22, 16, 12, 12, 12, 12, 12, 12, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[26, 36, 38, 42, 36, 36, 30, 28, 30, 28, 28, 30, 24, 22, 24, 26, 28, 28, 28, 24, 24, 26, 26, 30, 30, 22, 28, 24, 22, 22, 22, 20, 24, 24, 20, 26, 26, 22, 22, 24, 26, 20, 24, 20, 18, 18, 22, 22, 20, 20, 20, 20, 20, 18, 18, 18, 18, 16, 18, 18, 18, 12, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>[9, 0, 5, 0, 7, 4, 8, 3, 4, 3, 3, 6]</t>
+          <t>[8, 0, 4, 11, 9, 6, 10, 1, 9, 10, 5, 2]</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3207,28 +3207,28 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[3, 10, 6, 2, 9, 11, 0, 7, 4, 1, 5, 8]</t>
+          <t>[9, 2, 0, 5, 10, 8, 1, 4, 7, 3, 6, 11]</t>
         </is>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>599</v>
+        <v>568</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02593088150024414</v>
+        <v>0.02393627166748047</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[20, 20, 14, 16, 22, 18, 22, 22, 28, 24, 26, 26, 24, 24, 30, 26, 30, 34, 40, 34, 34, 30, 34, 26, 20, 24, 24, 22, 20, 20, 22, 24, 30, 32, 30, 26, 26, 22, 22, 26, 28, 26, 22, 16, 16, 10, 14, 12, 12, 12, 12, 12, 12, 12, 12, 14, 14, 14, 14, 14, 14, 14, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 18, 16, 16, 14, 16, 16, 16, 12, 18, 20, 20, 18, 22, 20, 20, 24, 24, 24, 28, 28, 38, 40, 40, 32, 30, 34, 34, 30, 32, 38, 38, 36, 34, 32, 34, 32, 32, 28, 32, 26, 26, 26, 26, 30, 26, 22, 22, 24, 20, 18, 16, 20, 20, 20, 20, 20, 22, 18, 18, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 10, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>[8, 7, 9, 8, 6, 1, 2, 10, 3, 10, 2, 11]</t>
+          <t>[7, 4, 5, 4, 7, 8, 0, 9, 0, 3, 8, 10]</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3236,28 +3236,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[0, 5, 9, 6, 3, 11, 8, 1, 4, 10, 7, 2]</t>
+          <t>[9, 2, 6, 11, 7, 10, 0, 3, 8, 4, 7, 1]</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05285859107971191</v>
+        <v>0.04288506507873535</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[20, 22, 20, 16, 16, 16, 18, 16, 18, 24, 22, 24, 24, 26, 28, 32, 24, 18, 12, 12, 16, 22, 20, 26, 22, 20, 24, 24, 20, 20, 22, 18, 14, 18, 18, 18, 20, 20, 24, 26, 28, 26, 26, 28, 28, 26, 26, 30, 32, 30, 26, 26, 26, 20, 16, 16, 14, 10, 10, 10, 10, 10, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[28, 30, 34, 28, 32, 26, 30, 36, 26, 24, 22, 24, 20, 18, 22, 24, 24, 22, 18, 18, 16, 18, 18, 18, 14, 12, 18, 26, 24, 22, 26, 20, 18, 20, 20, 18, 16, 18, 18, 16, 16, 14, 14, 18, 22, 24, 24, 22, 22, 22, 22, 22, 22, 22, 22, 22, 20, 20, 26, 24, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>[6, 8, 11, 9, 8, 0, 10, 3, 9, 6, 2, 10]</t>
+          <t>[9, 3, 10, 6, 5, 6, 5, 8, 11, 3, 9, 6]</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[5, 3, 10, 0, 7, 4, 1, 8, 6, 9, 11, 2]</t>
+          <t>[11, 3, 7, 9, 4, 1, 10, 0, 2, 6, 8, 3]</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -3275,18 +3275,18 @@
         <v>1000</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04188799858093262</v>
+        <v>0.04288530349731445</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[18, 24, 22, 24, 18, 20, 24, 16, 18, 14, 18, 16, 16, 14, 20, 16, 20, 20, 16, 18, 20, 16, 18, 18, 14, 16, 16, 20, 18, 18, 24, 26, 24, 26, 30, 28, 24, 30, 32, 30, 30, 30, 28, 26, 26, 28, 22, 24, 24, 20, 20, 22, 20, 20, 20, 20, 18, 22, 18, 18, 18, 18, 22, 20, 16, 14, 14, 12, 12, 12, 10, 10, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[34, 36, 32, 30, 30, 24, 22, 24, 22, 18, 24, 24, 24, 22, 24, 22, 22, 22, 16, 18, 20, 20, 18, 22, 20, 16, 18, 14, 16, 16, 22, 16, 20, 16, 18, 16, 18, 14, 18, 18, 20, 18, 20, 18, 20, 20, 16, 22, 22, 22, 22, 22, 22, 20, 18, 14, 14, 14, 16, 16, 16, 16, 16, 16, 16, 16, 20, 22, 22, 20, 20, 20, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>[2, 8, 3, 1, 0, 10, 11, 7, 7, 4, 6, 11]</t>
+          <t>[8, 8, 7, 3, 5, 0, 0, 4, 10, 6, 11, 0]</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[7, 4, 10, 0, 5, 1, 11, 11, 8, 2, 9, 3]</t>
+          <t>[4, 0, 7, 3, 6, 11, 2, 10, 5, 3, 1, 9]</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -3304,18 +3304,18 @@
         <v>1000</v>
       </c>
       <c r="F99" t="n">
-        <v>0.04188799858093262</v>
+        <v>0.04288649559020996</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[14, 14, 14, 16, 16, 20, 22, 22, 20, 14, 18, 16, 18, 18, 26, 24, 28, 28, 30, 38, 38, 34, 38, 30, 26, 20, 22, 30, 24, 20, 28, 36, 26, 26, 26, 30, 32, 30, 36, 34, 30, 32, 36, 40, 34, 40, 38, 36, 32, 26, 26, 26, 24, 26, 26, 22, 22, 28, 22, 24, 16, 14, 14, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[22, 28, 26, 24, 22, 18, 22, 18, 16, 14, 14, 16, 20, 20, 20, 16, 16, 14, 18, 20, 20, 18, 18, 20, 26, 28, 26, 32, 30, 30, 28, 24, 24, 24, 14, 18, 18, 28, 24, 26, 24, 26, 22, 24, 24, 16, 16, 16, 16, 14, 16, 16, 14, 14, 14, 14, 18, 18, 18, 18, 18, 16, 10, 10, 10, 10, 10, 10, 10, 10, 10, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>[11, 3, 0, 6, 9, 2, 11, 1, 9, 5, 10, 10]</t>
+          <t>[8, 8, 1, 6, 1, 2, 7, 3, 10, 9, 11, 6]</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3323,28 +3323,28 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[6, 4, 0, 8, 11, 5, 2, 9, 1, 10, 7, 3]</t>
+          <t>[3, 7, 0, 4, 11, 9, 6, 2, 10, 8, 1, 5]</t>
         </is>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>841</v>
+        <v>655</v>
       </c>
       <c r="F100" t="n">
-        <v>0.03490662574768066</v>
+        <v>0.0279242992401123</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[10, 12, 18, 18, 18, 18, 12, 8, 10, 12, 12, 12, 12, 12, 10, 12, 10, 10, 10, 10, 18, 24, 28, 30, 30, 26, 30, 28, 32, 32, 36, 30, 36, 36, 26, 24, 20, 30, 24, 18, 24, 30, 34, 28, 26, 28, 34, 30, 30, 30, 32, 20, 22, 16, 18, 12, 16, 16, 16, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 14, 14, 12, 12, 12, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[14, 14, 16, 16, 14, 16, 18, 18, 18, 20, 16, 20, 22, 18, 16, 20, 18, 20, 20, 12, 12, 16, 20, 18, 20, 18, 18, 20, 20, 20, 24, 22, 16, 16, 16, 18, 22, 20, 24, 22, 22, 24, 26, 24, 24, 28, 26, 28, 26, 26, 26, 24, 20, 20, 26, 24, 24, 24, 26, 26, 26, 26, 24, 24, 24, 24, 24, 24, 20, 20, 20, 20, 18, 18, 20, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[4, 8, 0, 5, 0, 4, 3, 8, 10, 10, 10, 3]</t>
+          <t>[5, 7, 10, 9, 9, 8, 6, 3, 11, 4, 10, 9]</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3352,28 +3352,28 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[5, 10, 2, 4, 11, 8, 0, 3, 1, 7, 9, 6]</t>
+          <t>[2, 11, 6, 3, 10, 10, 7, 4, 1, 8, 0, 9]</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>278</v>
+        <v>1000</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0109703540802002</v>
+        <v>0.04288530349731445</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[26, 28, 36, 34, 36, 32, 34, 30, 28, 26, 32, 34, 28, 22, 24, 18, 20, 16, 24, 28, 24, 26, 32, 34, 32, 30, 22, 20, 18, 18, 16, 18, 16, 16, 22, 22, 20, 22, 26, 30, 30, 28, 24, 24, 26, 24, 24, 24, 22, 22, 20, 22, 24, 24, 24, 24, 28, 26, 26, 24, 22, 16, 16, 16, 16, 16, 18, 18, 18, 18, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[30, 36, 38, 38, 38, 44, 44, 44, 40, 44, 36, 44, 38, 34, 38, 28, 30, 28, 34, 34, 30, 30, 30, 24, 24, 32, 36, 34, 32, 24, 30, 36, 40, 34, 34, 30, 24, 26, 22, 18, 18, 16, 14, 10, 10, 12, 14, 14, 16, 18, 16, 16, 16, 16, 16, 16, 20, 18, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>[7, 5, 9, 0, 4, 6, 0, 3, 11, 9, 8, 2]</t>
+          <t>[5, 3, 7, 7, 4, 9, 3, 7, 3, 4, 0, 5]</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -3381,28 +3381,28 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[4, 4, 7, 3, 10, 2, 2, 6, 9, 11, 5, 0]</t>
+          <t>[3, 9, 6, 10, 0, 2, 5, 8, 1, 7, 4, 11]</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1000</v>
+        <v>749</v>
       </c>
       <c r="F102" t="n">
-        <v>0.04188823699951172</v>
+        <v>0.03191471099853516</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[14, 12, 12, 16, 16, 18, 18, 18, 18, 18, 24, 20, 20, 20, 20, 22, 20, 16, 16, 14, 14, 14, 16, 20, 20, 16, 14, 18, 16, 24, 24, 26, 26, 30, 28, 24, 22, 24, 24, 24, 26, 28, 30, 28, 30, 36, 36, 26, 22, 24, 26, 26, 26, 22, 18, 18, 20, 22, 22, 22, 22, 22, 20, 20, 20, 20, 20, 22, 22, 24, 24, 22, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+          <t>[30, 28, 30, 32, 32, 36, 36, 32, 28, 26, 22, 18, 20, 14, 18, 14, 18, 18, 20, 20, 20, 22, 26, 28, 28, 22, 24, 24, 24, 20, 16, 12, 14, 18, 20, 16, 20, 18, 10, 12, 18, 18, 24, 22, 24, 22, 24, 24, 30, 34, 38, 40, 34, 34, 34, 32, 32, 30, 24, 24, 24, 20, 18, 18, 12, 12, 12, 12, 12, 12, 12, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 10, 9, 3, 2, 4, 5, 9, 9, 9]</t>
+          <t>[8, 5, 2, 11, 5, 6, 10, 4, 6, 7, 1, 7]</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[2, 3, 8, 11, 4, 0, 10, 5, 9, 6, 1, 7]</t>
+          <t>[11, 7, 10, 2, 9, 1, 4, 0, 8, 6, 5, 3]</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3420,18 +3420,18 @@
         <v>1000</v>
       </c>
       <c r="F103" t="n">
-        <v>0.04188776016235352</v>
+        <v>0.04288506507873535</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[30, 26, 22, 14, 10, 14, 12, 18, 22, 22, 22, 20, 22, 20, 20, 20, 22, 22, 24, 26, 32, 30, 36, 30, 28, 24, 24, 30, 32, 36, 28, 28, 32, 42, 32, 32, 30, 30, 28, 26, 26, 22, 22, 24, 24, 18, 18, 16, 16, 16, 14, 14, 14, 14, 14, 16, 20, 18, 16, 18, 18, 18, 16, 18, 18, 18, 18, 12, 12, 12, 12, 14, 14, 14, 14, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[24, 24, 20, 16, 22, 18, 14, 18, 18, 18, 22, 18, 20, 22, 18, 22, 24, 28, 22, 22, 22, 22, 22, 26, 26, 24, 20, 16, 18, 20, 24, 20, 16, 14, 14, 16, 20, 18, 18, 18, 16, 16, 24, 22, 16, 16, 16, 20, 20, 24, 22, 24, 20, 20, 20, 20, 18, 16, 14, 16, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>[3, 5, 5, 5, 11, 8, 8, 9, 2, 11, 10, 10]</t>
+          <t>[10, 5, 11, 1, 5, 3, 3, 10, 9, 0, 5, 11]</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3439,28 +3439,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[8, 0, 9, 6, 1, 11, 4, 7, 10, 3, 5, 2]</t>
+          <t>[3, 9, 7, 2, 8, 1, 0, 4, 6, 10, 5, 11]</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>373</v>
+        <v>1000</v>
       </c>
       <c r="F104" t="n">
-        <v>0.03595638275146484</v>
+        <v>0.04288554191589355</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[32, 26, 30, 24, 20, 24, 22, 20, 22, 26, 26, 26, 26, 24, 24, 26, 34, 30, 28, 28, 30, 26, 22, 22, 24, 28, 30, 24, 28, 30, 28, 22, 20, 28, 26, 24, 24, 36, 28, 32, 32, 40, 34, 46, 38, 38, 34, 32, 32, 32, 26, 26, 24, 20, 20, 18, 18, 16, 16, 18, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[24, 26, 24, 22, 16, 22, 24, 26, 22, 18, 20, 20, 22, 22, 28, 20, 24, 26, 24, 18, 16, 20, 26, 32, 26, 24, 28, 30, 28, 30, 24, 20, 20, 18, 20, 24, 24, 26, 26, 26, 26, 34, 36, 36, 38, 38, 30, 30, 26, 26, 26, 32, 32, 32, 32, 32, 28, 26, 20, 24, 26, 28, 28, 22, 22, 22, 22, 22, 22, 18, 18, 18, 14, 12, 12, 12, 12, 12, 12, 12, 12, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>[2, 1, 10, 7, 1, 7, 8, 6, 8, 7, 11, 6]</t>
+          <t>[2, 11, 1, 6, 7, 5, 8, 8, 3, 6, 5, 1]</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[7, 5, 8, 2, 0, 3, 9, 4, 1, 10, 6, 11]</t>
+          <t>[4, 11, 8, 6, 2, 10, 2, 0, 5, 9, 1, 3]</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -3478,18 +3478,18 @@
         <v>1000</v>
       </c>
       <c r="F105" t="n">
-        <v>0.04388213157653809</v>
+        <v>0.0468747615814209</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[26, 36, 28, 26, 30, 32, 34, 32, 32, 36, 38, 36, 36, 40, 36, 36, 32, 30, 34, 38, 38, 34, 32, 30, 40, 36, 30, 26, 22, 16, 18, 20, 20, 26, 22, 26, 24, 24, 22, 22, 28, 26, 24, 28, 20, 20, 16, 16, 18, 18, 18, 18, 20, 20, 20, 16, 16, 16, 20, 22, 20, 20, 20, 22, 22, 22, 22, 16, 16, 16, 16, 14, 14, 14, 14, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[24, 18, 22, 26, 20, 20, 22, 24, 22, 24, 20, 24, 22, 28, 30, 28, 30, 26, 26, 30, 32, 36, 38, 32, 38, 36, 36, 34, 36, 30, 26, 28, 26, 22, 22, 18, 22, 28, 26, 20, 14, 16, 22, 14, 16, 20, 20, 20, 24, 24, 18, 18, 20, 20, 18, 18, 22, 18, 14, 18, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>[7, 8, 7, 2, 2, 8, 11, 8, 9, 9, 4, 10]</t>
+          <t>[9, 4, 2, 11, 0, 10, 4, 10, 5, 5, 3, 2]</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3497,28 +3497,28 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[3, 9, 11, 4, 1, 11, 2, 7, 10, 8, 5, 0]</t>
+          <t>[7, 10, 8, 3, 5, 0, 2, 9, 11, 6, 4, 1]</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1000</v>
+        <v>306</v>
       </c>
       <c r="F106" t="n">
-        <v>0.04089045524597168</v>
+        <v>0.01396274566650391</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[24, 18, 18, 22, 26, 28, 28, 26, 32, 32, 42, 42, 40, 42, 42, 36, 34, 30, 28, 36, 46, 48, 42, 42, 34, 38, 38, 34, 30, 22, 18, 20, 16, 14, 12, 14, 12, 18, 20, 16, 16, 16, 18, 18, 20, 24, 26, 24, 24, 24, 24, 26, 32, 28, 24, 22, 20, 18, 20, 20, 18, 18, 18, 20, 18, 18, 18, 18, 18, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[22, 20, 22, 20, 24, 24, 22, 22, 22, 20, 24, 28, 32, 32, 24, 30, 34, 28, 32, 28, 24, 20, 24, 26, 24, 24, 20, 22, 24, 26, 24, 22, 24, 28, 34, 24, 22, 26, 26, 26, 26, 26, 22, 20, 22, 24, 26, 22, 26, 24, 28, 28, 24, 22, 16, 16, 14, 14, 14, 14, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>[7, 0, 7, 11, 10, 10, 5, 5, 8, 10, 9, 4]</t>
+          <t>[9, 2, 4, 5, 9, 7, 11, 9, 7, 7, 3, 7]</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3526,28 +3526,28 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[8, 10, 2, 4, 1, 11, 11, 5, 10, 0, 9, 3]</t>
+          <t>[5, 10, 0, 6, 8, 11, 1, 3, 7, 9, 4, 2]</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1000</v>
+        <v>175</v>
       </c>
       <c r="F107" t="n">
-        <v>0.04089045524597168</v>
+        <v>0.01396298408508301</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[24, 30, 28, 22, 14, 14, 12, 16, 22, 28, 32, 28, 28, 26, 28, 28, 32, 28, 30, 26, 22, 20, 18, 20, 20, 20, 16, 16, 14, 18, 20, 26, 24, 24, 22, 22, 24, 22, 22, 18, 24, 24, 22, 18, 18, 20, 16, 14, 12, 12, 14, 12, 12, 14, 14, 14, 12, 14, 10, 10, 10, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+          <t>[36, 30, 22, 28, 30, 28, 24, 24, 24, 32, 34, 30, 26, 26, 24, 22, 24, 26, 26, 28, 30, 26, 34, 36, 42, 46, 40, 38, 40, 38, 38, 34, 32, 32, 30, 26, 24, 24, 24, 28, 26, 28, 30, 26, 26, 32, 38, 38, 34, 30, 28, 24, 20, 22, 28, 28, 26, 24, 24, 24, 22, 22, 22, 22, 22, 20, 20, 20, 20, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>[9, 6, 2, 4, 6, 8, 10, 4, 10, 0, 6, 5]</t>
+          <t>[3, 4, 1, 4, 9, 7, 5, 8, 8, 9, 8, 8]</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[6, 1, 5, 10, 8, 4, 11, 3, 0, 2, 11, 9]</t>
+          <t>[8, 4, 11, 2, 5, 10, 1, 9, 6, 3, 7, 0]</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3565,18 +3565,18 @@
         <v>1000</v>
       </c>
       <c r="F108" t="n">
-        <v>0.04188823699951172</v>
+        <v>0.04288482666015625</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[22, 26, 24, 18, 14, 10, 16, 20, 20, 22, 20, 20, 20, 24, 24, 24, 22, 18, 20, 20, 28, 30, 28, 36, 26, 22, 20, 16, 20, 16, 22, 24, 20, 24, 24, 24, 24, 24, 22, 20, 18, 20, 20, 20, 24, 24, 28, 26, 26, 24, 20, 22, 20, 20, 20, 20, 20, 20, 22, 22, 20, 20, 20, 20, 20, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[28, 36, 30, 30, 28, 36, 28, 32, 32, 22, 22, 24, 26, 22, 28, 30, 30, 38, 30, 26, 22, 16, 12, 10, 16, 12, 10, 14, 16, 18, 18, 16, 20, 22, 26, 34, 24, 28, 24, 28, 26, 24, 18, 18, 20, 16, 18, 18, 14, 14, 16, 16, 16, 12, 12, 12, 18, 18, 18, 16, 18, 16, 16, 16, 16, 16, 16, 16, 12, 12, 12, 12, 12, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>[2, 9, 1, 2, 0, 3, 8, 1, 6, 5, 0, 5]</t>
+          <t>[4, 0, 1, 3, 0, 6, 7, 8, 9, 0, 2, 3]</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -3584,28 +3584,28 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[8, 4, 7, 10, 2, 5, 1, 11, 9, 6, 6, 3]</t>
+          <t>[10, 5, 9, 6, 0, 2, 11, 1, 7, 4, 8, 3]</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1000</v>
+        <v>981</v>
       </c>
       <c r="F109" t="n">
         <v>0.04188799858093262</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[28, 28, 26, 20, 22, 28, 26, 28, 30, 30, 32, 36, 32, 34, 24, 22, 20, 24, 26, 20, 24, 34, 34, 28, 34, 30, 30, 26, 22, 26, 26, 24, 26, 22, 22, 26, 24, 26, 28, 30, 24, 24, 20, 18, 18, 22, 22, 20, 20, 22, 20, 20, 16, 20, 22, 22, 16, 18, 20, 18, 18, 18, 16, 16, 16, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[26, 26, 24, 28, 26, 24, 22, 20, 18, 22, 28, 24, 26, 24, 22, 24, 26, 22, 22, 22, 26, 30, 30, 28, 24, 28, 30, 26, 26, 26, 26, 30, 28, 24, 20, 30, 30, 30, 28, 26, 28, 28, 22, 20, 24, 24, 28, 32, 30, 28, 28, 30, 30, 30, 26, 24, 22, 22, 22, 22, 22, 22, 20, 18, 18, 18, 18, 18, 18, 16, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>[2, 10, 3, 5, 3, 1, 9, 11, 5, 3, 0, 3]</t>
+          <t>[5, 7, 3, 3, 3, 7, 0, 4, 5, 8, 0, 3]</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3613,28 +3613,28 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[4, 6, 10, 0, 6, 3, 7, 2, 11, 8, 1, 5]</t>
+          <t>[9, 4, 10, 5, 0, 6, 1, 11, 2, 7, 3, 8]</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1000</v>
+        <v>158</v>
       </c>
       <c r="F110" t="n">
-        <v>0.04188799858093262</v>
+        <v>0.006981134414672852</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[16, 12, 16, 14, 10, 8, 8, 12, 12, 18, 20, 22, 26, 30, 28, 26, 24, 22, 22, 16, 14, 16, 18, 16, 20, 24, 22, 18, 20, 24, 28, 24, 22, 20, 22, 24, 22, 22, 24, 28, 26, 22, 30, 22, 20, 20, 22, 22, 24, 24, 22, 24, 24, 20, 16, 16, 16, 16, 16, 12, 12, 12, 12, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[26, 32, 26, 22, 24, 28, 38, 32, 34, 32, 34, 32, 32, 30, 30, 24, 26, 32, 30, 26, 22, 22, 20, 22, 18, 22, 24, 18, 18, 16, 18, 24, 20, 18, 18, 16, 14, 14, 12, 12, 10, 14, 16, 14, 14, 14, 14, 12, 16, 16, 16, 12, 12, 12, 14, 14, 14, 14, 14, 14, 10, 10, 10, 10, 10, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>[8, 3, 1, 5, 1, 8, 7, 9, 1, 9, 8, 4]</t>
+          <t>[9, 2, 3, 10, 11, 0, 3, 4, 3, 4, 0, 4]</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[8, 0, 9, 3, 6, 10, 1, 11, 4, 7, 4, 2]</t>
+          <t>[5, 10, 1, 3, 6, 8, 2, 11, 6, 0, 7, 4]</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -3652,18 +3652,18 @@
         <v>1000</v>
       </c>
       <c r="F111" t="n">
-        <v>0.04188799858093262</v>
+        <v>0.04288554191589355</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[28, 26, 30, 26, 26, 24, 24, 24, 22, 22, 24, 26, 30, 30, 24, 28, 24, 18, 20, 20, 22, 26, 20, 16, 20, 22, 22, 28, 24, 26, 30, 24, 18, 20, 18, 16, 16, 18, 14, 18, 20, 22, 22, 18, 18, 22, 18, 20, 24, 24, 22, 22, 22, 22, 18, 18, 20, 20, 18, 20, 16, 16, 16, 16, 16, 16, 16, 16, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[36, 36, 32, 28, 30, 28, 26, 26, 30, 36, 30, 32, 30, 28, 24, 26, 22, 22, 22, 20, 18, 14, 14, 20, 20, 22, 20, 20, 24, 20, 20, 24, 20, 22, 22, 20, 22, 22, 22, 26, 26, 20, 22, 24, 22, 20, 20, 22, 30, 30, 30, 30, 28, 28, 22, 22, 24, 24, 24, 20, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>[10, 8, 3, 10, 1, 8, 11, 7, 7, 11, 4, 11]</t>
+          <t>[4, 2, 6, 3, 7, 1, 1, 3, 11, 5, 3, 10]</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[6, 0, 7, 4, 11, 8, 3, 9, 2, 5, 10, 1]</t>
+          <t>[11, 6, 4, 9, 1, 8, 2, 2, 7, 10, 0, 3]</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -3685,14 +3685,14 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[22, 28, 24, 26, 28, 26, 34, 34, 32, 30, 24, 24, 26, 22, 18, 14, 24, 22, 20, 24, 26, 24, 32, 30, 28, 28, 30, 26, 30, 28, 30, 26, 22, 26, 24, 24, 20, 18, 18, 20, 20, 18, 22, 22, 22, 22, 20, 18, 16, 16, 16, 16, 16, 16, 16, 16, 14, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[20, 20, 22, 30, 30, 30, 36, 34, 28, 28, 32, 36, 38, 40, 32, 26, 24, 34, 36, 38, 32, 32, 28, 30, 22, 24, 20, 18, 16, 18, 18, 20, 24, 26, 26, 26, 26, 22, 24, 22, 24, 22, 22, 20, 22, 18, 22, 20, 20, 16, 20, 20, 22, 28, 30, 30, 30, 24, 24, 24, 24, 24, 22, 22, 22, 22, 20, 20, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>[4, 5, 1, 0, 1, 10, 2, 1, 8, 6, 3, 11]</t>
+          <t>[7, 3, 1, 5, 9, 0, 4, 3, 3, 10, 11, 1]</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[8, 1, 4, 10, 1, 9, 5, 0, 11, 7, 2, 6]</t>
+          <t>[6, 4, 9, 0, 8, 3, 11, 2, 7, 1, 10, 7]</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -3714,14 +3714,14 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[22, 18, 18, 18, 18, 16, 18, 20, 20, 18, 20, 20, 24, 28, 26, 24, 24, 22, 16, 16, 14, 18, 20, 20, 16, 20, 20, 20, 20, 22, 20, 24, 28, 22, 24, 22, 22, 26, 26, 26, 28, 24, 24, 24, 26, 28, 28, 24, 28, 24, 24, 26, 22, 24, 20, 20, 20, 20, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[16, 14, 14, 16, 14, 16, 20, 20, 24, 26, 24, 22, 24, 24, 28, 24, 28, 26, 26, 30, 34, 30, 30, 30, 28, 32, 42, 36, 30, 30, 30, 26, 28, 28, 32, 26, 24, 24, 24, 22, 28, 28, 28, 22, 20, 22, 22, 24, 18, 14, 12, 14, 14, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>[3, 4, 5, 4, 6, 7, 6, 4, 8, 0, 8, 5]</t>
+          <t>[3, 5, 0, 6, 9, 2, 9, 7, 1, 4, 0, 10]</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3729,28 +3729,28 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[6, 0, 2, 10, 7, 3, 11, 9, 4, 1, 5, 8]</t>
+          <t>[2, 7, 1, 10, 0, 6, 3, 5, 11, 9, 4, 4]</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E114" t="n">
-        <v>691</v>
+        <v>1000</v>
       </c>
       <c r="F114" t="n">
-        <v>0.02892255783081055</v>
+        <v>0.04188799858093262</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[28, 22, 28, 30, 32, 36, 36, 34, 36, 36, 30, 30, 38, 40, 40, 46, 50, 36, 38, 34, 28, 26, 28, 26, 26, 26, 28, 30, 26, 22, 20, 22, 28, 28, 28, 30, 32, 28, 24, 22, 26, 26, 20, 16, 14, 16, 20, 14, 12, 12, 12, 12, 12, 12, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[14, 14, 14, 20, 24, 26, 26, 22, 24, 24, 18, 16, 18, 26, 24, 22, 26, 24, 22, 20, 22, 24, 20, 18, 22, 30, 32, 36, 42, 34, 28, 28, 30, 26, 20, 20, 22, 22, 22, 22, 22, 26, 22, 20, 20, 16, 12, 14, 18, 18, 20, 20, 22, 26, 26, 22, 22, 24, 26, 26, 28, 22, 22, 20, 16, 14, 14, 14, 14, 14, 14, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>[2, 7, 6, 6, 4, 3, 1, 5, 7, 10, 7, 5]</t>
+          <t>[2, 8, 0, 11, 6, 3, 10, 10, 3, 7, 8, 8]</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -3758,28 +3758,28 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[2, 5, 10, 8, 4, 11, 3, 0, 6, 1, 9, 7]</t>
+          <t>[8, 4, 11, 0, 2, 10, 5, 7, 9, 0, 6, 1]</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>602</v>
+        <v>1000</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0249333381652832</v>
+        <v>0.04288554191589355</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[24, 24, 26, 30, 22, 24, 22, 18, 18, 18, 16, 14, 12, 12, 12, 14, 18, 28, 30, 26, 26, 28, 34, 24, 28, 22, 30, 22, 16, 18, 20, 30, 32, 30, 30, 28, 20, 22, 32, 26, 24, 20, 24, 26, 24, 22, 18, 18, 12, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[28, 24, 22, 24, 20, 24, 26, 24, 22, 22, 22, 16, 20, 28, 26, 26, 26, 34, 36, 36, 36, 38, 32, 38, 34, 38, 40, 38, 30, 32, 26, 22, 28, 28, 26, 22, 20, 24, 24, 26, 20, 22, 20, 20, 20, 22, 20, 26, 28, 28, 24, 28, 28, 26, 22, 20, 24, 26, 26, 26, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 20, 18, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>[9, 6, 10, 6, 1, 9, 8, 7, 5, 8, 8, 9]</t>
+          <t>[11, 8, 5, 6, 5, 7, 9, 3, 9, 6, 5, 11]</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[10, 1, 6, 11, 2, 0, 11, 8, 5, 3, 9, 7]</t>
+          <t>[4, 7, 9, 11, 2, 0, 3, 6, 10, 1, 10, 5]</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[26, 26, 32, 26, 24, 24, 24, 20, 24, 30, 28, 20, 18, 14, 18, 20, 24, 24, 18, 20, 24, 22, 24, 22, 20, 20, 20, 22, 28, 34, 36, 36, 30, 30, 34, 36, 30, 28, 22, 22, 22, 18, 28, 20, 22, 22, 16, 20, 24, 24, 24, 24, 24, 22, 16, 12, 12, 14, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 14, 14, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[32, 32, 28, 30, 32, 32, 24, 26, 24, 18, 18, 16, 18, 18, 20, 22, 20, 14, 14, 12, 16, 18, 18, 24, 26, 26, 30, 28, 26, 28, 26, 26, 24, 24, 24, 32, 30, 26, 22, 20, 16, 14, 18, 18, 18, 20, 18, 20, 20, 20, 22, 22, 22, 22, 22, 20, 20, 20, 16, 16, 16, 12, 10, 10, 10, 10, 10, 10, 10, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>[6, 0, 11, 11, 3, 11, 4, 10, 6, 1, 10, 1]</t>
+          <t>[1, 11, 11, 9, 10, 6, 0, 3, 5, 2, 9, 4]</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3816,28 +3816,28 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[4, 10, 3, 6, 9, 5, 2, 0, 7, 11, 8, 1]</t>
+          <t>[8, 1, 5, 2, 6, 10, 0, 11, 9, 4, 7, 3]</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E117" t="n">
-        <v>559</v>
+        <v>1000</v>
       </c>
       <c r="F117" t="n">
-        <v>0.02393579483032227</v>
+        <v>0.04188799858093262</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[22, 24, 24, 24, 22, 22, 26, 26, 28, 28, 28, 28, 24, 26, 30, 30, 36, 38, 36, 32, 32, 30, 32, 24, 28, 20, 14, 14, 14, 18, 20, 20, 18, 22, 26, 24, 24, 32, 30, 30, 28, 26, 28, 28, 40, 34, 34, 26, 28, 24, 28, 28, 28, 30, 28, 28, 28, 24, 24, 20, 20, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 24, 26, 24, 28, 20, 24, 24, 20, 16, 20, 20, 18, 24, 32, 28, 30, 26, 28, 24, 24, 22, 26, 20, 24, 20, 20, 22, 24, 26, 22, 26, 26, 30, 30, 26, 24, 22, 20, 16, 16, 12, 12, 12, 12, 12, 12, 18, 18, 24, 20, 18, 16, 16, 16, 14, 14, 16, 16, 16, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>[2, 2, 0, 6, 10, 1, 4, 10, 4, 2, 3, 9]</t>
+          <t>[7, 8, 11, 1, 5, 9, 10, 1, 8, 2, 7, 3]</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3845,28 +3845,28 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[7, 11, 2, 8, 5, 0, 4, 1, 10, 6, 9, 3]</t>
+          <t>[9, 6, 1, 9, 2, 5, 7, 10, 0, 11, 4, 8]</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>942</v>
+        <v>1000</v>
       </c>
       <c r="F118" t="n">
-        <v>0.06981348991394043</v>
+        <v>0.04188799858093262</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[24, 28, 36, 30, 28, 22, 28, 28, 34, 30, 24, 20, 22, 18, 18, 20, 18, 16, 16, 16, 22, 24, 30, 26, 24, 20, 24, 26, 30, 32, 26, 20, 22, 22, 24, 24, 24, 22, 22, 18, 16, 18, 22, 22, 22, 22, 20, 26, 22, 18, 18, 18, 18, 20, 20, 20, 16, 16, 16, 16, 16, 16, 16, 16, 16, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 20, 18, 18, 20, 26, 28, 26, 22, 22, 20, 18, 20, 28, 32, 32, 30, 28, 28, 20, 20, 18, 18, 14, 16, 20, 22, 22, 28, 26, 28, 30, 30, 28, 26, 22, 28, 22, 22, 22, 26, 22, 18, 22, 20, 20, 20, 22, 20, 20, 20, 20, 22, 22, 22, 24, 24, 22, 22, 22, 22, 14, 12, 10, 10, 10, 10, 10, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>[5, 9, 8, 8, 2, 7, 3, 6, 9, 7, 7, 2]</t>
+          <t>[8, 9, 6, 1, 6, 0, 2, 4, 5, 2, 8, 2]</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3874,28 +3874,28 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[10, 4, 1, 8, 2, 11, 6, 0, 9, 0, 5, 7]</t>
+          <t>[3, 9, 6, 10, 2, 0, 5, 8, 1, 11, 4, 7]</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="F119" t="n">
-        <v>0.04188799858093262</v>
+        <v>0.01695466041564941</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[24, 28, 26, 32, 32, 28, 28, 34, 30, 30, 30, 24, 22, 22, 20, 20, 22, 18, 14, 16, 24, 24, 22, 20, 18, 18, 22, 20, 20, 24, 26, 28, 24, 32, 28, 28, 32, 24, 20, 16, 18, 20, 18, 18, 18, 20, 34, 34, 36, 32, 36, 32, 22, 20, 20, 20, 18, 18, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[28, 28, 34, 26, 20, 20, 24, 28, 28, 28, 30, 30, 30, 34, 38, 50, 40, 34, 30, 32, 30, 26, 28, 32, 36, 38, 32, 32, 28, 28, 30, 24, 28, 26, 30, 24, 22, 24, 24, 22, 22, 22, 28, 28, 24, 24, 20, 24, 24, 24, 24, 24, 24, 22, 24, 22, 22, 18, 16, 16, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>[2, 8, 1, 5, 6, 1, 7, 5, 3, 6, 10, 9]</t>
+          <t>[3, 5, 5, 10, 6, 11, 11, 0, 2, 3, 9, 8]</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3903,28 +3903,28 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[2, 0, 8, 10, 7, 1, 3, 5, 0, 9, 4, 6]</t>
+          <t>[11, 8, 2, 7, 3, 1, 9, 5, 0, 10, 4, 6]</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="F120" t="n">
-        <v>0.04188776016235352</v>
+        <v>0.01695466041564941</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[16, 18, 20, 22, 34, 34, 36, 40, 38, 26, 24, 24, 20, 24, 26, 22, 26, 24, 18, 18, 18, 16, 18, 18, 18, 18, 16, 14, 16, 14, 20, 14, 14, 14, 16, 12, 10, 10, 12, 12, 12, 14, 18, 18, 18, 18, 18, 24, 20, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[16, 14, 16, 20, 20, 22, 24, 22, 20, 16, 20, 22, 16, 22, 24, 26, 22, 22, 26, 26, 26, 24, 24, 26, 26, 24, 20, 18, 18, 18, 18, 20, 24, 28, 28, 28, 30, 26, 24, 22, 28, 28, 24, 24, 24, 24, 24, 18, 16, 16, 22, 24, 22, 22, 24, 28, 28, 26, 26, 24, 24, 24, 22, 22, 22, 22, 22, 20, 20, 20, 20, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>[11, 4, 9, 2, 6, 0, 9, 7, 4, 5, 2, 1]</t>
+          <t>[7, 4, 11, 10, 4, 6, 4, 5, 2, 9, 10, 7]</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -3932,28 +3932,28 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[11, 0, 3, 9, 2, 5, 1, 10, 1, 6, 4, 7]</t>
+          <t>[9, 2, 6, 3, 10, 8, 1, 4, 7, 11, 0, 5]</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>1000</v>
+        <v>845</v>
       </c>
       <c r="F121" t="n">
-        <v>0.04188847541809082</v>
+        <v>0.0359039306640625</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[26, 28, 28, 24, 24, 24, 26, 26, 32, 30, 26, 34, 36, 42, 32, 32, 32, 30, 32, 30, 22, 26, 22, 24, 26, 26, 32, 26, 24, 22, 18, 20, 20, 26, 24, 26, 22, 28, 30, 26, 22, 22, 22, 18, 22, 26, 28, 26, 20, 26, 26, 26, 28, 28, 24, 20, 20, 20, 18, 18, 22, 22, 22, 20, 20, 22, 22, 22, 22, 22, 20, 20, 20, 20, 16, 16, 14, 14, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[26, 24, 18, 16, 12, 12, 16, 14, 20, 18, 18, 28, 28, 30, 26, 30, 32, 28, 30, 30, 30, 24, 20, 24, 26, 24, 20, 24, 26, 28, 26, 22, 22, 20, 16, 16, 16, 22, 24, 24, 24, 24, 22, 22, 22, 22, 20, 20, 22, 26, 24, 26, 26, 26, 24, 22, 20, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>[10, 0, 12, 9, 12, 5, 11, 0, 9, 4, 6, 8, 3, 9, 5]</t>
+          <t>[0, 11, 2, 6, 8, 6, 14, 7, 14, 2, 14, 5, 14, 5, 13]</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3961,28 +3961,28 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[3, 6, 11, 13, 4, 9, 5, 14, 10, 0, 7, 1, 8, 2, 12]</t>
+          <t>[4, 11, 13, 10, 12, 6, 1, 7, 2, 0, 9, 14, 10, 5, 3]</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E122" t="n">
-        <v>324</v>
+        <v>1000</v>
       </c>
       <c r="F122" t="n">
-        <v>0.02094411849975586</v>
+        <v>0.06482672691345215</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[26, 30, 38, 36, 30, 34, 30, 30, 30, 30, 30, 34, 38, 36, 32, 32, 32, 34, 36, 34, 30, 26, 26, 22, 30, 26, 30, 26, 24, 28, 30, 30, 26, 30, 32, 26, 26, 26, 26, 26, 28, 28, 28, 26, 22, 26, 26, 26, 20, 24, 20, 20, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[30, 30, 30, 32, 36, 40, 44, 44, 44, 40, 38, 34, 30, 32, 40, 40, 38, 34, 38, 32, 26, 28, 26, 24, 22, 28, 32, 28, 28, 26, 28, 28, 30, 30, 34, 36, 36, 42, 40, 38, 38, 30, 30, 30, 36, 36, 36, 36, 38, 34, 36, 28, 28, 28, 28, 24, 24, 26, 26, 22, 18, 18, 20, 22, 22, 22, 22, 22, 20, 20, 20, 22, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>[10, 4, 10, 13, 8, 3, 6, 2, 8, 3, 12, 0, 2, 5, 8]</t>
+          <t>[6, 6, 3, 13, 8, 11, 7, 3, 10, 8, 5, 6, 6, 0, 11]</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3990,28 +3990,28 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[7, 10, 14, 0, 4, 8, 11, 3, 1, 13, 2, 9, 6, 12, 5]</t>
+          <t>[2, 8, 11, 9, 3, 10, 0, 4, 6, 13, 1, 14, 12, 5, 7]</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>818</v>
+        <v>1000</v>
       </c>
       <c r="F123" t="n">
-        <v>0.05285859107971191</v>
+        <v>0.06582403182983398</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[34, 34, 40, 32, 32, 34, 38, 34, 42, 40, 40, 36, 30, 34, 32, 36, 28, 24, 28, 28, 28, 32, 36, 38, 30, 26, 30, 26, 32, 32, 32, 24, 24, 26, 22, 18, 20, 20, 20, 20, 22, 20, 16, 18, 24, 22, 22, 26, 26, 28, 22, 22, 22, 22, 22, 24, 24, 24, 26, 26, 26, 24, 20, 20, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[32, 32, 38, 34, 34, 34, 30, 22, 28, 30, 36, 32, 34, 38, 38, 36, 30, 32, 30, 42, 38, 36, 38, 38, 40, 46, 48, 44, 54, 52, 50, 54, 42, 42, 38, 36, 34, 30, 30, 30, 30, 30, 28, 34, 34, 34, 34, 34, 34, 28, 30, 28, 32, 32, 32, 26, 26, 26, 26, 26, 28, 28, 26, 26, 22, 20, 22, 20, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>[8, 2, 4, 0, 14, 6, 3, 3, 14, 14, 12, 0, 0, 8, 5]</t>
+          <t>[5, 0, 9, 12, 9, 0, 10, 1, 3, 1, 9, 5, 5, 8, 10]</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4019,28 +4019,28 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[9, 0, 2, 7, 10, 13, 11, 8, 5, 3, 1, 14, 4, 6, 12]</t>
+          <t>[12, 4, 6, 11, 0, 14, 5, 2, 9, 1, 3, 13, 10, 7, 1]</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E124" t="n">
-        <v>663</v>
+        <v>1000</v>
       </c>
       <c r="F124" t="n">
-        <v>0.04288530349731445</v>
+        <v>0.06482672691345215</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[28, 28, 26, 26, 30, 34, 34, 36, 38, 32, 28, 24, 20, 18, 28, 30, 30, 30, 36, 42, 44, 44, 44, 50, 52, 60, 54, 52, 46, 44, 42, 38, 40, 38, 34, 32, 28, 26, 30, 26, 30, 28, 30, 24, 26, 28, 26, 28, 22, 26, 20, 18, 18, 18, 18, 18, 20, 20, 20, 20, 20, 14, 14, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[36, 36, 38, 30, 30, 32, 28, 26, 26, 26, 30, 30, 36, 30, 28, 30, 26, 20, 22, 26, 26, 28, 30, 32, 36, 34, 32, 30, 26, 28, 26, 30, 28, 28, 24, 26, 24, 32, 30, 36, 42, 36, 34, 34, 28, 30, 24, 22, 20, 22, 16, 18, 18, 16, 16, 20, 22, 20, 24, 22, 20, 18, 20, 24, 20, 20, 20, 20, 20, 18, 18, 18, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>[0, 6, 9, 13, 0, 7, 8, 1, 14, 11, 5, 3, 3, 11, 2]</t>
+          <t>[10, 5, 11, 6, 1, 10, 9, 0, 11, 4, 2, 1, 8, 7, 4]</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[1, 13, 6, 3, 11, 0, 4, 12, 5, 8, 2, 0, 14, 9, 7]</t>
+          <t>[13, 3, 6, 4, 11, 1, 14, 2, 8, 12, 7, 0, 10, 5, 0]</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -4058,18 +4058,18 @@
         <v>1000</v>
       </c>
       <c r="F125" t="n">
-        <v>0.06382918357849121</v>
+        <v>0.06582379341125488</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[18, 26, 26, 24, 20, 18, 20, 22, 28, 28, 34, 32, 32, 38, 38, 30, 38, 40, 38, 40, 38, 30, 28, 22, 20, 22, 20, 20, 24, 20, 22, 26, 28, 24, 24, 24, 28, 28, 28, 26, 26, 26, 22, 16, 20, 24, 26, 24, 28, 24, 22, 22, 26, 26, 26, 24, 22, 20, 16, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[24, 26, 28, 28, 28, 28, 28, 32, 28, 28, 34, 38, 36, 28, 26, 20, 22, 26, 26, 28, 28, 34, 40, 44, 44, 40, 34, 32, 38, 36, 30, 30, 30, 26, 26, 28, 32, 32, 30, 36, 34, 30, 32, 34, 34, 28, 30, 34, 32, 36, 36, 36, 36, 36, 36, 34, 34, 34, 32, 24, 22, 22, 20, 24, 24, 24, 26, 24, 24, 24, 24, 24, 24, 24, 24, 22, 22, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 18, 18, 18, 18, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>[6, 8, 0, 14, 10, 3, 7, 5, 9, 0, 6, 10, 12, 12, 3]</t>
+          <t>[9, 14, 1, 8, 11, 9, 8, 14, 13, 10, 1, 7, 9, 0, 11]</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4077,28 +4077,28 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[12, 14, 6, 2, 5, 11, 8, 10, 13, 1, 3, 0, 7, 9, 4]</t>
+          <t>[5, 7, 11, 14, 12, 1, 6, 0, 2, 10, 12, 9, 3, 8, 13]</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>888</v>
+        <v>1000</v>
       </c>
       <c r="F126" t="n">
-        <v>0.06183457374572754</v>
+        <v>0.06482672691345215</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[30, 32, 30, 26, 30, 36, 32, 30, 28, 22, 24, 24, 20, 28, 24, 26, 26, 32, 30, 32, 30, 28, 30, 32, 32, 32, 28, 26, 24, 22, 24, 26, 28, 28, 26, 26, 26, 26, 26, 24, 28, 32, 32, 30, 30, 26, 24, 28, 28, 30, 30, 30, 30, 30, 32, 34, 34, 32, 36, 36, 36, 34, 34, 32, 32, 30, 30, 30, 30, 30, 30, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 22, 22, 22, 20, 20, 20, 16, 16, 16, 16, 16, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[32, 32, 26, 26, 24, 30, 28, 26, 26, 26, 26, 28, 38, 38, 36, 36, 34, 36, 36, 36, 28, 26, 24, 26, 30, 32, 32, 36, 36, 34, 32, 36, 30, 30, 28, 28, 22, 26, 26, 30, 30, 28, 26, 28, 26, 22, 24, 22, 22, 20, 20, 20, 26, 28, 26, 24, 22, 24, 24, 24, 28, 28, 26, 26, 26, 26, 26, 26, 26, 22, 22, 22, 20, 20, 20, 20, 20, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>[7, 1, 8, 1, 10, 13, 9, 5, 9, 12, 5, 10, 0, 10, 11]</t>
+          <t>[14, 9, 7, 2, 12, 5, 4, 1, 3, 9, 7, 10, 14, 13, 0]</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -4106,28 +4106,28 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[3, 7, 14, 4, 13, 4, 0, 12, 10, 6, 2, 11, 8, 1, 9]</t>
+          <t>[8, 10, 1, 9, 0, 12, 7, 2, 13, 11, 14, 4, 6, 3, 5]</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1000</v>
+        <v>575</v>
       </c>
       <c r="F127" t="n">
-        <v>0.06482672691345215</v>
+        <v>0.03789877891540527</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[26, 24, 36, 34, 32, 28, 30, 36, 30, 24, 30, 36, 34, 30, 30, 30, 30, 32, 24, 24, 24, 24, 28, 28, 28, 32, 34, 30, 24, 22, 22, 20, 20, 18, 16, 20, 20, 18, 18, 18, 20, 20, 18, 18, 18, 16, 16, 20, 18, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 26, 26, 26, 28, 24, 24, 24, 18, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[26, 30, 32, 30, 30, 28, 26, 30, 26, 26, 26, 28, 26, 30, 22, 18, 22, 24, 30, 28, 32, 36, 36, 36, 34, 34, 32, 32, 30, 32, 32, 32, 32, 30, 30, 28, 28, 32, 32, 36, 34, 32, 36, 34, 34, 26, 30, 24, 30, 30, 32, 36, 36, 30, 26, 22, 18, 18, 20, 20, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 20, 20, 20, 20, 20, 20, 20, 20, 18, 18, 18, 18, 16, 16, 16, 14, 14, 10, 10, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>[2, 13, 5, 6, 2, 6, 11, 5, 11, 12, 8, 9, 4, 0, 7]</t>
+          <t>[6, 3, 5, 10, 4, 7, 5, 1, 1, 11, 1, 13, 4, 7, 9]</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[5, 1, 4, 11, 3, 8, 13, 2, 9, 6, 14, 0, 10, 7, 2]</t>
+          <t>[0, 11, 8, 12, 2, 9, 5, 14, 1, 10, 6, 13, 1, 7, 4]</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -4145,18 +4145,18 @@
         <v>1000</v>
       </c>
       <c r="F128" t="n">
-        <v>0.06482672691345215</v>
+        <v>0.08178138732910156</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[34, 30, 32, 32, 38, 40, 38, 38, 40, 36, 34, 28, 28, 26, 30, 30, 26, 34, 32, 32, 36, 34, 28, 24, 22, 20, 22, 26, 32, 32, 32, 30, 30, 28, 26, 28, 34, 36, 34, 28, 26, 22, 26, 26, 30, 30, 30, 34, 32, 32, 30, 28, 28, 22, 22, 20, 22, 22, 22, 20, 20, 20, 20, 20, 22, 22, 22, 22, 22, 22, 22, 18, 18, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[32, 32, 32, 26, 30, 32, 30, 34, 34, 38, 38, 40, 46, 42, 42, 36, 38, 38, 34, 32, 30, 26, 32, 28, 32, 34, 40, 40, 38, 40, 44, 40, 38, 40, 36, 34, 32, 28, 24, 28, 30, 34, 36, 38, 34, 38, 40, 40, 44, 38, 38, 32, 32, 28, 28, 30, 30, 28, 26, 26, 26, 22, 22, 22, 22, 22, 18, 18, 18, 20, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>[6, 10, 12, 2, 1, 3, 14, 6, 7, 2, 6, 11, 6, 13, 0]</t>
+          <t>[2, 9, 1, 5, 4, 9, 7, 14, 2, 7, 6, 0, 14, 5, 13]</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[4, 10, 13, 5, 1, 8, 12, 14, 2, 8, 6, 3, 0, 11, 9]</t>
+          <t>[12, 10, 0, 6, 9, 1, 13, 11, 2, 8, 5, 3, 14, 10, 7]</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -4174,18 +4174,18 @@
         <v>1000</v>
       </c>
       <c r="F129" t="n">
-        <v>0.06382918357849121</v>
+        <v>0.06582450866699219</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[28, 30, 28, 34, 36, 34, 40, 42, 52, 60, 60, 60, 52, 44, 40, 42, 38, 34, 34, 28, 32, 34, 38, 38, 40, 36, 32, 30, 24, 30, 34, 34, 32, 32, 28, 26, 24, 22, 22, 24, 26, 26, 26, 32, 38, 28, 26, 22, 22, 20, 18, 18, 22, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 18, 18, 18, 18, 18, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[24, 24, 28, 30, 28, 28, 30, 30, 36, 40, 44, 36, 32, 32, 26, 28, 26, 30, 30, 30, 30, 26, 30, 32, 30, 34, 36, 34, 36, 34, 34, 36, 38, 40, 40, 32, 34, 32, 32, 28, 30, 26, 24, 28, 28, 28, 30, 28, 28, 24, 24, 26, 20, 20, 20, 18, 22, 24, 24, 24, 24, 24, 22, 22, 22, 20, 20, 20, 20, 16, 12, 12, 12, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>[10, 14, 3, 2, 3, 0, 8, 2, 7, 13, 8, 14, 7, 1, 3]</t>
+          <t>[10, 7, 13, 9, 8, 9, 5, 6, 0, 10, 6, 7, 6, 14, 11]</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[9, 12, 9, 1, 3, 7, 6, 11, 0, 14, 5, 8, 13, 4, 2]</t>
+          <t>[4, 2, 5, 9, 14, 0, 11, 12, 6, 1, 3, 13, 3, 10, 8]</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -4203,18 +4203,18 @@
         <v>1000</v>
       </c>
       <c r="F130" t="n">
-        <v>0.06482672691345215</v>
+        <v>0.06482625007629395</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[36, 42, 34, 32, 40, 38, 46, 48, 46, 48, 38, 36, 34, 34, 38, 36, 32, 32, 30, 30, 28, 36, 34, 24, 22, 20, 18, 18, 18, 24, 28, 30, 28, 34, 28, 24, 26, 22, 20, 22, 20, 20, 24, 28, 24, 22, 22, 22, 22, 26, 24, 24, 26, 26, 26, 28, 26, 28, 28, 30, 28, 28, 26, 22, 22, 22, 22, 22, 22, 22, 20, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+          <t>[28, 28, 30, 28, 22, 24, 20, 22, 20, 28, 34, 34, 36, 40, 34, 32, 34, 36, 34, 34, 34, 32, 28, 28, 26, 28, 28, 36, 30, 28, 30, 30, 30, 30, 30, 34, 34, 36, 34, 28, 32, 32, 26, 32, 32, 28, 30, 32, 26, 26, 24, 28, 28, 28, 28, 24, 24, 24, 20, 20, 20, 20, 16, 16, 16, 16, 14, 14, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>[6, 5, 4, 4, 13, 5, 10, 5, 10, 14, 12, 13, 1, 12, 4]</t>
+          <t>[1, 11, 8, 2, 9, 7, 14, 13, 1, 7, 9, 4, 3, 5, 14]</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -4222,28 +4222,28 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[10, 8, 1, 12, 7, 11, 0, 7, 5, 14, 2, 9, 13, 6, 4]</t>
+          <t>[11, 4, 10, 3, 13, 9, 2, 2, 7, 1, 8, 12, 14, 6, 8]</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E131" t="n">
         <v>1000</v>
       </c>
       <c r="F131" t="n">
-        <v>0.06482672691345215</v>
+        <v>0.06482648849487305</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[40, 38, 38, 38, 36, 36, 32, 30, 28, 30, 36, 34, 30, 34, 42, 44, 44, 44, 42, 36, 38, 42, 34, 44, 42, 40, 42, 36, 34, 26, 26, 28, 32, 38, 34, 36, 34, 38, 34, 38, 38, 34, 36, 36, 34, 34, 34, 34, 32, 32, 32, 30, 30, 28, 26, 22, 22, 22, 22, 22, 22, 22, 22, 22, 18, 18, 18, 18, 18, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[20, 24, 24, 26, 34, 34, 40, 42, 40, 44, 42, 46, 48, 50, 42, 44, 44, 38, 36, 34, 34, 34, 34, 30, 34, 30, 32, 30, 32, 34, 32, 32, 32, 30, 34, 32, 36, 34, 34, 36, 46, 46, 46, 48, 44, 40, 46, 46, 42, 40, 36, 32, 32, 28, 24, 22, 22, 22, 24, 24, 24, 24, 24, 24, 24, 24, 22, 18, 18, 18, 18, 18, 18, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>[0, 14, 3, 13, 9, 11, 1, 9, 7, 6, 5, 1, 2, 9, 13]</t>
+          <t>[11, 5, 6, 3, 1, 4, 6, 3, 9, 10, 12, 11, 7, 12, 10]</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -4251,28 +4251,28 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[10, 7, 2, 8, 1, 12, 14, 0, 6, 4, 11, 5, 3, 9, 13]</t>
+          <t>[13, 4, 14, 9, 5, 1, 11, 0, 2, 6, 12, 3, 7, 8, 10]</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E132" t="n">
-        <v>693</v>
+        <v>1000</v>
       </c>
       <c r="F132" t="n">
-        <v>0.04587697982788086</v>
+        <v>0.06482648849487305</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[34, 34, 32, 30, 36, 38, 42, 42, 44, 36, 40, 40, 36, 34, 34, 28, 28, 26, 26, 30, 30, 28, 26, 22, 26, 22, 22, 28, 26, 30, 32, 34, 36, 34, 36, 36, 44, 38, 38, 38, 32, 24, 26, 26, 30, 32, 30, 30, 38, 40, 42, 40, 40, 40, 42, 42, 44, 42, 36, 38, 36, 34, 26, 26, 24, 24, 24, 22, 22, 22, 22, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[30, 30, 30, 30, 28, 30, 26, 30, 30, 34, 32, 34, 30, 36, 36, 38, 34, 36, 36, 26, 22, 28, 28, 30, 30, 34, 28, 34, 32, 30, 30, 30, 30, 26, 24, 28, 32, 32, 28, 26, 28, 28, 28, 30, 30, 30, 30, 30, 34, 30, 30, 28, 26, 28, 26, 24, 26, 20, 20, 20, 20, 20, 20, 20, 20, 20, 22, 22, 22, 22, 22, 22, 22, 22, 22, 20, 20, 14, 14, 14, 14, 14, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>[10, 11, 9, 14, 5, 9, 4, 8, 14, 12, 4, 13, 5, 8, 3]</t>
+          <t>[10, 4, 12, 12, 2, 0, 13, 14, 1, 9, 0, 14, 6, 3, 2]</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[6, 14, 11, 13, 4, 2, 14, 12, 10, 8, 1, 3, 0, 9, 7]</t>
+          <t>[11, 14, 5, 0, 8, 4, 2, 12, 14, 1, 10, 13, 6, 3, 9]</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -4290,18 +4290,18 @@
         <v>1000</v>
       </c>
       <c r="F133" t="n">
-        <v>0.06382966041564941</v>
+        <v>0.06482696533203125</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[26, 26, 24, 30, 26, 26, 24, 28, 26, 20, 18, 18, 24, 24, 24, 28, 32, 34, 36, 36, 42, 44, 40, 40, 40, 42, 44, 38, 36, 42, 40, 30, 32, 42, 46, 46, 38, 42, 42, 42, 40, 40, 34, 30, 30, 28, 32, 30, 28, 28, 30, 30, 28, 30, 30, 32, 32, 32, 32, 32, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 24, 24, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[24, 22, 26, 28, 36, 32, 32, 32, 32, 32, 26, 26, 24, 24, 30, 28, 28, 32, 32, 28, 28, 24, 24, 22, 24, 30, 34, 32, 32, 34, 36, 46, 36, 30, 30, 30, 26, 26, 26, 28, 26, 24, 22, 26, 26, 24, 32, 36, 40, 38, 36, 30, 30, 24, 20, 22, 22, 22, 22, 22, 22, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 22, 22, 22, 22, 22, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>[3, 6, 13, 11, 2, 4, 1, 12, 11, 11, 10, 0, 12, 4, 0]</t>
+          <t>[4, 9, 1, 14, 10, 6, 14, 12, 6, 11, 8, 10, 0, 6, 2]</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4309,28 +4309,28 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[4, 11, 7, 14, 5, 1, 12, 9, 6, 2, 0, 10, 3, 13, 8]</t>
+          <t>[5, 11, 6, 10, 0, 14, 14, 8, 2, 12, 7, 13, 4, 1, 3]</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E134" t="n">
         <v>1000</v>
       </c>
       <c r="F134" t="n">
-        <v>0.06382918357849121</v>
+        <v>0.06482672691345215</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[26, 32, 32, 32, 32, 32, 34, 34, 32, 36, 36, 34, 36, 40, 38, 38, 38, 42, 38, 32, 36, 40, 40, 44, 46, 42, 36, 34, 36, 32, 36, 30, 32, 30, 30, 34, 36, 34, 40, 36, 36, 36, 38, 38, 32, 34, 32, 32, 38, 38, 34, 32, 32, 32, 30, 30, 28, 24, 26, 24, 22, 22, 20, 22, 22, 22, 24, 24, 22, 22, 22, 20, 20, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 12, 12, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[24, 28, 28, 28, 34, 36, 40, 44, 40, 40, 40, 36, 34, 38, 34, 30, 30, 30, 30, 28, 24, 22, 18, 18, 20, 24, 28, 26, 28, 34, 28, 34, 30, 30, 34, 34, 38, 34, 34, 36, 34, 34, 30, 32, 34, 34, 32, 30, 32, 32, 34, 30, 30, 26, 22, 22, 22, 22, 22, 22, 26, 26, 28, 28, 28, 28, 28, 28, 28, 28, 28, 28, 28, 28, 26, 26, 26, 26, 26, 22, 22, 22, 22, 22, 22, 22, 22, 22, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>[13, 8, 14, 11, 1, 9, 3, 3, 11, 7, 3, 2, 1, 11, 7]</t>
+          <t>[10, 14, 0, 12, 1, 2, 0, 9, 1, 14, 11, 10, 12, 11, 10]</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[0, 8, 5, 12, 2, 7, 14, 1, 13, 10, 14, 3, 11, 9, 4]</t>
+          <t>[8, 2, 12, 1, 7, 11, 0, 6, 1, 14, 10, 13, 3, 9, 4]</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -4352,14 +4352,14 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[40, 36, 32, 30, 28, 34, 34, 34, 32, 30, 36, 32, 26, 24, 20, 20, 22, 22, 18, 16, 16, 14, 18, 20, 20, 22, 16, 16, 14, 14, 18, 20, 26, 32, 28, 26, 26, 26, 32, 28, 24, 26, 26, 24, 24, 20, 22, 22, 22, 22, 24, 24, 24, 22, 22, 20, 18, 18, 18, 20, 20, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[30, 32, 30, 26, 26, 30, 32, 30, 28, 28, 32, 30, 26, 28, 30, 30, 30, 26, 24, 26, 32, 32, 32, 32, 28, 28, 30, 24, 26, 24, 26, 26, 30, 38, 36, 40, 36, 34, 26, 28, 38, 42, 36, 34, 32, 30, 32, 32, 32, 32, 32, 32, 28, 28, 28, 28, 28, 28, 28, 26, 26, 26, 26, 26, 22, 22, 24, 20, 20, 20, 20, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>[9, 11, 13, 5, 11, 13, 3, 6, 13, 1, 7, 8, 9, 11, 5]</t>
+          <t>[10, 1, 0, 2, 1, 4, 1, 11, 6, 12, 5, 2, 1, 13, 3]</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[5, 14, 4, 11, 13, 2, 6, 3, 11, 0, 8, 10, 1, 7, 9]</t>
+          <t>[4, 8, 1, 3, 13, 10, 12, 9, 0, 5, 13, 2, 7, 14, 11]</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -4377,18 +4377,18 @@
         <v>1000</v>
       </c>
       <c r="F136" t="n">
-        <v>0.06482672691345215</v>
+        <v>0.06582403182983398</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[36, 38, 36, 42, 42, 40, 44, 36, 32, 30, 38, 38, 42, 42, 48, 46, 40, 40, 44, 46, 48, 44, 42, 38, 36, 30, 36, 44, 40, 40, 42, 38, 32, 32, 38, 36, 36, 38, 38, 36, 30, 30, 28, 28, 26, 22, 22, 18, 18, 18, 20, 18, 26, 30, 26, 26, 26, 26, 26, 26, 22, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[30, 32, 36, 40, 40, 32, 24, 26, 30, 26, 30, 32, 32, 32, 28, 34, 38, 38, 38, 44, 46, 42, 38, 36, 38, 42, 46, 46, 40, 40, 48, 46, 44, 36, 42, 42, 44, 46, 40, 40, 38, 40, 38, 44, 40, 44, 38, 38, 34, 32, 28, 30, 30, 28, 28, 24, 24, 26, 26, 26, 24, 22, 22, 22, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>[8, 1, 6, 4, 6, 8, 14, 4, 4, 2, 10, 5, 8, 11, 6]</t>
+          <t>[2, 9, 12, 9, 14, 0, 10, 8, 0, 13, 7, 9, 8, 10, 11]</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[6, 10, 3, 5, 14, 2, 13, 2, 8, 1, 4, 9, 11, 0, 7]</t>
+          <t>[2, 4, 11, 14, 3, 9, 13, 5, 0, 6, 1, 12, 6, 8, 10]</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -4406,18 +4406,18 @@
         <v>1000</v>
       </c>
       <c r="F137" t="n">
-        <v>0.06482648849487305</v>
+        <v>0.06482672691345215</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[40, 44, 42, 42, 40, 36, 42, 46, 36, 30, 32, 32, 32, 24, 26, 32, 32, 36, 42, 40, 32, 40, 40, 32, 28, 26, 22, 28, 28, 26, 20, 20, 16, 16, 14, 16, 14, 14, 18, 14, 20, 20, 22, 22, 22, 26, 26, 26, 26, 24, 28, 28, 28, 28, 26, 26, 26, 26, 24, 24, 24, 24, 24, 24, 24, 22, 22, 22, 24, 24, 24, 22, 22, 22, 22, 22, 22, 22, 22, 22, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[24, 26, 20, 18, 24, 24, 30, 30, 26, 20, 20, 26, 28, 26, 24, 26, 28, 28, 34, 30, 26, 24, 28, 32, 32, 30, 26, 30, 26, 34, 32, 28, 26, 26, 26, 26, 30, 28, 28, 26, 30, 30, 28, 30, 30, 30, 28, 32, 30, 26, 26, 28, 28, 26, 28, 28, 30, 24, 24, 24, 24, 24, 24, 24, 24, 22, 22, 22, 22, 22, 22, 18, 18, 18, 18, 18, 18, 18, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>[14, 13, 9, 3, 2, 9, 3, 10, 0, 1, 8, 0, 12, 11, 10]</t>
+          <t>[4, 2, 8, 3, 1, 2, 5, 9, 5, 0, 10, 11, 1, 2, 9]</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[2, 7, 9, 12, 1, 5, 0, 10, 4, 14, 8, 3, 13, 6, 13]</t>
+          <t>[9, 6, 12, 5, 7, 0, 10, 14, 4, 1, 8, 11, 13, 2, 3]</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -4435,18 +4435,18 @@
         <v>1000</v>
       </c>
       <c r="F138" t="n">
-        <v>0.06482672691345215</v>
+        <v>0.06582403182983398</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[34, 30, 26, 26, 28, 30, 28, 26, 34, 36, 34, 34, 32, 38, 36, 36, 32, 32, 26, 26, 28, 28, 30, 28, 26, 24, 24, 22, 24, 22, 22, 18, 26, 26, 28, 34, 30, 30, 32, 38, 36, 32, 28, 24, 28, 24, 22, 22, 20, 18, 18, 16, 14, 14, 14, 18, 18, 18, 18, 20, 16, 16, 16, 16, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[28, 28, 28, 26, 24, 20, 22, 26, 24, 26, 20, 22, 28, 26, 28, 24, 28, 26, 26, 24, 28, 24, 22, 30, 30, 28, 36, 46, 46, 36, 44, 50, 52, 48, 50, 50, 52, 52, 58, 58, 62, 64, 56, 50, 50, 50, 44, 44, 36, 36, 36, 34, 30, 30, 32, 34, 34, 34, 34, 34, 34, 36, 36, 36, 30, 30, 30, 30, 30, 28, 24, 24, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 18, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>[13, 11, 8, 14, 2, 5, 1, 13, 11, 7, 8, 6, 12, 0, 2]</t>
+          <t>[3, 5, 9, 13, 9, 4, 6, 11, 2, 13, 7, 11, 0, 14, 2]</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -4454,28 +4454,28 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[9, 4, 12, 14, 3, 5, 7, 1, 12, 2, 6, 13, 10, 8, 11]</t>
+          <t>[3, 9, 0, 8, 10, 14, 6, 2, 5, 13, 11, 7, 4, 12, 1]</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1000</v>
+        <v>344</v>
       </c>
       <c r="F139" t="n">
-        <v>0.06482672691345215</v>
+        <v>0.02194118499755859</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[28, 30, 36, 40, 44, 38, 30, 24, 20, 24, 28, 28, 30, 34, 30, 34, 38, 40, 40, 32, 32, 28, 26, 26, 28, 30, 28, 26, 24, 22, 26, 22, 22, 20, 26, 28, 32, 26, 22, 26, 26, 20, 24, 28, 30, 28, 28, 34, 28, 24, 20, 20, 20, 20, 20, 22, 24, 24, 24, 26, 26, 26, 26, 26, 24, 24, 24, 24, 24, 22, 22, 22, 22, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[24, 22, 24, 36, 34, 28, 24, 20, 20, 22, 28, 26, 28, 36, 36, 40, 38, 28, 24, 28, 28, 30, 30, 28, 24, 24, 26, 26, 26, 24, 30, 30, 28, 20, 20, 18, 22, 24, 24, 24, 18, 20, 20, 20, 20, 18, 20, 20, 24, 22, 22, 22, 24, 24, 24, 24, 24, 24, 26, 26, 26, 26, 20, 20, 20, 16, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>[14, 2, 7, 3, 8, 5, 1, 3, 4, 7, 7, 8, 2, 10, 6]</t>
+          <t>[11, 2, 13, 2, 2, 7, 6, 1, 5, 0, 14, 13, 6, 3, 0]</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -4483,28 +4483,28 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[9, 6, 2, 5, 2, 13, 7, 14, 12, 3, 0, 8, 11, 1, 10]</t>
+          <t>[4, 8, 14, 0, 3, 1, 6, 12, 9, 11, 13, 2, 10, 5, 7]</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="F140" t="n">
-        <v>0.06482672691345215</v>
+        <v>0.05584979057312012</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[28, 24, 24, 24, 28, 28, 28, 28, 30, 36, 34, 42, 38, 42, 38, 34, 38, 32, 40, 36, 48, 42, 48, 52, 48, 50, 50, 52, 52, 60, 52, 52, 50, 50, 50, 48, 52, 52, 52, 56, 52, 56, 48, 46, 44, 38, 30, 24, 28, 24, 24, 22, 24, 26, 26, 24, 22, 22, 22, 22, 20, 20, 16, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[22, 22, 24, 30, 28, 28, 32, 26, 24, 26, 26, 26, 22, 26, 24, 22, 24, 22, 26, 26, 20, 22, 26, 26, 26, 28, 28, 26, 30, 36, 34, 34, 34, 40, 28, 28, 28, 26, 30, 40, 48, 48, 38, 38, 38, 30, 26, 24, 20, 20, 22, 26, 20, 16, 14, 14, 14, 14, 14, 16, 16, 22, 22, 22, 22, 22, 22, 22, 18, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>[6, 11, 12, 1, 4, 2, 12, 14, 11, 3, 11, 6, 12, 6, 3]</t>
+          <t>[9, 4, 5, 0, 3, 7, 2, 8, 5, 13, 9, 13, 7, 12, 14]</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[5, 7, 13, 1, 14, 12, 6, 0, 11, 2, 4, 10, 8, 3, 9]</t>
+          <t>[8, 10, 2, 14, 5, 9, 12, 3, 7, 4, 13, 1, 4, 6, 11]</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -4522,18 +4522,18 @@
         <v>1000</v>
       </c>
       <c r="F141" t="n">
-        <v>0.06382918357849121</v>
+        <v>0.06582403182983398</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[34, 32, 28, 28, 28, 40, 40, 34, 30, 32, 30, 28, 30, 28, 30, 34, 40, 38, 42, 40, 40, 40, 36, 32, 36, 36, 34, 34, 34, 38, 40, 40, 40, 48, 44, 44, 44, 42, 52, 42, 44, 42, 40, 34, 36, 34, 30, 30, 24, 20, 20, 22, 22, 22, 22, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 18, 18, 18, 18, 18, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[24, 24, 28, 34, 32, 32, 30, 32, 30, 30, 24, 24, 26, 22, 24, 22, 26, 28, 32, 36, 30, 30, 34, 34, 32, 30, 32, 30, 34, 30, 32, 28, 30, 28, 26, 28, 28, 28, 26, 26, 24, 22, 22, 22, 22, 22, 22, 26, 26, 22, 24, 26, 22, 16, 14, 14, 12, 12, 12, 12, 12, 14, 14, 14, 14, 14, 14, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>[3, 14, 4, 5, 5, 12, 13, 13, 5, 13, 10, 11, 12, 12, 12]</t>
+          <t>[10, 13, 4, 10, 10, 2, 13, 6, 4, 13, 6, 13, 0, 14, 0]</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -4541,28 +4541,28 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[5, 14, 1, 9, 7, 2, 13, 11, 6, 0, 3, 12, 4, 8, 10]</t>
+          <t>[11, 6, 3, 9, 14, 4, 8, 10, 5, 13, 0, 2, 12, 7, 1]</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E142" t="n">
-        <v>682</v>
+        <v>1000</v>
       </c>
       <c r="F142" t="n">
-        <v>0.04388284683227539</v>
+        <v>0.06482648849487305</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[38, 44, 44, 34, 38, 36, 32, 32, 32, 34, 30, 32, 30, 28, 24, 28, 30, 28, 30, 32, 30, 28, 26, 26, 26, 30, 26, 24, 26, 32, 28, 26, 28, 36, 36, 36, 36, 34, 36, 36, 40, 38, 36, 36, 30, 34, 34, 36, 36, 32, 28, 22, 24, 22, 22, 24, 24, 22, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[40, 36, 30, 28, 28, 26, 20, 18, 18, 16, 14, 20, 22, 24, 24, 24, 20, 20, 20, 24, 34, 38, 36, 36, 34, 32, 34, 34, 32, 28, 22, 24, 28, 26, 30, 30, 38, 42, 36, 30, 38, 36, 34, 34, 36, 36, 26, 28, 24, 26, 26, 28, 28, 28, 32, 32, 36, 36, 36, 30, 24, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>[2, 3, 10, 8, 1, 4, 8, 14, 11, 4, 1, 7, 1, 12, 10]</t>
+          <t>[3, 0, 4, 11, 5, 13, 11, 0, 9, 1, 13, 11, 8, 14, 6]</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[0, 7, 12, 14, 9, 2, 13, 5, 10, 12, 1, 4, 11, 3, 6]</t>
+          <t>[10, 5, 2, 9, 11, 14, 7, 1, 13, 0, 12, 3, 8, 11, 4]</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -4580,18 +4580,18 @@
         <v>1000</v>
       </c>
       <c r="F143" t="n">
-        <v>0.06482672691345215</v>
+        <v>0.06582403182983398</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[26, 24, 24, 32, 28, 30, 32, 32, 28, 22, 26, 28, 26, 20, 24, 28, 30, 32, 28, 28, 26, 26, 32, 28, 26, 20, 20, 22, 26, 30, 28, 26, 28, 32, 30, 30, 30, 32, 28, 24, 24, 22, 20, 26, 26, 20, 22, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[26, 24, 22, 30, 28, 24, 18, 22, 22, 28, 26, 30, 32, 26, 26, 28, 24, 30, 28, 32, 28, 32, 30, 22, 18, 16, 18, 16, 10, 10, 12, 10, 14, 20, 20, 24, 26, 24, 24, 24, 24, 22, 20, 22, 24, 20, 26, 26, 32, 30, 30, 26, 30, 28, 28, 24, 20, 20, 22, 22, 22, 22, 22, 22, 22, 22, 20, 20, 20, 20, 20, 20, 20, 20, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>[9, 10, 6, 5, 7, 14, 1, 6, 4, 13, 0, 1, 3, 6, 8]</t>
+          <t>[10, 13, 7, 11, 0, 13, 2, 2, 4, 4, 1, 7, 11, 3, 12]</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -4599,28 +4599,28 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[9, 6, 14, 11, 2, 8, 12, 1, 3, 13, 0, 4, 0, 10, 5]</t>
+          <t>[14, 5, 11, 0, 4, 12, 9, 2, 1, 3, 8, 10, 13, 9, 6]</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E144" t="n">
         <v>1000</v>
       </c>
       <c r="F144" t="n">
-        <v>0.06482672691345215</v>
+        <v>0.06682109832763672</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[28, 34, 34, 36, 32, 30, 34, 42, 36, 38, 40, 34, 38, 34, 34, 36, 40, 40, 36, 34, 30, 30, 28, 28, 26, 24, 26, 30, 30, 30, 24, 32, 30, 36, 34, 34, 32, 30, 24, 20, 20, 18, 18, 16, 16, 20, 20, 16, 16, 20, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 20, 20, 20, 20, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[32, 32, 28, 32, 32, 36, 34, 36, 36, 40, 36, 36, 34, 34, 34, 28, 34, 46, 46, 40, 48, 40, 36, 32, 28, 28, 26, 28, 36, 34, 34, 38, 38, 30, 26, 28, 32, 32, 28, 28, 28, 32, 32, 30, 32, 34, 32, 34, 34, 28, 22, 22, 30, 30, 30, 30, 24, 24, 24, 18, 18, 16, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>[13, 2, 14, 6, 12, 14, 7, 0, 9, 13, 5, 9, 14, 8, 13]</t>
+          <t>[4, 2, 7, 7, 1, 3, 8, 9, 8, 6, 6, 6, 2, 10, 11]</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[11, 5, 14, 0, 9, 7, 2, 13, 11, 1, 4, 12, 10, 8, 3]</t>
+          <t>[8, 5, 14, 2, 10, 6, 3, 0, 11, 3, 12, 9, 1, 13, 4]</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -4638,18 +4638,18 @@
         <v>1000</v>
       </c>
       <c r="F145" t="n">
-        <v>0.06482648849487305</v>
+        <v>0.06482696533203125</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[26, 28, 32, 36, 38, 30, 30, 28, 32, 32, 30, 36, 32, 34, 36, 38, 40, 38, 38, 36, 38, 34, 32, 30, 32, 28, 26, 24, 22, 22, 24, 24, 18, 16, 16, 16, 20, 20, 28, 32, 32, 32, 34, 32, 32, 32, 30, 30, 30, 30, 34, 30, 32, 32, 32, 28, 28, 24, 24, 22, 22, 22, 24, 24, 24, 22, 22, 22, 22, 22, 22, 22, 22, 18, 18, 18, 18, 18, 16, 16, 12, 12, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[36, 36, 36, 36, 36, 32, 34, 26, 26, 36, 34, 36, 32, 36, 38, 44, 38, 32, 36, 30, 24, 30, 32, 28, 28, 28, 36, 40, 32, 32, 28, 32, 30, 32, 34, 38, 40, 36, 38, 36, 38, 42, 40, 36, 40, 38, 36, 40, 38, 40, 34, 36, 36, 36, 34, 38, 30, 30, 30, 22, 26, 24, 24, 24, 24, 24, 24, 24, 22, 22, 22, 22, 22, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>[6, 11, 13, 10, 14, 7, 3, 11, 14, 6, 10, 14, 13, 14, 10]</t>
+          <t>[10, 1, 5, 14, 1, 10, 13, 9, 10, 5, 4, 11, 8, 3, 1]</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -4657,28 +4657,28 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[11, 8, 2, 13, 1, 10, 14, 5, 9, 4, 0, 3, 6, 12, 7]</t>
+          <t>[2, 14, 7, 1, 10, 12, 1, 3, 5, 9, 11, 0, 4, 6, 8]</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E146" t="n">
-        <v>748</v>
+        <v>1000</v>
       </c>
       <c r="F146" t="n">
-        <v>0.04886937141418457</v>
+        <v>0.06482648849487305</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[40, 42, 40, 44, 40, 40, 40, 44, 46, 52, 48, 44, 38, 36, 44, 42, 38, 44, 46, 50, 44, 44, 54, 54, 58, 58, 56, 44, 36, 42, 38, 32, 32, 34, 34, 36, 42, 48, 42, 46, 46, 46, 46, 50, 48, 44, 36, 34, 34, 32, 30, 26, 28, 24, 22, 28, 28, 28, 30, 30, 32, 32, 32, 30, 28, 28, 26, 26, 24, 18, 18, 18, 18, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[26, 28, 28, 32, 30, 30, 32, 38, 36, 38, 44, 40, 36, 28, 24, 20, 18, 20, 22, 18, 24, 22, 24, 28, 24, 28, 34, 32, 24, 24, 24, 26, 24, 24, 22, 22, 22, 24, 24, 30, 24, 24, 26, 26, 20, 20, 20, 20, 22, 22, 18, 18, 14, 14, 16, 16, 16, 16, 14, 16, 14, 14, 14, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>[12, 7, 0, 4, 2, 5, 12, 0, 1, 6, 14, 2, 10, 2, 7]</t>
+          <t>[12, 11, 13, 0, 13, 0, 2, 2, 11, 7, 10, 12, 6, 14, 11]</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -4686,28 +4686,28 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[2, 6, 8, 13, 7, 0, 14, 5, 1, 10, 4, 11, 9, 12, 3]</t>
+          <t>[8, 1, 4, 12, 7, 0, 10, 13, 9, 14, 3, 10, 2, 5, 11]</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>512</v>
+        <v>1000</v>
       </c>
       <c r="F147" t="n">
-        <v>0.03291177749633789</v>
+        <v>0.06582403182983398</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[30, 32, 30, 30, 36, 40, 36, 30, 34, 34, 36, 34, 42, 44, 42, 36, 40, 38, 38, 34, 34, 34, 42, 42, 38, 38, 40, 38, 40, 46, 40, 36, 24, 24, 26, 26, 30, 36, 38, 36, 36, 34, 32, 32, 32, 32, 30, 34, 32, 28, 28, 28, 22, 18, 18, 18, 20, 22, 22, 20, 20, 22, 22, 18, 18, 18, 16, 14, 14, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[22, 24, 30, 30, 26, 26, 28, 36, 38, 38, 32, 38, 34, 32, 32, 28, 24, 26, 28, 28, 24, 24, 22, 22, 22, 20, 22, 28, 32, 34, 30, 32, 40, 34, 28, 26, 34, 32, 36, 42, 38, 36, 30, 30, 34, 40, 40, 34, 36, 38, 38, 34, 38, 28, 26, 26, 24, 26, 18, 18, 22, 24, 24, 24, 22, 20, 20, 20, 20, 20, 20, 20, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 16, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>[8, 4, 9, 9, 3, 3, 7, 3, 6, 3, 8, 3, 0, 4, 1]</t>
+          <t>[6, 12, 9, 14, 3, 3, 12, 7, 2, 3, 5, 14, 0, 3, 7]</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[1, 8, 4, 12, 9, 11, 6, 3, 0, 13, 7, 14, 2, 7, 5]</t>
+          <t>[4, 6, 10, 14, 5, 11, 13, 3, 0, 12, 8, 2, 2, 7, 1]</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -4725,18 +4725,18 @@
         <v>1000</v>
       </c>
       <c r="F148" t="n">
-        <v>0.06482696533203125</v>
+        <v>0.06482672691345215</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[42, 36, 36, 38, 38, 30, 28, 30, 38, 30, 34, 38, 38, 40, 36, 34, 38, 34, 36, 36, 34, 32, 36, 40, 38, 36, 34, 36, 30, 36, 34, 40, 28, 28, 24, 20, 22, 20, 20, 24, 18, 20, 28, 30, 30, 30, 32, 34, 32, 34, 36, 30, 30, 26, 26, 24, 26, 32, 30, 30, 30, 30, 30, 28, 28, 28, 26, 26, 22, 22, 22, 22, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[26, 28, 22, 20, 22, 26, 22, 20, 24, 28, 28, 26, 24, 30, 36, 32, 36, 40, 38, 32, 34, 26, 20, 26, 24, 26, 28, 26, 32, 30, 28, 30, 28, 26, 28, 26, 26, 28, 32, 30, 34, 34, 40, 42, 36, 34, 40, 40, 34, 34, 34, 36, 34, 34, 34, 30, 24, 22, 22, 22, 26, 22, 20, 20, 20, 20, 20, 20, 20, 22, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 18, 18, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>[11, 3, 2, 12, 3, 12, 9, 2, 10, 12, 10, 4, 9, 3, 4]</t>
+          <t>[0, 10, 3, 2, 13, 10, 4, 8, 9, 1, 10, 11, 10, 7, 7]</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[9, 5, 10, 14, 7, 0, 2, 6, 13, 11, 4, 8, 3, 1, 12]</t>
+          <t>[4, 0, 12, 9, 5, 14, 1, 6, 13, 2, 10, 7, 3, 11, 8]</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -4754,18 +4754,18 @@
         <v>1000</v>
       </c>
       <c r="F149" t="n">
-        <v>0.06482696533203125</v>
+        <v>0.06482648849487305</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[40, 46, 48, 40, 38, 40, 44, 42, 40, 42, 40, 38, 38, 38, 38, 34, 30, 34, 30, 34, 38, 32, 32, 32, 26, 26, 24, 26, 30, 38, 36, 34, 32, 34, 34, 38, 34, 32, 30, 30, 28, 30, 32, 30, 30, 30, 30, 28, 28, 28, 28, 24, 24, 24, 24, 20, 20, 20, 18, 18, 16, 16, 14, 14, 14, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[42, 38, 36, 32, 30, 36, 38, 38, 36, 40, 40, 34, 32, 36, 38, 44, 38, 36, 32, 36, 40, 38, 34, 34, 30, 30, 30, 26, 20, 24, 22, 24, 22, 26, 24, 20, 20, 18, 18, 16, 14, 16, 16, 18, 18, 18, 18, 16, 16, 16, 16, 18, 14, 14, 14, 14, 14, 14, 14, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>[11, 12, 10, 7, 9, 0, 13, 0, 12, 8, 5, 0, 12, 7, 14]</t>
+          <t>[4, 14, 5, 14, 11, 11, 11, 13, 8, 12, 9, 12, 3, 3, 7]</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -4773,28 +4773,28 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[8, 2, 7, 12, 1, 9, 13, 6, 14, 3, 10, 0, 5, 11, 4]</t>
+          <t>[13, 7, 10, 6, 3, 5, 0, 14, 12, 2, 8, 12, 4, 9, 1]</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>348</v>
+        <v>1000</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0219414234161377</v>
+        <v>0.06582403182983398</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[28, 28, 26, 26, 26, 30, 32, 32, 38, 38, 40, 40, 40, 36, 40, 44, 52, 52, 44, 42, 40, 44, 42, 42, 42, 44, 46, 42, 38, 34, 38, 40, 38, 34, 30, 36, 34, 32, 32, 28, 22, 22, 20, 14, 18, 18, 18, 18, 18, 26, 28, 28, 30, 26, 22, 20, 20, 20, 20, 20, 20, 22, 28, 26, 22, 22, 22, 22, 22, 22, 22, 20, 20, 20, 20, 20, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[32, 34, 32, 40, 38, 34, 36, 32, 36, 34, 28, 32, 28, 34, 32, 28, 36, 40, 48, 48, 48, 44, 34, 30, 28, 26, 24, 22, 28, 28, 24, 26, 28, 22, 22, 26, 30, 34, 34, 36, 36, 28, 28, 28, 38, 38, 40, 38, 36, 34, 38, 38, 38, 34, 24, 24, 24, 24, 24, 24, 28, 28, 28, 24, 22, 22, 22, 22, 22, 22, 22, 24, 24, 24, 22, 22, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 16, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>[12, 0, 8, 4, 14, 0, 14, 12, 10, 8, 6, 11, 5, 10, 7]</t>
+          <t>[9, 12, 12, 2, 14, 8, 3, 11, 0, 11, 7, 5, 12, 1, 2]</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -4802,21 +4802,21 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[4, 14, 9, 11, 3, 5, 7, 10, 13, 0, 12, 1, 8, 6, 2]</t>
+          <t>[8, 1, 12, 4, 6, 14, 9, 2, 13, 7, 3, 0, 11, 5, 10]</t>
         </is>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>348</v>
+        <v>698</v>
       </c>
       <c r="F151" t="n">
-        <v>0.02293848991394043</v>
+        <v>0.04487991333007812</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[18, 20, 22, 24, 26, 28, 26, 26, 26, 30, 32, 32, 32, 26, 24, 30, 32, 32, 38, 36, 40, 42, 34, 38, 34, 34, 40, 40, 36, 34, 32, 28, 36, 30, 34, 34, 26, 24, 22, 22, 20, 26, 22, 20, 22, 16, 16, 16, 22, 22, 22, 22, 24, 16, 16, 16, 16, 16, 14, 14, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[26, 24, 26, 22, 22, 28, 28, 28, 28, 22, 18, 18, 22, 20, 18, 16, 18, 16, 16, 16, 18, 18, 18, 20, 20, 22, 28, 22, 24, 26, 28, 30, 34, 38, 46, 46, 40, 36, 40, 44, 38, 34, 34, 30, 34, 28, 24, 24, 18, 18, 18, 18, 18, 14, 18, 18, 22, 22, 20, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 16, 16, 16, 16, 16, 16, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
